--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  HERRADURA  Agosto     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  HERRADURA  Agosto     2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="1" r:id="rId1"/>
@@ -504,7 +504,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="453">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1873,6 +1873,9 @@
   </si>
   <si>
     <t>BALANCE      ABASTO 4 CARNES    H E R R A D U R A    AGOSTO       2 0 2 3</t>
+  </si>
+  <si>
+    <t>EXTINTOR Rec</t>
   </si>
 </sst>
 </file>
@@ -3983,69 +3986,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4097,6 +4037,69 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4127,6 +4130,12 @@
     <xf numFmtId="166" fontId="3" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4135,12 +4144,6 @@
     </xf>
     <xf numFmtId="166" fontId="16" fillId="9" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -7169,13 +7172,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7222,13 +7225,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7275,13 +7278,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7328,13 +7331,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7381,13 +7384,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>200023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133352</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7442,7 +7445,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>64250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1323990" cy="419708"/>
@@ -7537,13 +7540,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7883,23 +7886,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="354"/>
-      <c r="C1" s="356" t="s">
+      <c r="B1" s="359"/>
+      <c r="C1" s="361" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="357"/>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
+      <c r="D1" s="362"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="362"/>
+      <c r="G1" s="362"/>
+      <c r="H1" s="362"/>
+      <c r="I1" s="362"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
+      <c r="L1" s="362"/>
+      <c r="M1" s="362"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="355"/>
+      <c r="B2" s="360"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -7909,21 +7912,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="358" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="359"/>
+      <c r="B3" s="363" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="364"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="360" t="s">
+      <c r="H3" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="360"/>
+      <c r="I3" s="365"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="363" t="s">
+      <c r="R3" s="342" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7938,14 +7941,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="365" t="s">
+      <c r="E4" s="344" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="366"/>
-      <c r="H4" s="367" t="s">
+      <c r="F4" s="345"/>
+      <c r="H4" s="346" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="368"/>
+      <c r="I4" s="347"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -7955,11 +7958,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="369" t="s">
+      <c r="P4" s="348" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="370"/>
-      <c r="R4" s="364"/>
+      <c r="Q4" s="349"/>
+      <c r="R4" s="343"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9764,11 +9767,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="361">
+      <c r="M49" s="366">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="372">
+      <c r="N49" s="351">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -9803,8 +9806,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="362"/>
-      <c r="N50" s="373"/>
+      <c r="M50" s="367"/>
+      <c r="N50" s="352"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -9896,29 +9899,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="374" t="s">
+      <c r="H55" s="353" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="375"/>
+      <c r="I55" s="354"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="376">
+      <c r="K55" s="355">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="377"/>
-      <c r="M55" s="378">
+      <c r="L55" s="356"/>
+      <c r="M55" s="357">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="379"/>
+      <c r="N55" s="358"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="371" t="s">
+      <c r="D56" s="350" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="371"/>
+      <c r="E56" s="350"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -9929,22 +9932,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="342" t="s">
+      <c r="D57" s="368" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="342"/>
+      <c r="E57" s="368"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="343" t="s">
+      <c r="I57" s="369" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="344"/>
-      <c r="K57" s="345">
+      <c r="J57" s="370"/>
+      <c r="K57" s="371">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="346"/>
+      <c r="L57" s="372"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -9975,11 +9978,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="347">
+      <c r="K59" s="373">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="348"/>
+      <c r="L59" s="374"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -9996,22 +9999,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="349" t="s">
+      <c r="D61" s="375" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="350"/>
+      <c r="E61" s="376"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="351" t="s">
+      <c r="I61" s="377" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="352"/>
-      <c r="K61" s="353">
+      <c r="J61" s="378"/>
+      <c r="K61" s="379">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="353"/>
+      <c r="L61" s="379"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -10136,6 +10139,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10145,18 +10160,6 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11586,23 +11589,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="354"/>
-      <c r="C1" s="356" t="s">
+      <c r="B1" s="359"/>
+      <c r="C1" s="361" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="357"/>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
+      <c r="D1" s="362"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="362"/>
+      <c r="G1" s="362"/>
+      <c r="H1" s="362"/>
+      <c r="I1" s="362"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
+      <c r="L1" s="362"/>
+      <c r="M1" s="362"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="355"/>
+      <c r="B2" s="360"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -11615,17 +11618,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="358" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="359"/>
+      <c r="B3" s="363" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="364"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="360" t="s">
+      <c r="H3" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="360"/>
+      <c r="I3" s="365"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
@@ -11644,14 +11647,14 @@
       <c r="D4" s="307">
         <v>45081</v>
       </c>
-      <c r="E4" s="365" t="s">
+      <c r="E4" s="344" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="366"/>
-      <c r="H4" s="367" t="s">
+      <c r="F4" s="345"/>
+      <c r="H4" s="346" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="368"/>
+      <c r="I4" s="347"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -13449,11 +13452,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="361">
+      <c r="M45" s="366">
         <f>SUM(M5:M39)</f>
         <v>3170751</v>
       </c>
-      <c r="N45" s="372">
+      <c r="N45" s="351">
         <f>SUM(N5:N39)</f>
         <v>31751.230000000003</v>
       </c>
@@ -13483,8 +13486,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="362"/>
-      <c r="N46" s="373"/>
+      <c r="M46" s="367"/>
+      <c r="N46" s="352"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -13576,29 +13579,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="374" t="s">
+      <c r="H51" s="353" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="375"/>
+      <c r="I51" s="354"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="376">
+      <c r="K51" s="355">
         <f>I49+L49</f>
         <v>66093.360000000015</v>
       </c>
-      <c r="L51" s="377"/>
-      <c r="M51" s="378">
+      <c r="L51" s="356"/>
+      <c r="M51" s="357">
         <f>N45+M45</f>
         <v>3202502.23</v>
       </c>
-      <c r="N51" s="379"/>
+      <c r="N51" s="358"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="371" t="s">
+      <c r="D52" s="350" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="371"/>
+      <c r="E52" s="350"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>3132761.64</v>
@@ -13609,17 +13612,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="342" t="s">
+      <c r="D53" s="368" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="342"/>
+      <c r="E53" s="368"/>
       <c r="F53" s="131">
         <v>-3128572.23</v>
       </c>
-      <c r="I53" s="343" t="s">
+      <c r="I53" s="369" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="344"/>
+      <c r="J53" s="370"/>
       <c r="K53" s="383">
         <f>F55+F56+F57</f>
         <v>417897.52000000014</v>
@@ -13676,22 +13679,22 @@
       <c r="C57" s="150">
         <v>45109</v>
       </c>
-      <c r="D57" s="349" t="s">
+      <c r="D57" s="375" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="350"/>
+      <c r="E57" s="376"/>
       <c r="F57" s="316">
         <v>359108.11</v>
       </c>
-      <c r="I57" s="390" t="s">
+      <c r="I57" s="392" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="391"/>
-      <c r="K57" s="392">
+      <c r="J57" s="393"/>
+      <c r="K57" s="394">
         <f>K53+K55</f>
         <v>72263.830000000133</v>
       </c>
-      <c r="L57" s="392"/>
+      <c r="L57" s="394"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -13816,18 +13819,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13837,6 +13828,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15223,8 +15226,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15249,23 +15252,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="354"/>
-      <c r="C1" s="356" t="s">
+      <c r="B1" s="359"/>
+      <c r="C1" s="361" t="s">
         <v>381</v>
       </c>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="357"/>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
+      <c r="D1" s="362"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="362"/>
+      <c r="G1" s="362"/>
+      <c r="H1" s="362"/>
+      <c r="I1" s="362"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
+      <c r="L1" s="362"/>
+      <c r="M1" s="362"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="355"/>
+      <c r="B2" s="360"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -15278,17 +15281,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="358" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="359"/>
+      <c r="B3" s="363" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="364"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="360" t="s">
+      <c r="H3" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="360"/>
+      <c r="I3" s="365"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
@@ -15307,14 +15310,14 @@
       <c r="D4" s="307">
         <v>45109</v>
       </c>
-      <c r="E4" s="365" t="s">
+      <c r="E4" s="344" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="366"/>
-      <c r="H4" s="367" t="s">
+      <c r="F4" s="345"/>
+      <c r="H4" s="346" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="368"/>
+      <c r="I4" s="347"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -16876,7 +16879,9 @@
       <c r="G38" s="29"/>
       <c r="H38" s="30"/>
       <c r="I38" s="31"/>
-      <c r="J38" s="86"/>
+      <c r="J38" s="86">
+        <v>45137</v>
+      </c>
       <c r="K38" s="330" t="s">
         <v>392</v>
       </c>
@@ -16912,7 +16917,9 @@
       <c r="G39" s="29"/>
       <c r="H39" s="30"/>
       <c r="I39" s="31"/>
-      <c r="J39" s="86"/>
+      <c r="J39" s="86">
+        <v>45137</v>
+      </c>
       <c r="K39" s="282" t="s">
         <v>393</v>
       </c>
@@ -16948,9 +16955,15 @@
       <c r="G40" s="29"/>
       <c r="H40" s="30"/>
       <c r="I40" s="31"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="231"/>
-      <c r="L40" s="281"/>
+      <c r="J40" s="86">
+        <v>45111</v>
+      </c>
+      <c r="K40" s="231" t="s">
+        <v>452</v>
+      </c>
+      <c r="L40" s="281">
+        <v>1907.04</v>
+      </c>
       <c r="M40" s="33">
         <v>0</v>
       </c>
@@ -17110,11 +17123,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="361">
+      <c r="M45" s="366">
         <f>SUM(M5:M39)</f>
         <v>3725440</v>
       </c>
-      <c r="N45" s="372">
+      <c r="N45" s="351">
         <f>SUM(N5:N39)</f>
         <v>22373</v>
       </c>
@@ -17144,8 +17157,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="362"/>
-      <c r="N46" s="373"/>
+      <c r="M46" s="367"/>
+      <c r="N46" s="352"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="236">
         <f t="shared" si="1"/>
@@ -17225,7 +17238,7 @@
       </c>
       <c r="L49" s="292">
         <f>SUM(L5:L48)</f>
-        <v>56126.490000000005</v>
+        <v>58033.530000000006</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -17243,32 +17256,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="374" t="s">
+      <c r="H51" s="353" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="375"/>
+      <c r="I51" s="354"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="376">
+      <c r="K51" s="355">
         <f>I49+L49</f>
-        <v>59309.490000000005</v>
-      </c>
-      <c r="L51" s="377"/>
-      <c r="M51" s="378">
+        <v>61216.530000000006</v>
+      </c>
+      <c r="L51" s="356"/>
+      <c r="M51" s="357">
         <f>N45+M45</f>
         <v>3747813</v>
       </c>
-      <c r="N51" s="379"/>
+      <c r="N51" s="358"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="371" t="s">
+      <c r="D52" s="350" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="371"/>
+      <c r="E52" s="350"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>1800679.5099999998</v>
+        <v>1798772.4700000002</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -17276,20 +17289,20 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="342" t="s">
+      <c r="D53" s="368" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="342"/>
+      <c r="E53" s="368"/>
       <c r="F53" s="131">
         <v>-2396693.7400000002</v>
       </c>
-      <c r="I53" s="343" t="s">
+      <c r="I53" s="369" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="344"/>
+      <c r="J53" s="370"/>
       <c r="K53" s="383">
         <f>F55+F56+F57</f>
-        <v>-136344.11000000045</v>
+        <v>-138251.15000000002</v>
       </c>
       <c r="L53" s="384"/>
       <c r="P53" s="36"/>
@@ -17316,7 +17329,7 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>-596014.23000000045</v>
+        <v>-597921.27</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
@@ -17345,10 +17358,10 @@
       <c r="C57" s="150">
         <v>45137</v>
       </c>
-      <c r="D57" s="349" t="s">
+      <c r="D57" s="375" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="350"/>
+      <c r="E57" s="376"/>
       <c r="F57" s="316">
         <v>358228.12</v>
       </c>
@@ -17358,7 +17371,7 @@
       <c r="J57" s="388"/>
       <c r="K57" s="397">
         <f>K53+K55</f>
-        <v>-495452.22000000044</v>
+        <v>-497359.26</v>
       </c>
       <c r="L57" s="397"/>
     </row>
@@ -17488,6 +17501,18 @@
     <sortCondition ref="J34:J39"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -17497,18 +17522,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17526,7 +17539,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18955,13 +18968,13 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:U79"/>
+  <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18986,23 +18999,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="354"/>
-      <c r="C1" s="356" t="s">
+      <c r="B1" s="359"/>
+      <c r="C1" s="361" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="357"/>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
+      <c r="D1" s="362"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="362"/>
+      <c r="G1" s="362"/>
+      <c r="H1" s="362"/>
+      <c r="I1" s="362"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
+      <c r="L1" s="362"/>
+      <c r="M1" s="362"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="355"/>
+      <c r="B2" s="360"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -19015,17 +19028,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="358" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="359"/>
+      <c r="B3" s="363" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="364"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="360" t="s">
+      <c r="H3" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="360"/>
+      <c r="I3" s="365"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
@@ -19044,14 +19057,14 @@
       <c r="D4" s="307">
         <v>45137</v>
       </c>
-      <c r="E4" s="365" t="s">
+      <c r="E4" s="344" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="366"/>
-      <c r="H4" s="367" t="s">
+      <c r="F4" s="345"/>
+      <c r="H4" s="346" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="368"/>
+      <c r="I4" s="347"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -19213,11 +19226,11 @@
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="235">
-        <f t="shared" ref="P8:P45" si="0">N8+M8+L8+I8+C8</f>
+        <f t="shared" ref="P8:P51" si="0">N8+M8+L8+I8+C8</f>
         <v>0</v>
       </c>
       <c r="Q8" s="236">
-        <f t="shared" ref="Q8:Q47" si="1">P8-F8</f>
+        <f t="shared" ref="Q8:Q53" si="1">P8-F8</f>
         <v>0</v>
       </c>
       <c r="R8" s="238">
@@ -20502,25 +20515,14 @@
       <c r="H42" s="30"/>
       <c r="I42" s="31"/>
       <c r="J42" s="86"/>
-      <c r="K42" s="231"/>
+      <c r="K42" s="305"/>
       <c r="L42" s="281"/>
-      <c r="M42" s="33">
-        <v>0</v>
-      </c>
-      <c r="N42" s="34">
-        <v>0</v>
-      </c>
+      <c r="M42" s="33"/>
+      <c r="N42" s="34"/>
       <c r="O42" s="35"/>
-      <c r="P42" s="235">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="236">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="238">
-        <v>0</v>
-      </c>
+      <c r="P42" s="235"/>
+      <c r="Q42" s="236"/>
+      <c r="R42" s="238"/>
       <c r="S42" s="37"/>
     </row>
     <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20529,30 +20531,19 @@
       <c r="C43" s="25"/>
       <c r="D43" s="80"/>
       <c r="E43" s="27"/>
-      <c r="F43" s="90"/>
+      <c r="F43" s="28"/>
       <c r="G43" s="29"/>
       <c r="H43" s="30"/>
-      <c r="I43" s="91"/>
+      <c r="I43" s="31"/>
       <c r="J43" s="86"/>
-      <c r="K43" s="89"/>
+      <c r="K43" s="305"/>
       <c r="L43" s="281"/>
-      <c r="M43" s="33">
-        <v>0</v>
-      </c>
-      <c r="N43" s="34">
-        <v>0</v>
-      </c>
+      <c r="M43" s="33"/>
+      <c r="N43" s="34"/>
       <c r="O43" s="35"/>
-      <c r="P43" s="240">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="236">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="242">
-        <v>0</v>
-      </c>
+      <c r="P43" s="235"/>
+      <c r="Q43" s="236"/>
+      <c r="R43" s="238"/>
       <c r="S43" s="37"/>
     </row>
     <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20561,438 +20552,586 @@
       <c r="C44" s="25"/>
       <c r="D44" s="80"/>
       <c r="E44" s="27"/>
-      <c r="F44" s="90"/>
+      <c r="F44" s="28"/>
       <c r="G44" s="29"/>
       <c r="H44" s="30"/>
-      <c r="I44" s="91"/>
+      <c r="I44" s="31"/>
       <c r="J44" s="86"/>
-      <c r="K44" s="231"/>
+      <c r="K44" s="305"/>
       <c r="L44" s="281"/>
-      <c r="M44" s="92">
-        <v>0</v>
-      </c>
-      <c r="N44" s="93"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="34"/>
       <c r="O44" s="35"/>
-      <c r="P44" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="236">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="13">
-        <v>0</v>
-      </c>
+      <c r="P44" s="235"/>
+      <c r="Q44" s="236"/>
+      <c r="R44" s="238"/>
       <c r="S44" s="37"/>
     </row>
-    <row r="45" spans="1:19" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="94"/>
+      <c r="D45" s="80"/>
       <c r="E45" s="27"/>
-      <c r="F45" s="95"/>
+      <c r="F45" s="28"/>
       <c r="G45" s="29"/>
       <c r="H45" s="30"/>
-      <c r="I45" s="96"/>
+      <c r="I45" s="31"/>
       <c r="J45" s="86"/>
-      <c r="K45" s="89"/>
+      <c r="K45" s="305"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="361">
-        <f>SUM(M5:M39)</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="372">
-        <f>SUM(N5:N39)</f>
-        <v>0</v>
-      </c>
-      <c r="P45" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="236">
-        <f>SUM(Q5:Q44)</f>
-        <v>0</v>
-      </c>
-      <c r="R45" s="329">
-        <f>SUM(R5:R39)</f>
-        <v>0</v>
-      </c>
+      <c r="M45" s="33"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="235"/>
+      <c r="Q45" s="236"/>
+      <c r="R45" s="238"/>
+      <c r="S45" s="37"/>
     </row>
     <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="94"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="80"/>
       <c r="E46" s="27"/>
-      <c r="F46" s="101"/>
+      <c r="F46" s="28"/>
       <c r="G46" s="29"/>
       <c r="H46" s="30"/>
-      <c r="I46" s="96"/>
+      <c r="I46" s="31"/>
       <c r="J46" s="86"/>
-      <c r="K46" s="102"/>
+      <c r="K46" s="305"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="362"/>
-      <c r="N46" s="373"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="236">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="13">
-        <v>0</v>
-      </c>
+      <c r="M46" s="33"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="235"/>
+      <c r="Q46" s="236"/>
+      <c r="R46" s="238"/>
+      <c r="S46" s="37"/>
     </row>
     <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23"/>
-      <c r="B47" s="111"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="91"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="31"/>
       <c r="J47" s="86"/>
-      <c r="K47" s="287"/>
-      <c r="L47" s="216"/>
-      <c r="M47" s="105"/>
-      <c r="N47" s="106"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="236">
+      <c r="K47" s="305"/>
+      <c r="L47" s="281"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="235"/>
+      <c r="Q47" s="236"/>
+      <c r="R47" s="238"/>
+      <c r="S47" s="37"/>
+    </row>
+    <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="231"/>
+      <c r="L48" s="281"/>
+      <c r="M48" s="33">
+        <v>0</v>
+      </c>
+      <c r="N48" s="34">
+        <v>0</v>
+      </c>
+      <c r="O48" s="35"/>
+      <c r="P48" s="235">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="236">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
-      <c r="B48" s="111"/>
-      <c r="C48" s="25">
-        <v>0</v>
-      </c>
-      <c r="D48" s="115"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="107"/>
-      <c r="H48" s="117"/>
-      <c r="I48" s="91"/>
-      <c r="J48" s="288"/>
-      <c r="K48" s="289"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="120"/>
-      <c r="N48" s="34"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="9"/>
-    </row>
-    <row r="49" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="121" t="s">
+      <c r="R48" s="238">
+        <v>0</v>
+      </c>
+      <c r="S48" s="37"/>
+    </row>
+    <row r="49" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="23"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="91"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="281"/>
+      <c r="M49" s="33">
+        <v>0</v>
+      </c>
+      <c r="N49" s="34">
+        <v>0</v>
+      </c>
+      <c r="O49" s="35"/>
+      <c r="P49" s="240">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="242">
+        <v>0</v>
+      </c>
+      <c r="S49" s="37"/>
+    </row>
+    <row r="50" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="23"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="231"/>
+      <c r="L50" s="281"/>
+      <c r="M50" s="92">
+        <v>0</v>
+      </c>
+      <c r="N50" s="93"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="13">
+        <v>0</v>
+      </c>
+      <c r="S50" s="37"/>
+    </row>
+    <row r="51" spans="1:19" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="23"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="96"/>
+      <c r="J51" s="86"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="281"/>
+      <c r="M51" s="366">
+        <f>SUM(M5:M39)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="351">
+        <f>SUM(N5:N39)</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="236">
+        <f>SUM(Q5:Q50)</f>
+        <v>0</v>
+      </c>
+      <c r="R51" s="329">
+        <f>SUM(R5:R39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="23"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="86"/>
+      <c r="K52" s="102"/>
+      <c r="L52" s="281"/>
+      <c r="M52" s="367"/>
+      <c r="N52" s="352"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="23"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="113"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="287"/>
+      <c r="L53" s="216"/>
+      <c r="M53" s="105"/>
+      <c r="N53" s="106"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="23"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="25">
+        <v>0</v>
+      </c>
+      <c r="D54" s="115"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="107"/>
+      <c r="H54" s="117"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="288"/>
+      <c r="K54" s="289"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="120"/>
+      <c r="N54" s="34"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="9"/>
+    </row>
+    <row r="55" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="122">
-        <f>SUM(C5:C48)</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="123"/>
-      <c r="E49" s="124" t="s">
+      <c r="C55" s="122">
+        <f>SUM(C5:C54)</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="123"/>
+      <c r="E55" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="125">
-        <f>SUM(F5:F48)</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="123"/>
-      <c r="H49" s="126" t="s">
+      <c r="F55" s="125">
+        <f>SUM(F5:F54)</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="123"/>
+      <c r="H55" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="127">
-        <f>SUM(I5:I48)</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="290"/>
-      <c r="K49" s="291" t="s">
+      <c r="I55" s="127">
+        <f>SUM(I5:I54)</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="290"/>
+      <c r="K55" s="291" t="s">
         <v>12</v>
       </c>
-      <c r="L49" s="292">
-        <f>SUM(L5:L48)</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="131"/>
-      <c r="N49" s="131"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="9"/>
-    </row>
-    <row r="50" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="4" t="s">
+      <c r="L55" s="292">
+        <f>SUM(L5:L54)</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="131"/>
+      <c r="N55" s="131"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="9"/>
+    </row>
+    <row r="56" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="9"/>
-    </row>
-    <row r="51" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="133"/>
-      <c r="B51" s="134"/>
-      <c r="C51" s="1"/>
-      <c r="H51" s="374" t="s">
+      <c r="P56" s="36"/>
+      <c r="Q56" s="9"/>
+    </row>
+    <row r="57" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="133"/>
+      <c r="B57" s="134"/>
+      <c r="C57" s="1"/>
+      <c r="H57" s="353" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="375"/>
-      <c r="J51" s="135"/>
-      <c r="K51" s="376">
-        <f>I49+L49</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="377"/>
-      <c r="M51" s="378">
-        <f>N45+M45</f>
-        <v>0</v>
-      </c>
-      <c r="N51" s="379"/>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="9"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="371" t="s">
+      <c r="I57" s="354"/>
+      <c r="J57" s="135"/>
+      <c r="K57" s="355">
+        <f>I55+L55</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="356"/>
+      <c r="M57" s="357">
+        <f>N51+M51</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="358"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="9"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D58" s="350" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="371"/>
-      <c r="F52" s="136">
-        <f>F49-K51-C49</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="137"/>
-      <c r="J52" s="138"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="9"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="342" t="s">
+      <c r="E58" s="350"/>
+      <c r="F58" s="136">
+        <f>F55-K57-C55</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="137"/>
+      <c r="J58" s="138"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="9"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D59" s="368" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="342"/>
-      <c r="F53" s="131">
-        <v>0</v>
-      </c>
-      <c r="I53" s="343" t="s">
+      <c r="E59" s="368"/>
+      <c r="F59" s="131">
+        <v>0</v>
+      </c>
+      <c r="I59" s="369" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="344"/>
-      <c r="K53" s="383">
-        <f>F55+F56+F57</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="384"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="9"/>
-    </row>
-    <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="139"/>
-      <c r="E54" s="140"/>
-      <c r="F54" s="141">
-        <v>0</v>
-      </c>
-      <c r="I54" s="142"/>
-      <c r="J54" s="143"/>
-      <c r="K54" s="108"/>
-      <c r="L54" s="294"/>
-      <c r="Q54" s="9"/>
-    </row>
-    <row r="55" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="5" t="s">
+      <c r="J59" s="370"/>
+      <c r="K59" s="383">
+        <f>F61+F62+F63</f>
+        <v>0</v>
+      </c>
+      <c r="L59" s="384"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="9"/>
+    </row>
+    <row r="60" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="139"/>
+      <c r="E60" s="140"/>
+      <c r="F60" s="141">
+        <v>0</v>
+      </c>
+      <c r="I60" s="142"/>
+      <c r="J60" s="143"/>
+      <c r="K60" s="108"/>
+      <c r="L60" s="294"/>
+      <c r="Q60" s="9"/>
+    </row>
+    <row r="61" spans="1:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="133" t="s">
+      <c r="E61" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="131">
-        <f>SUM(F52:F54)</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="23"/>
-      <c r="I55" s="146" t="s">
+      <c r="F61" s="131">
+        <f>SUM(F58:F60)</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="23"/>
+      <c r="I61" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="J55" s="147"/>
-      <c r="K55" s="385">
+      <c r="J61" s="147"/>
+      <c r="K61" s="385">
         <f>-C4</f>
         <v>-358228.12</v>
       </c>
-      <c r="L55" s="386"/>
-      <c r="Q55" s="9"/>
-    </row>
-    <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="148" t="s">
+      <c r="L61" s="386"/>
+      <c r="Q61" s="9"/>
+    </row>
+    <row r="62" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="133" t="s">
+      <c r="E62" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C57" s="150"/>
-      <c r="D57" s="349" t="s">
+      <c r="F62" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="150"/>
+      <c r="D63" s="375" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="350"/>
-      <c r="F57" s="316">
-        <v>0</v>
-      </c>
-      <c r="I57" s="387" t="s">
+      <c r="E63" s="376"/>
+      <c r="F63" s="316">
+        <v>0</v>
+      </c>
+      <c r="I63" s="387" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="388"/>
-      <c r="K57" s="397">
-        <f>K53+K55</f>
+      <c r="J63" s="388"/>
+      <c r="K63" s="397">
+        <f>K59+K61</f>
         <v>-358228.12</v>
       </c>
-      <c r="L57" s="397"/>
-    </row>
-    <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C58" s="152"/>
-      <c r="D58" s="153"/>
-      <c r="E58" s="154"/>
-      <c r="F58" s="155"/>
-      <c r="J58" s="295"/>
-    </row>
-    <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I59" s="157"/>
-      <c r="J59" s="296"/>
-      <c r="K59" s="297"/>
-      <c r="L59" s="297"/>
-    </row>
-    <row r="60" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="159"/>
-      <c r="C60" s="160"/>
-      <c r="D60" s="161"/>
-      <c r="E60" s="36"/>
-      <c r="I60" s="157"/>
-      <c r="J60" s="296"/>
-      <c r="K60" s="297"/>
-      <c r="L60" s="297"/>
-      <c r="M60" s="162"/>
-      <c r="N60" s="133"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B61" s="159"/>
-      <c r="C61" s="163"/>
-      <c r="E61" s="36"/>
-      <c r="M61" s="162"/>
-      <c r="N61" s="133"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B62" s="159"/>
-      <c r="C62" s="163"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="164"/>
-      <c r="L62" s="298"/>
-      <c r="M62" s="1"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B63" s="159"/>
-      <c r="C63" s="163"/>
-      <c r="E63" s="36"/>
-      <c r="M63" s="1"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="159"/>
-      <c r="C64" s="163"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="166"/>
-      <c r="M64" s="1"/>
-    </row>
-    <row r="65" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E65" s="167"/>
-      <c r="F65" s="36"/>
-      <c r="M65" s="1"/>
-    </row>
-    <row r="66" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E66" s="167"/>
-      <c r="F66" s="36"/>
-      <c r="M66" s="1"/>
-    </row>
-    <row r="67" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E67" s="167"/>
-      <c r="F67" s="36"/>
-      <c r="M67" s="1"/>
-    </row>
-    <row r="68" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E68" s="167"/>
-      <c r="F68" s="36"/>
+      <c r="L63" s="397"/>
+    </row>
+    <row r="64" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C64" s="152"/>
+      <c r="D64" s="153"/>
+      <c r="E64" s="154"/>
+      <c r="F64" s="155"/>
+      <c r="J64" s="295"/>
+    </row>
+    <row r="65" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="157"/>
+      <c r="J65" s="296"/>
+      <c r="K65" s="297"/>
+      <c r="L65" s="297"/>
+    </row>
+    <row r="66" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="159"/>
+      <c r="C66" s="160"/>
+      <c r="D66" s="161"/>
+      <c r="E66" s="36"/>
+      <c r="I66" s="157"/>
+      <c r="J66" s="296"/>
+      <c r="K66" s="297"/>
+      <c r="L66" s="297"/>
+      <c r="M66" s="162"/>
+      <c r="N66" s="133"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="159"/>
+      <c r="C67" s="163"/>
+      <c r="E67" s="36"/>
+      <c r="M67" s="162"/>
+      <c r="N67" s="133"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="159"/>
+      <c r="C68" s="163"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="164"/>
+      <c r="L68" s="298"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E69" s="167"/>
-      <c r="F69" s="36"/>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="159"/>
+      <c r="C69" s="163"/>
+      <c r="E69" s="36"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E70" s="167"/>
-      <c r="F70" s="36"/>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="159"/>
+      <c r="C70" s="163"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="166"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E71" s="167"/>
       <c r="F71" s="36"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E72" s="167"/>
       <c r="F72" s="36"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E73" s="167"/>
       <c r="F73" s="36"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E74" s="167"/>
       <c r="F74" s="36"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E75" s="167"/>
       <c r="F75" s="36"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E76" s="167"/>
       <c r="F76" s="36"/>
-    </row>
-    <row r="77" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F77" s="166"/>
-    </row>
-    <row r="78" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F78" s="166"/>
-    </row>
-    <row r="79" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F79" s="166"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E77" s="167"/>
+      <c r="F77" s="36"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E78" s="167"/>
+      <c r="F78" s="36"/>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E79" s="167"/>
+      <c r="F79" s="36"/>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E80" s="167"/>
+      <c r="F80" s="36"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E81" s="167"/>
+      <c r="F81" s="36"/>
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E82" s="167"/>
+      <c r="F82" s="36"/>
+    </row>
+    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F83" s="166"/>
+    </row>
+    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F84" s="166"/>
+    </row>
+    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F85" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D58:E58"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21007,7 +21146,7 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -23462,23 +23601,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="354"/>
-      <c r="C1" s="356" t="s">
+      <c r="B1" s="359"/>
+      <c r="C1" s="361" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="357"/>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
+      <c r="D1" s="362"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="362"/>
+      <c r="G1" s="362"/>
+      <c r="H1" s="362"/>
+      <c r="I1" s="362"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
+      <c r="L1" s="362"/>
+      <c r="M1" s="362"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="355"/>
+      <c r="B2" s="360"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -23488,21 +23627,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="358" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="359"/>
+      <c r="B3" s="363" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="364"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="360" t="s">
+      <c r="H3" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="360"/>
+      <c r="I3" s="365"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="363" t="s">
+      <c r="R3" s="342" t="s">
         <v>2</v>
       </c>
     </row>
@@ -23517,14 +23656,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="365" t="s">
+      <c r="E4" s="344" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="366"/>
-      <c r="H4" s="367" t="s">
+      <c r="F4" s="345"/>
+      <c r="H4" s="346" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="368"/>
+      <c r="I4" s="347"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -25339,11 +25478,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="361">
+      <c r="M45" s="366">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="372">
+      <c r="N45" s="351">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -25373,8 +25512,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="362"/>
-      <c r="N46" s="373"/>
+      <c r="M46" s="367"/>
+      <c r="N46" s="352"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -25466,29 +25605,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="374" t="s">
+      <c r="H51" s="353" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="375"/>
+      <c r="I51" s="354"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="376">
+      <c r="K51" s="355">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="377"/>
-      <c r="M51" s="378">
+      <c r="L51" s="356"/>
+      <c r="M51" s="357">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="379"/>
+      <c r="N51" s="358"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="371" t="s">
+      <c r="D52" s="350" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="371"/>
+      <c r="E52" s="350"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -25499,22 +25638,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="342" t="s">
+      <c r="D53" s="368" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="342"/>
+      <c r="E53" s="368"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="343" t="s">
+      <c r="I53" s="369" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="344"/>
-      <c r="K53" s="345">
+      <c r="J53" s="370"/>
+      <c r="K53" s="371">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="346"/>
+      <c r="L53" s="372"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -25545,11 +25684,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="347">
+      <c r="K55" s="373">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="348"/>
+      <c r="L55" s="374"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -25566,22 +25705,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="349" t="s">
+      <c r="D57" s="375" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="350"/>
+      <c r="E57" s="376"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="351" t="s">
+      <c r="I57" s="377" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="352"/>
-      <c r="K57" s="353">
+      <c r="J57" s="378"/>
+      <c r="K57" s="379">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="353"/>
+      <c r="L57" s="379"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -25706,6 +25845,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -25715,18 +25866,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27185,23 +27324,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="354"/>
-      <c r="C1" s="356" t="s">
+      <c r="B1" s="359"/>
+      <c r="C1" s="361" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="357"/>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
+      <c r="D1" s="362"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="362"/>
+      <c r="G1" s="362"/>
+      <c r="H1" s="362"/>
+      <c r="I1" s="362"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
+      <c r="L1" s="362"/>
+      <c r="M1" s="362"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="355"/>
+      <c r="B2" s="360"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -27211,21 +27350,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="358" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="359"/>
+      <c r="B3" s="363" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="364"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="360" t="s">
+      <c r="H3" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="360"/>
+      <c r="I3" s="365"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="363" t="s">
+      <c r="R3" s="342" t="s">
         <v>2</v>
       </c>
     </row>
@@ -27240,14 +27379,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="365" t="s">
+      <c r="E4" s="344" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="366"/>
-      <c r="H4" s="367" t="s">
+      <c r="F4" s="345"/>
+      <c r="H4" s="346" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="368"/>
+      <c r="I4" s="347"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -29054,11 +29193,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="361">
+      <c r="M45" s="366">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="372">
+      <c r="N45" s="351">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -29088,8 +29227,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="362"/>
-      <c r="N46" s="373"/>
+      <c r="M46" s="367"/>
+      <c r="N46" s="352"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -29181,29 +29320,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="374" t="s">
+      <c r="H51" s="353" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="375"/>
+      <c r="I51" s="354"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="376">
+      <c r="K51" s="355">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="377"/>
-      <c r="M51" s="378">
+      <c r="L51" s="356"/>
+      <c r="M51" s="357">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="379"/>
+      <c r="N51" s="358"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="371" t="s">
+      <c r="D52" s="350" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="371"/>
+      <c r="E52" s="350"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -29214,17 +29353,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="342" t="s">
+      <c r="D53" s="368" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="342"/>
+      <c r="E53" s="368"/>
       <c r="F53" s="131">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="343" t="s">
+      <c r="I53" s="369" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="344"/>
+      <c r="J53" s="370"/>
       <c r="K53" s="383">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
@@ -29281,10 +29420,10 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="349" t="s">
+      <c r="D57" s="375" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="350"/>
+      <c r="E57" s="376"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
@@ -29421,18 +29560,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -29442,6 +29569,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30843,23 +30982,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="354"/>
-      <c r="C1" s="356" t="s">
+      <c r="B1" s="359"/>
+      <c r="C1" s="361" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="357"/>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
+      <c r="D1" s="362"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="362"/>
+      <c r="G1" s="362"/>
+      <c r="H1" s="362"/>
+      <c r="I1" s="362"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
+      <c r="L1" s="362"/>
+      <c r="M1" s="362"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="355"/>
+      <c r="B2" s="360"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -30872,21 +31011,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="358" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="359"/>
+      <c r="B3" s="363" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="364"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="360" t="s">
+      <c r="H3" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="360"/>
+      <c r="I3" s="365"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="393" t="s">
+      <c r="R3" s="390" t="s">
         <v>2</v>
       </c>
     </row>
@@ -30901,14 +31040,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="365" t="s">
+      <c r="E4" s="344" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="366"/>
-      <c r="H4" s="367" t="s">
+      <c r="F4" s="345"/>
+      <c r="H4" s="346" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="368"/>
+      <c r="I4" s="347"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -30922,7 +31061,7 @@
         <v>8</v>
       </c>
       <c r="Q4" s="382"/>
-      <c r="R4" s="394"/>
+      <c r="R4" s="391"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -32809,11 +32948,11 @@
       <c r="L45" s="312">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="361">
+      <c r="M45" s="366">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="372">
+      <c r="N45" s="351">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -32849,8 +32988,8 @@
       <c r="L46" s="281">
         <v>34015</v>
       </c>
-      <c r="M46" s="362"/>
-      <c r="N46" s="373"/>
+      <c r="M46" s="367"/>
+      <c r="N46" s="352"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -32942,29 +33081,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="374" t="s">
+      <c r="H51" s="353" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="375"/>
+      <c r="I51" s="354"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="376">
+      <c r="K51" s="355">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="377"/>
-      <c r="M51" s="378">
+      <c r="L51" s="356"/>
+      <c r="M51" s="357">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="379"/>
+      <c r="N51" s="358"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="371" t="s">
+      <c r="D52" s="350" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="371"/>
+      <c r="E52" s="350"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -32975,17 +33114,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="342" t="s">
+      <c r="D53" s="368" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="342"/>
+      <c r="E53" s="368"/>
       <c r="F53" s="131">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="343" t="s">
+      <c r="I53" s="369" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="344"/>
+      <c r="J53" s="370"/>
       <c r="K53" s="383">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
@@ -33042,22 +33181,22 @@
       <c r="C57" s="150">
         <v>45050</v>
       </c>
-      <c r="D57" s="349" t="s">
+      <c r="D57" s="375" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="350"/>
+      <c r="E57" s="376"/>
       <c r="F57" s="151">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="390" t="s">
+      <c r="I57" s="392" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="391"/>
-      <c r="K57" s="392">
+      <c r="J57" s="393"/>
+      <c r="K57" s="394">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="392"/>
+      <c r="L57" s="394"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -33182,6 +33321,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -33191,18 +33342,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -34594,23 +34733,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="354"/>
-      <c r="C1" s="356" t="s">
+      <c r="B1" s="359"/>
+      <c r="C1" s="361" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="357"/>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
+      <c r="D1" s="362"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="362"/>
+      <c r="G1" s="362"/>
+      <c r="H1" s="362"/>
+      <c r="I1" s="362"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
+      <c r="L1" s="362"/>
+      <c r="M1" s="362"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="355"/>
+      <c r="B2" s="360"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -34623,17 +34762,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="358" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="359"/>
+      <c r="B3" s="363" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="364"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="360" t="s">
+      <c r="H3" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="360"/>
+      <c r="I3" s="365"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
@@ -34652,14 +34791,14 @@
       <c r="D4" s="307">
         <v>45050</v>
       </c>
-      <c r="E4" s="365" t="s">
+      <c r="E4" s="344" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="366"/>
-      <c r="H4" s="367" t="s">
+      <c r="F4" s="345"/>
+      <c r="H4" s="346" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="368"/>
+      <c r="I4" s="347"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -36546,11 +36685,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="361">
+      <c r="M45" s="366">
         <f>SUM(M5:M39)</f>
         <v>3007589</v>
       </c>
-      <c r="N45" s="372">
+      <c r="N45" s="351">
         <f>SUM(N5:N39)</f>
         <v>29752</v>
       </c>
@@ -36580,8 +36719,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="362"/>
-      <c r="N46" s="373"/>
+      <c r="M46" s="367"/>
+      <c r="N46" s="352"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -36673,29 +36812,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="374" t="s">
+      <c r="H51" s="353" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="375"/>
+      <c r="I51" s="354"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="376">
+      <c r="K51" s="355">
         <f>I49+L49</f>
         <v>84500.43</v>
       </c>
-      <c r="L51" s="377"/>
-      <c r="M51" s="378">
+      <c r="L51" s="356"/>
+      <c r="M51" s="357">
         <f>N45+M45</f>
         <v>3037341</v>
       </c>
-      <c r="N51" s="379"/>
+      <c r="N51" s="358"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="371" t="s">
+      <c r="D52" s="350" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="371"/>
+      <c r="E52" s="350"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2988109.57</v>
@@ -36706,17 +36845,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="342" t="s">
+      <c r="D53" s="368" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="342"/>
+      <c r="E53" s="368"/>
       <c r="F53" s="131">
         <v>-2955802.29</v>
       </c>
-      <c r="I53" s="343" t="s">
+      <c r="I53" s="369" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="344"/>
+      <c r="J53" s="370"/>
       <c r="K53" s="383">
         <f>F55+F56+F57</f>
         <v>419364.9699999998</v>
@@ -36773,22 +36912,22 @@
       <c r="C57" s="150">
         <v>45081</v>
       </c>
-      <c r="D57" s="349" t="s">
+      <c r="D57" s="375" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="350"/>
+      <c r="E57" s="376"/>
       <c r="F57" s="316">
         <v>345633.69</v>
       </c>
-      <c r="I57" s="390" t="s">
+      <c r="I57" s="392" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="391"/>
-      <c r="K57" s="392">
+      <c r="J57" s="393"/>
+      <c r="K57" s="394">
         <f>K53+K55</f>
         <v>24816.269999999786</v>
       </c>
-      <c r="L57" s="392"/>
+      <c r="L57" s="394"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -36913,18 +37052,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36934,6 +37061,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  HERRADURA  Agosto     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  HERRADURA  Agosto     2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="14" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="1" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="   A G O S T O     2 0 2 3     " sheetId="17" r:id="rId15"/>
     <sheet name="  COMPRAS  AGOSTO   20 23      " sheetId="18" r:id="rId16"/>
     <sheet name="Hoja3" sheetId="19" r:id="rId17"/>
+    <sheet name="Hoja1" sheetId="20" r:id="rId18"/>
+    <sheet name="PAGOS SEPTIEMBRE    " sheetId="21" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -504,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="491">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1876,6 +1878,120 @@
   </si>
   <si>
     <t>EXTINTOR Rec</t>
+  </si>
+  <si>
+    <t>GUARDIA</t>
+  </si>
+  <si>
+    <t>XXXXXX</t>
+  </si>
+  <si>
+    <t>Cargo Seguro</t>
+  </si>
+  <si>
+    <t>Aduana ACCE23-08</t>
+  </si>
+  <si>
+    <t>Flete ACCSE23-08</t>
+  </si>
+  <si>
+    <t>F-3577  combos</t>
+  </si>
+  <si>
+    <t>REMISIOENS</t>
+  </si>
+  <si>
+    <t>ADUANA  ACCSE23-09</t>
+  </si>
+  <si>
+    <t>F-1012</t>
+  </si>
+  <si>
+    <t>FLETE      ACCSE23-09</t>
+  </si>
+  <si>
+    <t>F-C300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUARDIA  </t>
+  </si>
+  <si>
+    <t>F-908</t>
+  </si>
+  <si>
+    <t>VECTOR  ACCSE23-10</t>
+  </si>
+  <si>
+    <t>F-2218992</t>
+  </si>
+  <si>
+    <t>F-807</t>
+  </si>
+  <si>
+    <t>SEGURO DE  ACCSE23-08</t>
+  </si>
+  <si>
+    <t>F-D-6495</t>
+  </si>
+  <si>
+    <t>PAGOS REMISIONES</t>
+  </si>
+  <si>
+    <t>NLP</t>
+  </si>
+  <si>
+    <t>ADUANA   ACCSE23-10</t>
+  </si>
+  <si>
+    <t>F-1069</t>
+  </si>
+  <si>
+    <t>FLETE       ACCSE23-10</t>
+  </si>
+  <si>
+    <t>VECTOR   ACCSE23-12</t>
+  </si>
+  <si>
+    <t>F-2224377</t>
+  </si>
+  <si>
+    <t>ADT  PRIVATE</t>
+  </si>
+  <si>
+    <t>MAESCY SEGUROS ACCSE23-06-----ACCSE23-07   ZAVALETA</t>
+  </si>
+  <si>
+    <t>F-4959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debe zavaleta a herradura </t>
+  </si>
+  <si>
+    <t>ACCSE23-01</t>
+  </si>
+  <si>
+    <t>ADUANA ACCSE23-01</t>
+  </si>
+  <si>
+    <t>FLETE  ACCSE23-01</t>
+  </si>
+  <si>
+    <t>Rollos termicos</t>
+  </si>
+  <si>
+    <t>ACCSE23-03</t>
+  </si>
+  <si>
+    <t>ADUANA ACCSE23-03</t>
+  </si>
+  <si>
+    <t>FLETE  ACCSE23-03</t>
+  </si>
+  <si>
+    <t>ACCSE23-08</t>
+  </si>
+  <si>
+    <t>ACCSE23-09</t>
   </si>
 </sst>
 </file>
@@ -3309,7 +3425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="398">
+  <cellXfs count="411">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3986,6 +4102,17 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="13" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4154,6 +4281,14 @@
     <xf numFmtId="166" fontId="16" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4163,9 +4298,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFFF66FF"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFCCFF33"/>
       <color rgb="FFFF9900"/>
@@ -7172,13 +7307,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7225,13 +7360,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7278,13 +7413,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7331,13 +7466,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7384,13 +7519,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>200023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133352</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7445,7 +7580,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>64250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1323990" cy="419708"/>
@@ -7540,13 +7675,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7886,23 +8021,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="359"/>
-      <c r="C1" s="361" t="s">
+      <c r="B1" s="364"/>
+      <c r="C1" s="366" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362"/>
-      <c r="F1" s="362"/>
-      <c r="G1" s="362"/>
-      <c r="H1" s="362"/>
-      <c r="I1" s="362"/>
-      <c r="J1" s="362"/>
-      <c r="K1" s="362"/>
-      <c r="L1" s="362"/>
-      <c r="M1" s="362"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="367"/>
+      <c r="F1" s="367"/>
+      <c r="G1" s="367"/>
+      <c r="H1" s="367"/>
+      <c r="I1" s="367"/>
+      <c r="J1" s="367"/>
+      <c r="K1" s="367"/>
+      <c r="L1" s="367"/>
+      <c r="M1" s="367"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="360"/>
+      <c r="B2" s="365"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -7912,21 +8047,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="363" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="364"/>
+      <c r="B3" s="368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="369"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="365" t="s">
+      <c r="H3" s="370" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="365"/>
+      <c r="I3" s="370"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="342" t="s">
+      <c r="R3" s="347" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7941,14 +8076,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="344" t="s">
+      <c r="E4" s="349" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="345"/>
-      <c r="H4" s="346" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="347"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -7958,11 +8093,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="348" t="s">
+      <c r="P4" s="353" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="349"/>
-      <c r="R4" s="343"/>
+      <c r="Q4" s="354"/>
+      <c r="R4" s="348"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9767,11 +9902,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="366">
+      <c r="M49" s="371">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="351">
+      <c r="N49" s="356">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -9806,8 +9941,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="367"/>
-      <c r="N50" s="352"/>
+      <c r="M50" s="372"/>
+      <c r="N50" s="357"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -9899,29 +10034,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="353" t="s">
+      <c r="H55" s="358" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="354"/>
+      <c r="I55" s="359"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="355">
+      <c r="K55" s="360">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="356"/>
-      <c r="M55" s="357">
+      <c r="L55" s="361"/>
+      <c r="M55" s="362">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="358"/>
+      <c r="N55" s="363"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="350" t="s">
+      <c r="D56" s="355" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="350"/>
+      <c r="E56" s="355"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -9932,22 +10067,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="368" t="s">
+      <c r="D57" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="368"/>
+      <c r="E57" s="373"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="369" t="s">
+      <c r="I57" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="370"/>
-      <c r="K57" s="371">
+      <c r="J57" s="375"/>
+      <c r="K57" s="376">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="372"/>
+      <c r="L57" s="377"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -9978,11 +10113,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="373">
+      <c r="K59" s="378">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="374"/>
+      <c r="L59" s="379"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -9999,22 +10134,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="375" t="s">
+      <c r="D61" s="380" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="376"/>
+      <c r="E61" s="381"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="377" t="s">
+      <c r="I61" s="382" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="378"/>
-      <c r="K61" s="379">
+      <c r="J61" s="383"/>
+      <c r="K61" s="384">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="379"/>
+      <c r="L61" s="384"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -11589,23 +11724,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="359"/>
-      <c r="C1" s="361" t="s">
+      <c r="B1" s="364"/>
+      <c r="C1" s="366" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362"/>
-      <c r="F1" s="362"/>
-      <c r="G1" s="362"/>
-      <c r="H1" s="362"/>
-      <c r="I1" s="362"/>
-      <c r="J1" s="362"/>
-      <c r="K1" s="362"/>
-      <c r="L1" s="362"/>
-      <c r="M1" s="362"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="367"/>
+      <c r="F1" s="367"/>
+      <c r="G1" s="367"/>
+      <c r="H1" s="367"/>
+      <c r="I1" s="367"/>
+      <c r="J1" s="367"/>
+      <c r="K1" s="367"/>
+      <c r="L1" s="367"/>
+      <c r="M1" s="367"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="360"/>
+      <c r="B2" s="365"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -11618,21 +11753,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="363" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="364"/>
+      <c r="B3" s="368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="369"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="365" t="s">
+      <c r="H3" s="370" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="365"/>
+      <c r="I3" s="370"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="395" t="s">
+      <c r="R3" s="400" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11647,14 +11782,14 @@
       <c r="D4" s="307">
         <v>45081</v>
       </c>
-      <c r="E4" s="344" t="s">
+      <c r="E4" s="349" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="345"/>
-      <c r="H4" s="346" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="347"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -11664,11 +11799,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="381" t="s">
+      <c r="P4" s="386" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="382"/>
-      <c r="R4" s="396"/>
+      <c r="Q4" s="387"/>
+      <c r="R4" s="401"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -13452,11 +13587,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="366">
+      <c r="M45" s="371">
         <f>SUM(M5:M39)</f>
         <v>3170751</v>
       </c>
-      <c r="N45" s="351">
+      <c r="N45" s="356">
         <f>SUM(N5:N39)</f>
         <v>31751.230000000003</v>
       </c>
@@ -13486,8 +13621,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="367"/>
-      <c r="N46" s="352"/>
+      <c r="M46" s="372"/>
+      <c r="N46" s="357"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -13579,29 +13714,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="353" t="s">
+      <c r="H51" s="358" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="354"/>
+      <c r="I51" s="359"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="355">
+      <c r="K51" s="360">
         <f>I49+L49</f>
         <v>66093.360000000015</v>
       </c>
-      <c r="L51" s="356"/>
-      <c r="M51" s="357">
+      <c r="L51" s="361"/>
+      <c r="M51" s="362">
         <f>N45+M45</f>
         <v>3202502.23</v>
       </c>
-      <c r="N51" s="358"/>
+      <c r="N51" s="363"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="350" t="s">
+      <c r="D52" s="355" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="350"/>
+      <c r="E52" s="355"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>3132761.64</v>
@@ -13612,22 +13747,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="368" t="s">
+      <c r="D53" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="368"/>
+      <c r="E53" s="373"/>
       <c r="F53" s="131">
         <v>-3128572.23</v>
       </c>
-      <c r="I53" s="369" t="s">
+      <c r="I53" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="370"/>
-      <c r="K53" s="383">
+      <c r="J53" s="375"/>
+      <c r="K53" s="388">
         <f>F55+F56+F57</f>
         <v>417897.52000000014</v>
       </c>
-      <c r="L53" s="384"/>
+      <c r="L53" s="389"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -13658,11 +13793,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="385">
+      <c r="K55" s="390">
         <f>-C4</f>
         <v>-345633.69</v>
       </c>
-      <c r="L55" s="386"/>
+      <c r="L55" s="391"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -13679,22 +13814,22 @@
       <c r="C57" s="150">
         <v>45109</v>
       </c>
-      <c r="D57" s="375" t="s">
+      <c r="D57" s="380" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="376"/>
+      <c r="E57" s="381"/>
       <c r="F57" s="316">
         <v>359108.11</v>
       </c>
-      <c r="I57" s="392" t="s">
+      <c r="I57" s="397" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="393"/>
-      <c r="K57" s="394">
+      <c r="J57" s="398"/>
+      <c r="K57" s="399">
         <f>K53+K55</f>
         <v>72263.830000000133</v>
       </c>
-      <c r="L57" s="394"/>
+      <c r="L57" s="399"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -15226,8 +15361,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15252,23 +15387,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="359"/>
-      <c r="C1" s="361" t="s">
+      <c r="B1" s="364"/>
+      <c r="C1" s="366" t="s">
         <v>381</v>
       </c>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362"/>
-      <c r="F1" s="362"/>
-      <c r="G1" s="362"/>
-      <c r="H1" s="362"/>
-      <c r="I1" s="362"/>
-      <c r="J1" s="362"/>
-      <c r="K1" s="362"/>
-      <c r="L1" s="362"/>
-      <c r="M1" s="362"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="367"/>
+      <c r="F1" s="367"/>
+      <c r="G1" s="367"/>
+      <c r="H1" s="367"/>
+      <c r="I1" s="367"/>
+      <c r="J1" s="367"/>
+      <c r="K1" s="367"/>
+      <c r="L1" s="367"/>
+      <c r="M1" s="367"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="360"/>
+      <c r="B2" s="365"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -15281,21 +15416,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="363" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="364"/>
+      <c r="B3" s="368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="369"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="365" t="s">
+      <c r="H3" s="370" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="365"/>
+      <c r="I3" s="370"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="395" t="s">
+      <c r="R3" s="400" t="s">
         <v>2</v>
       </c>
     </row>
@@ -15310,14 +15445,14 @@
       <c r="D4" s="307">
         <v>45109</v>
       </c>
-      <c r="E4" s="344" t="s">
+      <c r="E4" s="349" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="345"/>
-      <c r="H4" s="346" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="347"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -15327,11 +15462,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="381" t="s">
+      <c r="P4" s="386" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="382"/>
-      <c r="R4" s="396"/>
+      <c r="Q4" s="387"/>
+      <c r="R4" s="401"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -16708,11 +16843,15 @@
     </row>
     <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
+      <c r="B34" s="24">
+        <v>45110</v>
+      </c>
       <c r="C34" s="25">
         <v>854250</v>
       </c>
-      <c r="D34" s="82"/>
+      <c r="D34" s="94" t="s">
+        <v>482</v>
+      </c>
       <c r="E34" s="27"/>
       <c r="F34" s="28"/>
       <c r="G34" s="29"/>
@@ -16724,7 +16863,7 @@
       <c r="K34" s="332" t="s">
         <v>390</v>
       </c>
-      <c r="L34" s="284">
+      <c r="L34" s="406">
         <v>14500</v>
       </c>
       <c r="M34" s="33">
@@ -16749,24 +16888,28 @@
     </row>
     <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
+      <c r="B35" s="24">
+        <v>45117</v>
+      </c>
       <c r="C35" s="25">
-        <v>37120</v>
-      </c>
-      <c r="D35" s="77"/>
+        <v>12274</v>
+      </c>
+      <c r="D35" s="77" t="s">
+        <v>483</v>
+      </c>
       <c r="E35" s="27"/>
       <c r="F35" s="28"/>
       <c r="G35" s="29"/>
       <c r="H35" s="30"/>
       <c r="I35" s="31"/>
       <c r="J35" s="86">
-        <v>45114</v>
-      </c>
-      <c r="K35" s="282" t="s">
-        <v>391</v>
-      </c>
-      <c r="L35" s="216">
-        <v>1392</v>
+        <v>45111</v>
+      </c>
+      <c r="K35" s="231" t="s">
+        <v>452</v>
+      </c>
+      <c r="L35" s="407">
+        <v>1907.04</v>
       </c>
       <c r="M35" s="33">
         <v>0</v>
@@ -16777,11 +16920,11 @@
       <c r="O35" s="35"/>
       <c r="P35" s="235">
         <f t="shared" si="0"/>
-        <v>38512</v>
+        <v>14181.04</v>
       </c>
       <c r="Q35" s="236">
         <f t="shared" si="1"/>
-        <v>38512</v>
+        <v>14181.04</v>
       </c>
       <c r="R35" s="238">
         <v>0</v>
@@ -16790,24 +16933,28 @@
     </row>
     <row r="36" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23"/>
-      <c r="B36" s="24"/>
+      <c r="B36" s="24">
+        <v>45119</v>
+      </c>
       <c r="C36" s="25">
-        <v>943600</v>
-      </c>
-      <c r="D36" s="85"/>
+        <v>37120</v>
+      </c>
+      <c r="D36" s="80" t="s">
+        <v>484</v>
+      </c>
       <c r="E36" s="27"/>
       <c r="F36" s="28"/>
       <c r="G36" s="29"/>
       <c r="H36" s="30"/>
       <c r="I36" s="31"/>
       <c r="J36" s="86">
-        <v>45128</v>
-      </c>
-      <c r="K36" s="319" t="s">
-        <v>111</v>
-      </c>
-      <c r="L36" s="216">
-        <v>549</v>
+        <v>45114</v>
+      </c>
+      <c r="K36" s="282" t="s">
+        <v>391</v>
+      </c>
+      <c r="L36" s="407">
+        <v>1392</v>
       </c>
       <c r="M36" s="33">
         <v>0</v>
@@ -16818,11 +16965,11 @@
       <c r="O36" s="35"/>
       <c r="P36" s="235">
         <f t="shared" si="0"/>
-        <v>944149</v>
+        <v>38512</v>
       </c>
       <c r="Q36" s="236">
         <f t="shared" si="1"/>
-        <v>944149</v>
+        <v>38512</v>
       </c>
       <c r="R36" s="238">
         <v>0</v>
@@ -16831,24 +16978,28 @@
     </row>
     <row r="37" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
+      <c r="B37" s="24">
+        <v>45124</v>
+      </c>
       <c r="C37" s="25">
-        <v>37120</v>
-      </c>
-      <c r="D37" s="82"/>
+        <v>943600</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>486</v>
+      </c>
       <c r="E37" s="27"/>
       <c r="F37" s="28"/>
       <c r="G37" s="29"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
       <c r="J37" s="86">
-        <v>45135</v>
-      </c>
-      <c r="K37" s="285" t="s">
-        <v>109</v>
-      </c>
-      <c r="L37" s="216">
-        <v>1031.47</v>
+        <v>45114</v>
+      </c>
+      <c r="K37" s="282" t="s">
+        <v>393</v>
+      </c>
+      <c r="L37" s="407">
+        <v>1225.1199999999999</v>
       </c>
       <c r="M37" s="33">
         <v>0</v>
@@ -16871,22 +17022,28 @@
     </row>
     <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="80"/>
+      <c r="B38" s="24">
+        <v>45131</v>
+      </c>
+      <c r="C38" s="25">
+        <v>12434</v>
+      </c>
+      <c r="D38" s="80" t="s">
+        <v>487</v>
+      </c>
       <c r="E38" s="27"/>
       <c r="F38" s="28"/>
       <c r="G38" s="29"/>
       <c r="H38" s="30"/>
       <c r="I38" s="31"/>
       <c r="J38" s="86">
-        <v>45137</v>
-      </c>
-      <c r="K38" s="330" t="s">
-        <v>392</v>
-      </c>
-      <c r="L38" s="216">
-        <v>1032.9000000000001</v>
+        <v>45121</v>
+      </c>
+      <c r="K38" s="305" t="s">
+        <v>485</v>
+      </c>
+      <c r="L38" s="407">
+        <v>7656</v>
       </c>
       <c r="M38" s="33">
         <v>0</v>
@@ -16909,22 +17066,28 @@
     </row>
     <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="80"/>
+      <c r="B39" s="24">
+        <v>45132</v>
+      </c>
+      <c r="C39" s="25">
+        <v>37120</v>
+      </c>
+      <c r="D39" s="80" t="s">
+        <v>488</v>
+      </c>
       <c r="E39" s="27"/>
       <c r="F39" s="28"/>
       <c r="G39" s="29"/>
       <c r="H39" s="30"/>
       <c r="I39" s="31"/>
       <c r="J39" s="86">
-        <v>45137</v>
-      </c>
-      <c r="K39" s="282" t="s">
-        <v>393</v>
-      </c>
-      <c r="L39" s="281">
-        <v>1225.1199999999999</v>
+        <v>45128</v>
+      </c>
+      <c r="K39" s="319" t="s">
+        <v>111</v>
+      </c>
+      <c r="L39" s="312">
+        <v>549</v>
       </c>
       <c r="M39" s="33">
         <v>0</v>
@@ -16956,13 +17119,13 @@
       <c r="H40" s="30"/>
       <c r="I40" s="31"/>
       <c r="J40" s="86">
-        <v>45111</v>
-      </c>
-      <c r="K40" s="231" t="s">
-        <v>452</v>
-      </c>
-      <c r="L40" s="281">
-        <v>1907.04</v>
+        <v>45135</v>
+      </c>
+      <c r="K40" s="285" t="s">
+        <v>109</v>
+      </c>
+      <c r="L40" s="312">
+        <v>1031.47</v>
       </c>
       <c r="M40" s="33">
         <v>0</v>
@@ -16983,7 +17146,7 @@
       </c>
       <c r="S40" s="37"/>
     </row>
-    <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="25"/>
@@ -16993,9 +17156,15 @@
       <c r="G41" s="29"/>
       <c r="H41" s="30"/>
       <c r="I41" s="31"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="305"/>
-      <c r="L41" s="281"/>
+      <c r="J41" s="86">
+        <v>45137</v>
+      </c>
+      <c r="K41" s="330" t="s">
+        <v>392</v>
+      </c>
+      <c r="L41" s="312">
+        <v>1032.9000000000001</v>
+      </c>
       <c r="M41" s="33">
         <v>0</v>
       </c>
@@ -17123,11 +17292,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="366">
+      <c r="M45" s="371">
         <f>SUM(M5:M39)</f>
         <v>3725440</v>
       </c>
-      <c r="N45" s="351">
+      <c r="N45" s="356">
         <f>SUM(N5:N39)</f>
         <v>22373</v>
       </c>
@@ -17137,7 +17306,7 @@
       </c>
       <c r="Q45" s="236">
         <f>SUM(Q5:Q44)</f>
-        <v>1852124</v>
+        <v>922156.04</v>
       </c>
       <c r="R45" s="329">
         <f>SUM(R5:R39)</f>
@@ -17157,8 +17326,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="367"/>
-      <c r="N46" s="352"/>
+      <c r="M46" s="372"/>
+      <c r="N46" s="357"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="236">
         <f t="shared" si="1"/>
@@ -17214,7 +17383,7 @@
       </c>
       <c r="C49" s="122">
         <f>SUM(C5:C48)</f>
-        <v>1955542</v>
+        <v>1980250</v>
       </c>
       <c r="D49" s="123"/>
       <c r="E49" s="124" t="s">
@@ -17238,7 +17407,7 @@
       </c>
       <c r="L49" s="292">
         <f>SUM(L5:L48)</f>
-        <v>58033.530000000006</v>
+        <v>65689.53</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -17256,32 +17425,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="353" t="s">
+      <c r="H51" s="358" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="354"/>
+      <c r="I51" s="359"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="355">
+      <c r="K51" s="360">
         <f>I49+L49</f>
-        <v>61216.530000000006</v>
-      </c>
-      <c r="L51" s="356"/>
-      <c r="M51" s="357">
+        <v>68872.53</v>
+      </c>
+      <c r="L51" s="361"/>
+      <c r="M51" s="362">
         <f>N45+M45</f>
         <v>3747813</v>
       </c>
-      <c r="N51" s="358"/>
+      <c r="N51" s="363"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="350" t="s">
+      <c r="D52" s="355" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="350"/>
+      <c r="E52" s="355"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>1798772.4700000002</v>
+        <v>1766408.4700000002</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -17289,22 +17458,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="368" t="s">
+      <c r="D53" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="368"/>
+      <c r="E53" s="373"/>
       <c r="F53" s="131">
         <v>-2396693.7400000002</v>
       </c>
-      <c r="I53" s="369" t="s">
+      <c r="I53" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="370"/>
-      <c r="K53" s="383">
+      <c r="J53" s="375"/>
+      <c r="K53" s="388">
         <f>F55+F56+F57</f>
-        <v>-138251.15000000002</v>
-      </c>
-      <c r="L53" s="384"/>
+        <v>-170615.15000000002</v>
+      </c>
+      <c r="L53" s="389"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -17329,18 +17498,18 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>-597921.27</v>
+        <v>-630285.27</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="385">
+      <c r="K55" s="390">
         <f>-C4</f>
         <v>-359108.11</v>
       </c>
-      <c r="L55" s="386"/>
+      <c r="L55" s="391"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -17358,22 +17527,22 @@
       <c r="C57" s="150">
         <v>45137</v>
       </c>
-      <c r="D57" s="375" t="s">
+      <c r="D57" s="380" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="376"/>
+      <c r="E57" s="381"/>
       <c r="F57" s="316">
         <v>358228.12</v>
       </c>
-      <c r="I57" s="387" t="s">
+      <c r="I57" s="392" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="388"/>
-      <c r="K57" s="397">
+      <c r="J57" s="393"/>
+      <c r="K57" s="402">
         <f>K53+K55</f>
-        <v>-497359.26</v>
-      </c>
-      <c r="L57" s="397"/>
+        <v>-529723.26</v>
+      </c>
+      <c r="L57" s="402"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -17497,8 +17666,8 @@
       <c r="F79" s="166"/>
     </row>
   </sheetData>
-  <sortState ref="J34:L39">
-    <sortCondition ref="J34:J39"/>
+  <sortState ref="J34:L41">
+    <sortCondition ref="J34:J41"/>
   </sortState>
   <mergeCells count="21">
     <mergeCell ref="D53:E53"/>
@@ -18968,13 +19137,13 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:U85"/>
+  <dimension ref="A1:U90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18999,23 +19168,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="359"/>
-      <c r="C1" s="361" t="s">
+      <c r="B1" s="364"/>
+      <c r="C1" s="366" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362"/>
-      <c r="F1" s="362"/>
-      <c r="G1" s="362"/>
-      <c r="H1" s="362"/>
-      <c r="I1" s="362"/>
-      <c r="J1" s="362"/>
-      <c r="K1" s="362"/>
-      <c r="L1" s="362"/>
-      <c r="M1" s="362"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="367"/>
+      <c r="F1" s="367"/>
+      <c r="G1" s="367"/>
+      <c r="H1" s="367"/>
+      <c r="I1" s="367"/>
+      <c r="J1" s="367"/>
+      <c r="K1" s="367"/>
+      <c r="L1" s="367"/>
+      <c r="M1" s="367"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="360"/>
+      <c r="B2" s="365"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -19028,21 +19197,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="363" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="364"/>
+      <c r="B3" s="368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="369"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="365" t="s">
+      <c r="H3" s="370" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="365"/>
+      <c r="I3" s="370"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="395" t="s">
+      <c r="R3" s="400" t="s">
         <v>2</v>
       </c>
     </row>
@@ -19057,14 +19226,14 @@
       <c r="D4" s="307">
         <v>45137</v>
       </c>
-      <c r="E4" s="344" t="s">
+      <c r="E4" s="349" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="345"/>
-      <c r="H4" s="346" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="347"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -19074,11 +19243,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="381" t="s">
+      <c r="P4" s="386" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="382"/>
-      <c r="R4" s="396"/>
+      <c r="Q4" s="387"/>
+      <c r="R4" s="401"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -19226,11 +19395,11 @@
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="235">
-        <f t="shared" ref="P8:P51" si="0">N8+M8+L8+I8+C8</f>
+        <f t="shared" ref="P8:P56" si="0">N8+M8+L8+I8+C8</f>
         <v>0</v>
       </c>
       <c r="Q8" s="236">
-        <f t="shared" ref="Q8:Q53" si="1">P8-F8</f>
+        <f t="shared" ref="Q8:Q58" si="1">P8-F8</f>
         <v>0</v>
       </c>
       <c r="R8" s="238">
@@ -20410,13 +20579,19 @@
     </row>
     <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
-      <c r="B39" s="24"/>
+      <c r="B39" s="24">
+        <v>45172</v>
+      </c>
       <c r="C39" s="25"/>
       <c r="D39" s="80"/>
-      <c r="E39" s="27"/>
+      <c r="E39" s="27">
+        <v>45172</v>
+      </c>
       <c r="F39" s="28"/>
       <c r="G39" s="29"/>
-      <c r="H39" s="30"/>
+      <c r="H39" s="30">
+        <v>45172</v>
+      </c>
       <c r="I39" s="31"/>
       <c r="J39" s="86"/>
       <c r="K39" s="282"/>
@@ -20442,13 +20617,19 @@
     </row>
     <row r="40" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
+      <c r="B40" s="24">
+        <v>45173</v>
+      </c>
       <c r="C40" s="25"/>
       <c r="D40" s="80"/>
-      <c r="E40" s="27"/>
+      <c r="E40" s="27">
+        <v>45173</v>
+      </c>
       <c r="F40" s="28"/>
       <c r="G40" s="29"/>
-      <c r="H40" s="30"/>
+      <c r="H40" s="30">
+        <v>45173</v>
+      </c>
       <c r="I40" s="31"/>
       <c r="J40" s="86"/>
       <c r="K40" s="231"/>
@@ -20474,13 +20655,19 @@
     </row>
     <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
-      <c r="B41" s="24"/>
+      <c r="B41" s="24">
+        <v>45174</v>
+      </c>
       <c r="C41" s="25"/>
       <c r="D41" s="80"/>
-      <c r="E41" s="27"/>
+      <c r="E41" s="27">
+        <v>45174</v>
+      </c>
       <c r="F41" s="28"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="30"/>
+      <c r="H41" s="30">
+        <v>45174</v>
+      </c>
       <c r="I41" s="31"/>
       <c r="J41" s="86"/>
       <c r="K41" s="305"/>
@@ -20548,17 +20735,29 @@
     </row>
     <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="80"/>
+      <c r="B44" s="24">
+        <v>45138</v>
+      </c>
+      <c r="C44" s="408">
+        <v>718960</v>
+      </c>
+      <c r="D44" s="409" t="s">
+        <v>489</v>
+      </c>
       <c r="E44" s="27"/>
       <c r="F44" s="28"/>
       <c r="G44" s="29"/>
       <c r="H44" s="30"/>
       <c r="I44" s="31"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="305"/>
-      <c r="L44" s="281"/>
+      <c r="J44" s="86">
+        <v>45140</v>
+      </c>
+      <c r="K44" s="305" t="s">
+        <v>453</v>
+      </c>
+      <c r="L44" s="281">
+        <v>14500</v>
+      </c>
       <c r="M44" s="33"/>
       <c r="N44" s="34"/>
       <c r="O44" s="35"/>
@@ -20569,17 +20768,29 @@
     </row>
     <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="80"/>
+      <c r="B45" s="24">
+        <v>45146</v>
+      </c>
+      <c r="C45" s="25">
+        <v>12434</v>
+      </c>
+      <c r="D45" s="80" t="s">
+        <v>456</v>
+      </c>
       <c r="E45" s="27"/>
       <c r="F45" s="28"/>
       <c r="G45" s="29"/>
       <c r="H45" s="30"/>
       <c r="I45" s="31"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="305"/>
-      <c r="L45" s="281"/>
+      <c r="J45" s="342">
+        <v>45145</v>
+      </c>
+      <c r="K45" s="343" t="s">
+        <v>454</v>
+      </c>
+      <c r="L45" s="344">
+        <v>10000</v>
+      </c>
       <c r="M45" s="33"/>
       <c r="N45" s="34"/>
       <c r="O45" s="35"/>
@@ -20590,17 +20801,29 @@
     </row>
     <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="80"/>
+      <c r="B46" s="24">
+        <v>45147</v>
+      </c>
+      <c r="C46" s="25">
+        <v>37120</v>
+      </c>
+      <c r="D46" s="80" t="s">
+        <v>457</v>
+      </c>
       <c r="E46" s="27"/>
       <c r="F46" s="28"/>
       <c r="G46" s="29"/>
       <c r="H46" s="30"/>
       <c r="I46" s="31"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="305"/>
-      <c r="L46" s="281"/>
+      <c r="J46" s="86">
+        <v>45146</v>
+      </c>
+      <c r="K46" s="305" t="s">
+        <v>455</v>
+      </c>
+      <c r="L46" s="281">
+        <v>1255.48</v>
+      </c>
       <c r="M46" s="33"/>
       <c r="N46" s="34"/>
       <c r="O46" s="35"/>
@@ -20611,17 +20834,29 @@
     </row>
     <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="80"/>
+      <c r="B47" s="24">
+        <v>45159</v>
+      </c>
+      <c r="C47" s="25">
+        <v>822198.47</v>
+      </c>
+      <c r="D47" s="80" t="s">
+        <v>458</v>
+      </c>
       <c r="E47" s="27"/>
       <c r="F47" s="28"/>
       <c r="G47" s="29"/>
       <c r="H47" s="30"/>
       <c r="I47" s="31"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="305"/>
-      <c r="L47" s="281"/>
+      <c r="J47" s="86">
+        <v>45153</v>
+      </c>
+      <c r="K47" s="305" t="s">
+        <v>108</v>
+      </c>
+      <c r="L47" s="281">
+        <v>1392</v>
+      </c>
       <c r="M47" s="33"/>
       <c r="N47" s="34"/>
       <c r="O47" s="35"/>
@@ -20632,34 +20867,35 @@
     </row>
     <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="23"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="80"/>
+      <c r="B48" s="24">
+        <v>45167</v>
+      </c>
+      <c r="C48" s="408">
+        <v>670000</v>
+      </c>
+      <c r="D48" s="410" t="s">
+        <v>490</v>
+      </c>
       <c r="E48" s="27"/>
       <c r="F48" s="28"/>
       <c r="G48" s="29"/>
       <c r="H48" s="30"/>
       <c r="I48" s="31"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="231"/>
-      <c r="L48" s="281"/>
-      <c r="M48" s="33">
-        <v>0</v>
-      </c>
-      <c r="N48" s="34">
-        <v>0</v>
-      </c>
+      <c r="J48" s="86">
+        <v>45154</v>
+      </c>
+      <c r="K48" s="305" t="s">
+        <v>111</v>
+      </c>
+      <c r="L48" s="281">
+        <v>549</v>
+      </c>
+      <c r="M48" s="33"/>
+      <c r="N48" s="34"/>
       <c r="O48" s="35"/>
-      <c r="P48" s="235">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="236">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="238">
-        <v>0</v>
-      </c>
+      <c r="P48" s="235"/>
+      <c r="Q48" s="236"/>
+      <c r="R48" s="238"/>
       <c r="S48" s="37"/>
     </row>
     <row r="49" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20668,30 +20904,25 @@
       <c r="C49" s="25"/>
       <c r="D49" s="80"/>
       <c r="E49" s="27"/>
-      <c r="F49" s="90"/>
+      <c r="F49" s="28"/>
       <c r="G49" s="29"/>
       <c r="H49" s="30"/>
-      <c r="I49" s="91"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="281"/>
-      <c r="M49" s="33">
-        <v>0</v>
-      </c>
-      <c r="N49" s="34">
-        <v>0</v>
-      </c>
+      <c r="I49" s="31"/>
+      <c r="J49" s="86">
+        <v>45167</v>
+      </c>
+      <c r="K49" s="305" t="s">
+        <v>109</v>
+      </c>
+      <c r="L49" s="281">
+        <v>1031.47</v>
+      </c>
+      <c r="M49" s="33"/>
+      <c r="N49" s="34"/>
       <c r="O49" s="35"/>
-      <c r="P49" s="240">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="236">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="242">
-        <v>0</v>
-      </c>
+      <c r="P49" s="235"/>
+      <c r="Q49" s="236"/>
+      <c r="R49" s="238"/>
       <c r="S49" s="37"/>
     </row>
     <row r="50" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20700,393 +20931,503 @@
       <c r="C50" s="25"/>
       <c r="D50" s="80"/>
       <c r="E50" s="27"/>
-      <c r="F50" s="90"/>
+      <c r="F50" s="28"/>
       <c r="G50" s="29"/>
       <c r="H50" s="30"/>
-      <c r="I50" s="91"/>
+      <c r="I50" s="31"/>
       <c r="J50" s="86"/>
-      <c r="K50" s="231"/>
+      <c r="K50" s="305"/>
       <c r="L50" s="281"/>
-      <c r="M50" s="92">
-        <v>0</v>
-      </c>
-      <c r="N50" s="93"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="34"/>
       <c r="O50" s="35"/>
-      <c r="P50" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="236">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R50" s="13">
-        <v>0</v>
-      </c>
+      <c r="P50" s="235"/>
+      <c r="Q50" s="236"/>
+      <c r="R50" s="238"/>
       <c r="S50" s="37"/>
     </row>
-    <row r="51" spans="1:19" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
       <c r="C51" s="25"/>
-      <c r="D51" s="94"/>
+      <c r="D51" s="80"/>
       <c r="E51" s="27"/>
-      <c r="F51" s="95"/>
+      <c r="F51" s="28"/>
       <c r="G51" s="29"/>
       <c r="H51" s="30"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="86"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="281"/>
-      <c r="M51" s="366">
-        <f>SUM(M5:M39)</f>
-        <v>0</v>
-      </c>
-      <c r="N51" s="351">
-        <f>SUM(N5:N39)</f>
-        <v>0</v>
-      </c>
-      <c r="P51" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="236">
-        <f>SUM(Q5:Q50)</f>
-        <v>0</v>
-      </c>
-      <c r="R51" s="329">
-        <f>SUM(R5:R39)</f>
-        <v>0</v>
-      </c>
+      <c r="I51" s="31"/>
+      <c r="J51" s="86">
+        <v>45170</v>
+      </c>
+      <c r="K51" s="305" t="s">
+        <v>459</v>
+      </c>
+      <c r="L51" s="281">
+        <v>767163.22</v>
+      </c>
+      <c r="M51" s="33"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="235"/>
+      <c r="Q51" s="236"/>
+      <c r="R51" s="238"/>
+      <c r="S51" s="37"/>
     </row>
     <row r="52" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="23"/>
       <c r="B52" s="24"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="94"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="80"/>
       <c r="E52" s="27"/>
-      <c r="F52" s="101"/>
+      <c r="F52" s="28"/>
       <c r="G52" s="29"/>
       <c r="H52" s="30"/>
-      <c r="I52" s="96"/>
+      <c r="I52" s="31"/>
       <c r="J52" s="86"/>
-      <c r="K52" s="102"/>
+      <c r="K52" s="305"/>
       <c r="L52" s="281"/>
-      <c r="M52" s="367"/>
-      <c r="N52" s="352"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="236">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R52" s="13">
-        <v>0</v>
-      </c>
+      <c r="M52" s="33"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="235"/>
+      <c r="Q52" s="236"/>
+      <c r="R52" s="238"/>
+      <c r="S52" s="37"/>
     </row>
     <row r="53" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="23"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="112"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="110"/>
-      <c r="H53" s="113"/>
-      <c r="I53" s="91"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="31"/>
       <c r="J53" s="86"/>
-      <c r="K53" s="287"/>
-      <c r="L53" s="216"/>
-      <c r="M53" s="105"/>
-      <c r="N53" s="106"/>
-      <c r="P53" s="36"/>
+      <c r="K53" s="231"/>
+      <c r="L53" s="281"/>
+      <c r="M53" s="33">
+        <v>0</v>
+      </c>
+      <c r="N53" s="34">
+        <v>0</v>
+      </c>
+      <c r="O53" s="35"/>
+      <c r="P53" s="235">
+        <v>0</v>
+      </c>
       <c r="Q53" s="236">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R53" s="238">
+        <v>0</v>
+      </c>
+      <c r="S53" s="37"/>
+    </row>
+    <row r="54" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="23"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="25">
-        <v>0</v>
-      </c>
-      <c r="D54" s="115"/>
-      <c r="E54" s="116"/>
-      <c r="F54" s="107"/>
-      <c r="H54" s="117"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="30"/>
       <c r="I54" s="91"/>
-      <c r="J54" s="288"/>
-      <c r="K54" s="289"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="120"/>
-      <c r="N54" s="34"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="9"/>
-    </row>
-    <row r="55" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="121" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="122">
-        <f>SUM(C5:C54)</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="123"/>
-      <c r="E55" s="124" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="125">
-        <f>SUM(F5:F54)</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="123"/>
-      <c r="H55" s="126" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="127">
-        <f>SUM(I5:I54)</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="290"/>
-      <c r="K55" s="291" t="s">
-        <v>12</v>
-      </c>
-      <c r="L55" s="292">
-        <f>SUM(L5:L54)</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="131"/>
-      <c r="N55" s="131"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="9"/>
-    </row>
-    <row r="56" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="9"/>
-    </row>
-    <row r="57" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="133"/>
-      <c r="B57" s="134"/>
-      <c r="C57" s="1"/>
-      <c r="H57" s="353" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="354"/>
-      <c r="J57" s="135"/>
-      <c r="K57" s="355">
-        <f>I55+L55</f>
-        <v>0</v>
-      </c>
-      <c r="L57" s="356"/>
-      <c r="M57" s="357">
-        <f>N51+M51</f>
-        <v>0</v>
-      </c>
-      <c r="N57" s="358"/>
+      <c r="J54" s="86"/>
+      <c r="K54" s="89"/>
+      <c r="L54" s="281"/>
+      <c r="M54" s="33">
+        <v>0</v>
+      </c>
+      <c r="N54" s="34">
+        <v>0</v>
+      </c>
+      <c r="O54" s="35"/>
+      <c r="P54" s="240">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="242">
+        <v>0</v>
+      </c>
+      <c r="S54" s="37"/>
+    </row>
+    <row r="55" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="23"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="91"/>
+      <c r="J55" s="86"/>
+      <c r="K55" s="231"/>
+      <c r="L55" s="281"/>
+      <c r="M55" s="92">
+        <v>0</v>
+      </c>
+      <c r="N55" s="93"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="13">
+        <v>0</v>
+      </c>
+      <c r="S55" s="37"/>
+    </row>
+    <row r="56" spans="1:19" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="23"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="86"/>
+      <c r="K56" s="89"/>
+      <c r="L56" s="281"/>
+      <c r="M56" s="371">
+        <f>SUM(M5:M39)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="356">
+        <f>SUM(N5:N39)</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="236">
+        <f>SUM(Q5:Q55)</f>
+        <v>0</v>
+      </c>
+      <c r="R56" s="329">
+        <f>SUM(R5:R39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="23"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="86"/>
+      <c r="K57" s="102"/>
+      <c r="L57" s="281"/>
+      <c r="M57" s="372"/>
+      <c r="N57" s="357"/>
       <c r="P57" s="36"/>
-      <c r="Q57" s="9"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D58" s="350" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="350"/>
-      <c r="F58" s="136">
-        <f>F55-K57-C55</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="137"/>
-      <c r="J58" s="138"/>
+      <c r="Q57" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="23"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="112"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="113"/>
+      <c r="I58" s="91"/>
+      <c r="J58" s="86"/>
+      <c r="K58" s="287"/>
+      <c r="L58" s="216"/>
+      <c r="M58" s="105"/>
+      <c r="N58" s="106"/>
       <c r="P58" s="36"/>
-      <c r="Q58" s="9"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D59" s="368" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="368"/>
-      <c r="F59" s="131">
-        <v>0</v>
-      </c>
-      <c r="I59" s="369" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" s="370"/>
-      <c r="K59" s="383">
-        <f>F61+F62+F63</f>
-        <v>0</v>
-      </c>
-      <c r="L59" s="384"/>
+      <c r="Q58" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="23"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="25">
+        <v>0</v>
+      </c>
+      <c r="D59" s="115"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="107"/>
+      <c r="H59" s="117"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="288"/>
+      <c r="K59" s="289"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="120"/>
+      <c r="N59" s="34"/>
       <c r="P59" s="36"/>
       <c r="Q59" s="9"/>
     </row>
     <row r="60" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="139"/>
-      <c r="E60" s="140"/>
-      <c r="F60" s="141">
-        <v>0</v>
-      </c>
-      <c r="I60" s="142"/>
-      <c r="J60" s="143"/>
-      <c r="K60" s="108"/>
-      <c r="L60" s="294"/>
+      <c r="B60" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="122">
+        <f>SUM(C5:C59)</f>
+        <v>2260712.4699999997</v>
+      </c>
+      <c r="D60" s="123"/>
+      <c r="E60" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="125">
+        <f>SUM(F5:F59)</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="123"/>
+      <c r="H60" s="126" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="127">
+        <f>SUM(I5:I59)</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="290"/>
+      <c r="K60" s="291" t="s">
+        <v>12</v>
+      </c>
+      <c r="L60" s="292">
+        <f>SUM(L5:L59)</f>
+        <v>795891.16999999993</v>
+      </c>
+      <c r="M60" s="131"/>
+      <c r="N60" s="131"/>
+      <c r="P60" s="36"/>
       <c r="Q60" s="9"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="5" t="s">
+    <row r="61" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="133" t="s">
+      <c r="P61" s="36"/>
+      <c r="Q61" s="9"/>
+    </row>
+    <row r="62" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="133"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="1"/>
+      <c r="H62" s="358" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="359"/>
+      <c r="J62" s="135"/>
+      <c r="K62" s="360">
+        <f>I60+L60</f>
+        <v>795891.16999999993</v>
+      </c>
+      <c r="L62" s="361"/>
+      <c r="M62" s="362">
+        <f>N56+M56</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="363"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="9"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D63" s="355" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="355"/>
+      <c r="F63" s="136">
+        <f>F60-K62-C60</f>
+        <v>-3056603.6399999997</v>
+      </c>
+      <c r="I63" s="137"/>
+      <c r="J63" s="138"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="9"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D64" s="373" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="373"/>
+      <c r="F64" s="131">
+        <v>0</v>
+      </c>
+      <c r="I64" s="374" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="375"/>
+      <c r="K64" s="388">
+        <f>F66+F67+F68</f>
+        <v>-2503480.5599999996</v>
+      </c>
+      <c r="L64" s="389"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="9"/>
+    </row>
+    <row r="65" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D65" s="139"/>
+      <c r="E65" s="140"/>
+      <c r="F65" s="141">
+        <v>0</v>
+      </c>
+      <c r="I65" s="142"/>
+      <c r="J65" s="143"/>
+      <c r="K65" s="108"/>
+      <c r="L65" s="294"/>
+      <c r="Q65" s="9"/>
+    </row>
+    <row r="66" spans="2:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="131">
-        <f>SUM(F58:F60)</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="23"/>
-      <c r="I61" s="146" t="s">
+      <c r="F66" s="131">
+        <f>SUM(F63:F65)</f>
+        <v>-3056603.6399999997</v>
+      </c>
+      <c r="H66" s="23"/>
+      <c r="I66" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="J61" s="147"/>
-      <c r="K61" s="385">
+      <c r="J66" s="147"/>
+      <c r="K66" s="390">
         <f>-C4</f>
         <v>-358228.12</v>
       </c>
-      <c r="L61" s="386"/>
-      <c r="Q61" s="9"/>
-    </row>
-    <row r="62" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="148" t="s">
+      <c r="L66" s="391"/>
+      <c r="Q66" s="9"/>
+    </row>
+    <row r="67" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D67" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="133" t="s">
+      <c r="E67" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C63" s="150"/>
-      <c r="D63" s="375" t="s">
+      <c r="F67" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C68" s="150">
+        <v>45174</v>
+      </c>
+      <c r="D68" s="380" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="376"/>
-      <c r="F63" s="316">
-        <v>0</v>
-      </c>
-      <c r="I63" s="387" t="s">
+      <c r="E68" s="381"/>
+      <c r="F68" s="316">
+        <v>553123.07999999996</v>
+      </c>
+      <c r="I68" s="392" t="s">
         <v>170</v>
       </c>
-      <c r="J63" s="388"/>
-      <c r="K63" s="397">
-        <f>K59+K61</f>
-        <v>-358228.12</v>
-      </c>
-      <c r="L63" s="397"/>
-    </row>
-    <row r="64" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C64" s="152"/>
-      <c r="D64" s="153"/>
-      <c r="E64" s="154"/>
-      <c r="F64" s="155"/>
-      <c r="J64" s="295"/>
-    </row>
-    <row r="65" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I65" s="157"/>
-      <c r="J65" s="296"/>
-      <c r="K65" s="297"/>
-      <c r="L65" s="297"/>
-    </row>
-    <row r="66" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="159"/>
-      <c r="C66" s="160"/>
-      <c r="D66" s="161"/>
-      <c r="E66" s="36"/>
-      <c r="I66" s="157"/>
-      <c r="J66" s="296"/>
-      <c r="K66" s="297"/>
-      <c r="L66" s="297"/>
-      <c r="M66" s="162"/>
-      <c r="N66" s="133"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B67" s="159"/>
-      <c r="C67" s="163"/>
-      <c r="E67" s="36"/>
-      <c r="M67" s="162"/>
-      <c r="N67" s="133"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B68" s="159"/>
-      <c r="C68" s="163"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="164"/>
-      <c r="L68" s="298"/>
-      <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B69" s="159"/>
-      <c r="C69" s="163"/>
-      <c r="E69" s="36"/>
-      <c r="M69" s="1"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B70" s="159"/>
-      <c r="C70" s="163"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="166"/>
-      <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E71" s="167"/>
-      <c r="F71" s="36"/>
-      <c r="M71" s="1"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E72" s="167"/>
-      <c r="F72" s="36"/>
-      <c r="M72" s="1"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E73" s="167"/>
-      <c r="F73" s="36"/>
+      <c r="J68" s="393"/>
+      <c r="K68" s="402">
+        <f>K64+K66</f>
+        <v>-2861708.6799999997</v>
+      </c>
+      <c r="L68" s="402"/>
+    </row>
+    <row r="69" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C69" s="152"/>
+      <c r="D69" s="153"/>
+      <c r="E69" s="154"/>
+      <c r="F69" s="155"/>
+      <c r="J69" s="295"/>
+    </row>
+    <row r="70" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="157"/>
+      <c r="J70" s="296"/>
+      <c r="K70" s="297"/>
+      <c r="L70" s="297"/>
+    </row>
+    <row r="71" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="159"/>
+      <c r="C71" s="160"/>
+      <c r="D71" s="161"/>
+      <c r="E71" s="36"/>
+      <c r="I71" s="157"/>
+      <c r="J71" s="296"/>
+      <c r="K71" s="297"/>
+      <c r="L71" s="297"/>
+      <c r="M71" s="162"/>
+      <c r="N71" s="133"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B72" s="159"/>
+      <c r="C72" s="163"/>
+      <c r="E72" s="36"/>
+      <c r="M72" s="162"/>
+      <c r="N72" s="133"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B73" s="159"/>
+      <c r="C73" s="163"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="164"/>
+      <c r="L73" s="298"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E74" s="167"/>
-      <c r="F74" s="36"/>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B74" s="159"/>
+      <c r="C74" s="163"/>
+      <c r="E74" s="36"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E75" s="167"/>
-      <c r="F75" s="36"/>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B75" s="159"/>
+      <c r="C75" s="163"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="166"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E76" s="167"/>
       <c r="F76" s="36"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E77" s="167"/>
       <c r="F77" s="36"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E78" s="167"/>
       <c r="F78" s="36"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E79" s="167"/>
       <c r="F79" s="36"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E80" s="167"/>
       <c r="F80" s="36"/>
       <c r="M80" s="1"/>
@@ -21099,15 +21440,40 @@
     <row r="82" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E82" s="167"/>
       <c r="F82" s="36"/>
+      <c r="M82" s="1"/>
     </row>
     <row r="83" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F83" s="166"/>
+      <c r="E83" s="167"/>
+      <c r="F83" s="36"/>
+      <c r="M83" s="1"/>
     </row>
     <row r="84" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F84" s="166"/>
+      <c r="E84" s="167"/>
+      <c r="F84" s="36"/>
+      <c r="M84" s="1"/>
     </row>
     <row r="85" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F85" s="166"/>
+      <c r="E85" s="167"/>
+      <c r="F85" s="36"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E86" s="167"/>
+      <c r="F86" s="36"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E87" s="167"/>
+      <c r="F87" s="36"/>
+    </row>
+    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F88" s="166"/>
+    </row>
+    <row r="89" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F89" s="166"/>
+    </row>
+    <row r="90" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F90" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -21115,23 +21481,23 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22238,6 +22604,271 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="B9:F32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="210" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="345">
+        <v>45174</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D9" s="403">
+        <v>11424</v>
+      </c>
+      <c r="E9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="345">
+        <v>45175</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D10" s="403">
+        <v>37120</v>
+      </c>
+      <c r="E10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="345">
+        <v>45177</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D11" s="403">
+        <v>14500</v>
+      </c>
+      <c r="E11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="345">
+        <v>45180</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D12" s="403">
+        <v>877000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="345">
+        <v>45180</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D13" s="403">
+        <v>1392</v>
+      </c>
+      <c r="E13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="345">
+        <v>45184</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D14" s="403">
+        <v>4988</v>
+      </c>
+      <c r="E14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="345">
+        <v>45184</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D15" s="403">
+        <v>1107417.6100000001</v>
+      </c>
+      <c r="E15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="345">
+        <v>45187</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D16" s="403">
+        <v>12424</v>
+      </c>
+      <c r="E16" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="345">
+        <v>45187</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="403">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="345">
+        <v>45189</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D18" s="403">
+        <v>37120</v>
+      </c>
+      <c r="E18" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="345">
+        <v>45195</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D19" s="403">
+        <v>612850</v>
+      </c>
+      <c r="E19" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="345">
+        <v>45196</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D20" s="403">
+        <v>1031.47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="345">
+        <v>45197</v>
+      </c>
+      <c r="C21" s="346" t="s">
+        <v>479</v>
+      </c>
+      <c r="D21" s="210">
+        <v>9077</v>
+      </c>
+      <c r="E21" s="404" t="s">
+        <v>481</v>
+      </c>
+      <c r="F21" s="405"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="345">
+        <v>45198</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D22" s="210">
+        <v>1099966.51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -23601,23 +24232,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="359"/>
-      <c r="C1" s="361" t="s">
+      <c r="B1" s="364"/>
+      <c r="C1" s="366" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362"/>
-      <c r="F1" s="362"/>
-      <c r="G1" s="362"/>
-      <c r="H1" s="362"/>
-      <c r="I1" s="362"/>
-      <c r="J1" s="362"/>
-      <c r="K1" s="362"/>
-      <c r="L1" s="362"/>
-      <c r="M1" s="362"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="367"/>
+      <c r="F1" s="367"/>
+      <c r="G1" s="367"/>
+      <c r="H1" s="367"/>
+      <c r="I1" s="367"/>
+      <c r="J1" s="367"/>
+      <c r="K1" s="367"/>
+      <c r="L1" s="367"/>
+      <c r="M1" s="367"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="360"/>
+      <c r="B2" s="365"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -23627,21 +24258,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="363" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="364"/>
+      <c r="B3" s="368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="369"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="365" t="s">
+      <c r="H3" s="370" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="365"/>
+      <c r="I3" s="370"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="342" t="s">
+      <c r="R3" s="347" t="s">
         <v>2</v>
       </c>
     </row>
@@ -23656,14 +24287,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="344" t="s">
+      <c r="E4" s="349" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="345"/>
-      <c r="H4" s="346" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="347"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -23673,11 +24304,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="381" t="s">
+      <c r="P4" s="386" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="382"/>
-      <c r="R4" s="380"/>
+      <c r="Q4" s="387"/>
+      <c r="R4" s="385"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -25478,11 +26109,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="366">
+      <c r="M45" s="371">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="351">
+      <c r="N45" s="356">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -25512,8 +26143,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="367"/>
-      <c r="N46" s="352"/>
+      <c r="M46" s="372"/>
+      <c r="N46" s="357"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -25605,29 +26236,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="353" t="s">
+      <c r="H51" s="358" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="354"/>
+      <c r="I51" s="359"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="355">
+      <c r="K51" s="360">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="356"/>
-      <c r="M51" s="357">
+      <c r="L51" s="361"/>
+      <c r="M51" s="362">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="358"/>
+      <c r="N51" s="363"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="350" t="s">
+      <c r="D52" s="355" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="350"/>
+      <c r="E52" s="355"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -25638,22 +26269,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="368" t="s">
+      <c r="D53" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="368"/>
+      <c r="E53" s="373"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="369" t="s">
+      <c r="I53" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="370"/>
-      <c r="K53" s="371">
+      <c r="J53" s="375"/>
+      <c r="K53" s="376">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="372"/>
+      <c r="L53" s="377"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -25684,11 +26315,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="373">
+      <c r="K55" s="378">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="374"/>
+      <c r="L55" s="379"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -25705,22 +26336,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="375" t="s">
+      <c r="D57" s="380" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="376"/>
+      <c r="E57" s="381"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="377" t="s">
+      <c r="I57" s="382" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="378"/>
-      <c r="K57" s="379">
+      <c r="J57" s="383"/>
+      <c r="K57" s="384">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="379"/>
+      <c r="L57" s="384"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -27324,23 +27955,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="359"/>
-      <c r="C1" s="361" t="s">
+      <c r="B1" s="364"/>
+      <c r="C1" s="366" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362"/>
-      <c r="F1" s="362"/>
-      <c r="G1" s="362"/>
-      <c r="H1" s="362"/>
-      <c r="I1" s="362"/>
-      <c r="J1" s="362"/>
-      <c r="K1" s="362"/>
-      <c r="L1" s="362"/>
-      <c r="M1" s="362"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="367"/>
+      <c r="F1" s="367"/>
+      <c r="G1" s="367"/>
+      <c r="H1" s="367"/>
+      <c r="I1" s="367"/>
+      <c r="J1" s="367"/>
+      <c r="K1" s="367"/>
+      <c r="L1" s="367"/>
+      <c r="M1" s="367"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="360"/>
+      <c r="B2" s="365"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -27350,21 +27981,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="363" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="364"/>
+      <c r="B3" s="368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="369"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="365" t="s">
+      <c r="H3" s="370" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="365"/>
+      <c r="I3" s="370"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="342" t="s">
+      <c r="R3" s="347" t="s">
         <v>2</v>
       </c>
     </row>
@@ -27379,14 +28010,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="344" t="s">
+      <c r="E4" s="349" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="345"/>
-      <c r="H4" s="346" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="347"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -27396,11 +28027,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="381" t="s">
+      <c r="P4" s="386" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="382"/>
-      <c r="R4" s="380"/>
+      <c r="Q4" s="387"/>
+      <c r="R4" s="385"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -29193,11 +29824,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="366">
+      <c r="M45" s="371">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="351">
+      <c r="N45" s="356">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -29227,8 +29858,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="367"/>
-      <c r="N46" s="352"/>
+      <c r="M46" s="372"/>
+      <c r="N46" s="357"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -29320,29 +29951,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="353" t="s">
+      <c r="H51" s="358" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="354"/>
+      <c r="I51" s="359"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="355">
+      <c r="K51" s="360">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="356"/>
-      <c r="M51" s="357">
+      <c r="L51" s="361"/>
+      <c r="M51" s="362">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="358"/>
+      <c r="N51" s="363"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="350" t="s">
+      <c r="D52" s="355" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="350"/>
+      <c r="E52" s="355"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -29353,22 +29984,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="368" t="s">
+      <c r="D53" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="368"/>
+      <c r="E53" s="373"/>
       <c r="F53" s="131">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="369" t="s">
+      <c r="I53" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="370"/>
-      <c r="K53" s="383">
+      <c r="J53" s="375"/>
+      <c r="K53" s="388">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
       </c>
-      <c r="L53" s="384"/>
+      <c r="L53" s="389"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -29399,11 +30030,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="385">
+      <c r="K55" s="390">
         <f>-C4</f>
         <v>-230554.55</v>
       </c>
-      <c r="L55" s="386"/>
+      <c r="L55" s="391"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -29420,22 +30051,22 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="375" t="s">
+      <c r="D57" s="380" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="376"/>
+      <c r="E57" s="381"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
-      <c r="I57" s="387" t="s">
+      <c r="I57" s="392" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="388"/>
-      <c r="K57" s="389">
+      <c r="J57" s="393"/>
+      <c r="K57" s="394">
         <f>K53+K55</f>
         <v>-262575.91999999993</v>
       </c>
-      <c r="L57" s="389"/>
+      <c r="L57" s="394"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -30982,23 +31613,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="359"/>
-      <c r="C1" s="361" t="s">
+      <c r="B1" s="364"/>
+      <c r="C1" s="366" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362"/>
-      <c r="F1" s="362"/>
-      <c r="G1" s="362"/>
-      <c r="H1" s="362"/>
-      <c r="I1" s="362"/>
-      <c r="J1" s="362"/>
-      <c r="K1" s="362"/>
-      <c r="L1" s="362"/>
-      <c r="M1" s="362"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="367"/>
+      <c r="F1" s="367"/>
+      <c r="G1" s="367"/>
+      <c r="H1" s="367"/>
+      <c r="I1" s="367"/>
+      <c r="J1" s="367"/>
+      <c r="K1" s="367"/>
+      <c r="L1" s="367"/>
+      <c r="M1" s="367"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="360"/>
+      <c r="B2" s="365"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -31011,21 +31642,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="363" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="364"/>
+      <c r="B3" s="368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="369"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="365" t="s">
+      <c r="H3" s="370" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="365"/>
+      <c r="I3" s="370"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="390" t="s">
+      <c r="R3" s="395" t="s">
         <v>2</v>
       </c>
     </row>
@@ -31040,14 +31671,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="344" t="s">
+      <c r="E4" s="349" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="345"/>
-      <c r="H4" s="346" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="347"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -31057,11 +31688,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="381" t="s">
+      <c r="P4" s="386" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="382"/>
-      <c r="R4" s="391"/>
+      <c r="Q4" s="387"/>
+      <c r="R4" s="396"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -32948,11 +33579,11 @@
       <c r="L45" s="312">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="366">
+      <c r="M45" s="371">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="351">
+      <c r="N45" s="356">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -32988,8 +33619,8 @@
       <c r="L46" s="281">
         <v>34015</v>
       </c>
-      <c r="M46" s="367"/>
-      <c r="N46" s="352"/>
+      <c r="M46" s="372"/>
+      <c r="N46" s="357"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -33081,29 +33712,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="353" t="s">
+      <c r="H51" s="358" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="354"/>
+      <c r="I51" s="359"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="355">
+      <c r="K51" s="360">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="356"/>
-      <c r="M51" s="357">
+      <c r="L51" s="361"/>
+      <c r="M51" s="362">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="358"/>
+      <c r="N51" s="363"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="350" t="s">
+      <c r="D52" s="355" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="350"/>
+      <c r="E52" s="355"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -33114,22 +33745,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="368" t="s">
+      <c r="D53" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="368"/>
+      <c r="E53" s="373"/>
       <c r="F53" s="131">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="369" t="s">
+      <c r="I53" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="370"/>
-      <c r="K53" s="383">
+      <c r="J53" s="375"/>
+      <c r="K53" s="388">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
       </c>
-      <c r="L53" s="384"/>
+      <c r="L53" s="389"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -33160,11 +33791,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="385">
+      <c r="K55" s="390">
         <f>-C4</f>
         <v>-341192.34</v>
       </c>
-      <c r="L55" s="386"/>
+      <c r="L55" s="391"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -33181,22 +33812,22 @@
       <c r="C57" s="150">
         <v>45050</v>
       </c>
-      <c r="D57" s="375" t="s">
+      <c r="D57" s="380" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="376"/>
+      <c r="E57" s="381"/>
       <c r="F57" s="151">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="392" t="s">
+      <c r="I57" s="397" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="393"/>
-      <c r="K57" s="394">
+      <c r="J57" s="398"/>
+      <c r="K57" s="399">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="394"/>
+      <c r="L57" s="399"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -34733,23 +35364,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="359"/>
-      <c r="C1" s="361" t="s">
+      <c r="B1" s="364"/>
+      <c r="C1" s="366" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362"/>
-      <c r="F1" s="362"/>
-      <c r="G1" s="362"/>
-      <c r="H1" s="362"/>
-      <c r="I1" s="362"/>
-      <c r="J1" s="362"/>
-      <c r="K1" s="362"/>
-      <c r="L1" s="362"/>
-      <c r="M1" s="362"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="367"/>
+      <c r="F1" s="367"/>
+      <c r="G1" s="367"/>
+      <c r="H1" s="367"/>
+      <c r="I1" s="367"/>
+      <c r="J1" s="367"/>
+      <c r="K1" s="367"/>
+      <c r="L1" s="367"/>
+      <c r="M1" s="367"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="360"/>
+      <c r="B2" s="365"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -34762,21 +35393,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="363" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="364"/>
+      <c r="B3" s="368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="369"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="365" t="s">
+      <c r="H3" s="370" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="365"/>
+      <c r="I3" s="370"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="395" t="s">
+      <c r="R3" s="400" t="s">
         <v>2</v>
       </c>
     </row>
@@ -34791,14 +35422,14 @@
       <c r="D4" s="307">
         <v>45050</v>
       </c>
-      <c r="E4" s="344" t="s">
+      <c r="E4" s="349" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="345"/>
-      <c r="H4" s="346" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="347"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -34808,11 +35439,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="381" t="s">
+      <c r="P4" s="386" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="382"/>
-      <c r="R4" s="396"/>
+      <c r="Q4" s="387"/>
+      <c r="R4" s="401"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -36685,11 +37316,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="366">
+      <c r="M45" s="371">
         <f>SUM(M5:M39)</f>
         <v>3007589</v>
       </c>
-      <c r="N45" s="351">
+      <c r="N45" s="356">
         <f>SUM(N5:N39)</f>
         <v>29752</v>
       </c>
@@ -36719,8 +37350,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="367"/>
-      <c r="N46" s="352"/>
+      <c r="M46" s="372"/>
+      <c r="N46" s="357"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -36812,29 +37443,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="353" t="s">
+      <c r="H51" s="358" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="354"/>
+      <c r="I51" s="359"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="355">
+      <c r="K51" s="360">
         <f>I49+L49</f>
         <v>84500.43</v>
       </c>
-      <c r="L51" s="356"/>
-      <c r="M51" s="357">
+      <c r="L51" s="361"/>
+      <c r="M51" s="362">
         <f>N45+M45</f>
         <v>3037341</v>
       </c>
-      <c r="N51" s="358"/>
+      <c r="N51" s="363"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="350" t="s">
+      <c r="D52" s="355" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="350"/>
+      <c r="E52" s="355"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2988109.57</v>
@@ -36845,22 +37476,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="368" t="s">
+      <c r="D53" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="368"/>
+      <c r="E53" s="373"/>
       <c r="F53" s="131">
         <v>-2955802.29</v>
       </c>
-      <c r="I53" s="369" t="s">
+      <c r="I53" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="370"/>
-      <c r="K53" s="383">
+      <c r="J53" s="375"/>
+      <c r="K53" s="388">
         <f>F55+F56+F57</f>
         <v>419364.9699999998</v>
       </c>
-      <c r="L53" s="384"/>
+      <c r="L53" s="389"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -36891,11 +37522,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="385">
+      <c r="K55" s="390">
         <f>-C4</f>
         <v>-394548.7</v>
       </c>
-      <c r="L55" s="386"/>
+      <c r="L55" s="391"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -36912,22 +37543,22 @@
       <c r="C57" s="150">
         <v>45081</v>
       </c>
-      <c r="D57" s="375" t="s">
+      <c r="D57" s="380" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="376"/>
+      <c r="E57" s="381"/>
       <c r="F57" s="316">
         <v>345633.69</v>
       </c>
-      <c r="I57" s="392" t="s">
+      <c r="I57" s="397" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="393"/>
-      <c r="K57" s="394">
+      <c r="J57" s="398"/>
+      <c r="K57" s="399">
         <f>K53+K55</f>
         <v>24816.269999999786</v>
       </c>
-      <c r="L57" s="394"/>
+      <c r="L57" s="399"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  HERRADURA  Agosto     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  HERRADURA  Agosto     2023.xlsx
@@ -4080,69 +4080,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4194,6 +4132,69 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4224,6 +4225,12 @@
     <xf numFmtId="166" fontId="3" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4232,12 +4239,6 @@
     </xf>
     <xf numFmtId="166" fontId="16" fillId="9" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4254,7 +4255,6 @@
     <xf numFmtId="44" fontId="51" fillId="10" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -7987,23 +7987,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="348"/>
-      <c r="C1" s="350" t="s">
+      <c r="B1" s="354"/>
+      <c r="C1" s="356" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
-      <c r="H1" s="351"/>
-      <c r="I1" s="351"/>
-      <c r="J1" s="351"/>
-      <c r="K1" s="351"/>
-      <c r="L1" s="351"/>
-      <c r="M1" s="351"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="349"/>
+      <c r="B2" s="355"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -8013,21 +8013,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="352" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="353"/>
+      <c r="B3" s="358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="359"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="354" t="s">
+      <c r="H3" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="354"/>
+      <c r="I3" s="360"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="357" t="s">
+      <c r="R3" s="337" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8042,14 +8042,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="359" t="s">
+      <c r="E4" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="360"/>
-      <c r="H4" s="361" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="362"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -8059,11 +8059,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="363" t="s">
+      <c r="P4" s="343" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="364"/>
-      <c r="R4" s="358"/>
+      <c r="Q4" s="344"/>
+      <c r="R4" s="338"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9823,11 +9823,11 @@
       <c r="L49" s="73">
         <v>549</v>
       </c>
-      <c r="M49" s="355">
+      <c r="M49" s="361">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="366">
+      <c r="N49" s="346">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -9861,8 +9861,8 @@
       <c r="L50" s="73">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="356"/>
-      <c r="N50" s="367"/>
+      <c r="M50" s="362"/>
+      <c r="N50" s="347"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -9954,29 +9954,29 @@
       <c r="A55" s="126"/>
       <c r="B55" s="127"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="368" t="s">
+      <c r="H55" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="369"/>
+      <c r="I55" s="349"/>
       <c r="J55" s="128"/>
-      <c r="K55" s="370">
+      <c r="K55" s="350">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="371"/>
-      <c r="M55" s="372">
+      <c r="L55" s="351"/>
+      <c r="M55" s="352">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="373"/>
+      <c r="N55" s="353"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="365" t="s">
+      <c r="D56" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="365"/>
+      <c r="E56" s="345"/>
       <c r="F56" s="129">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -9987,22 +9987,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="336" t="s">
+      <c r="D57" s="363" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="336"/>
+      <c r="E57" s="363"/>
       <c r="F57" s="124">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="337" t="s">
+      <c r="I57" s="364" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="338"/>
-      <c r="K57" s="339">
+      <c r="J57" s="365"/>
+      <c r="K57" s="366">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="340"/>
+      <c r="L57" s="367"/>
       <c r="P57" s="34"/>
       <c r="Q57" s="9"/>
     </row>
@@ -10033,11 +10033,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="140"/>
-      <c r="K59" s="341">
+      <c r="K59" s="368">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="342"/>
+      <c r="L59" s="369"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="141" t="s">
@@ -10054,22 +10054,22 @@
       <c r="C61" s="143">
         <v>44955</v>
       </c>
-      <c r="D61" s="343" t="s">
+      <c r="D61" s="370" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="344"/>
+      <c r="E61" s="371"/>
       <c r="F61" s="144">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="345" t="s">
+      <c r="I61" s="372" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="346"/>
-      <c r="K61" s="347">
+      <c r="J61" s="373"/>
+      <c r="K61" s="374">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="347"/>
+      <c r="L61" s="374"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="145"/>
@@ -10194,6 +10194,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10203,18 +10215,6 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11644,23 +11644,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="348"/>
-      <c r="C1" s="350" t="s">
+      <c r="B1" s="354"/>
+      <c r="C1" s="356" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
-      <c r="H1" s="351"/>
-      <c r="I1" s="351"/>
-      <c r="J1" s="351"/>
-      <c r="K1" s="351"/>
-      <c r="L1" s="351"/>
-      <c r="M1" s="351"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="349"/>
+      <c r="B2" s="355"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -11673,21 +11673,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="352" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="353"/>
+      <c r="B3" s="358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="359"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="354" t="s">
+      <c r="H3" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="354"/>
+      <c r="I3" s="360"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="389" t="s">
+      <c r="R3" s="390" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11702,14 +11702,14 @@
       <c r="D4" s="290">
         <v>45081</v>
       </c>
-      <c r="E4" s="359" t="s">
+      <c r="E4" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="360"/>
-      <c r="H4" s="361" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="362"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="239"/>
       <c r="K4" s="240"/>
       <c r="L4" s="16"/>
@@ -11719,11 +11719,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="375" t="s">
+      <c r="P4" s="376" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="376"/>
-      <c r="R4" s="390"/>
+      <c r="Q4" s="377"/>
+      <c r="R4" s="391"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -13466,11 +13466,11 @@
       <c r="J45" s="83"/>
       <c r="K45" s="86"/>
       <c r="L45" s="265"/>
-      <c r="M45" s="355">
+      <c r="M45" s="361">
         <f>SUM(M5:M39)</f>
         <v>3170751</v>
       </c>
-      <c r="N45" s="366">
+      <c r="N45" s="346">
         <f>SUM(N5:N39)</f>
         <v>31751.230000000003</v>
       </c>
@@ -13499,8 +13499,8 @@
       <c r="J46" s="83"/>
       <c r="K46" s="99"/>
       <c r="L46" s="265"/>
-      <c r="M46" s="356"/>
-      <c r="N46" s="367"/>
+      <c r="M46" s="362"/>
+      <c r="N46" s="347"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -13592,29 +13592,29 @@
       <c r="A51" s="126"/>
       <c r="B51" s="127"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="368" t="s">
+      <c r="H51" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="369"/>
+      <c r="I51" s="349"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="370">
+      <c r="K51" s="350">
         <f>I49+L49</f>
         <v>66093.360000000015</v>
       </c>
-      <c r="L51" s="371"/>
-      <c r="M51" s="372">
+      <c r="L51" s="351"/>
+      <c r="M51" s="352">
         <f>N45+M45</f>
         <v>3202502.23</v>
       </c>
-      <c r="N51" s="373"/>
+      <c r="N51" s="353"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="365" t="s">
+      <c r="D52" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="365"/>
+      <c r="E52" s="345"/>
       <c r="F52" s="129">
         <f>F49-K51-C49</f>
         <v>3132761.64</v>
@@ -13625,22 +13625,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="336" t="s">
+      <c r="D53" s="363" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="336"/>
+      <c r="E53" s="363"/>
       <c r="F53" s="124">
         <v>-3128572.23</v>
       </c>
-      <c r="I53" s="337" t="s">
+      <c r="I53" s="364" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="338"/>
-      <c r="K53" s="377">
+      <c r="J53" s="365"/>
+      <c r="K53" s="378">
         <f>F55+F56+F57</f>
         <v>417897.52000000014</v>
       </c>
-      <c r="L53" s="378"/>
+      <c r="L53" s="379"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
@@ -13671,11 +13671,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="140"/>
-      <c r="K55" s="379">
+      <c r="K55" s="380">
         <f>-C4</f>
         <v>-345633.69</v>
       </c>
-      <c r="L55" s="380"/>
+      <c r="L55" s="381"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="141" t="s">
@@ -13692,22 +13692,22 @@
       <c r="C57" s="143">
         <v>45109</v>
       </c>
-      <c r="D57" s="343" t="s">
+      <c r="D57" s="370" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="344"/>
+      <c r="E57" s="371"/>
       <c r="F57" s="299">
         <v>359108.11</v>
       </c>
-      <c r="I57" s="384" t="s">
+      <c r="I57" s="387" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="385"/>
-      <c r="K57" s="386">
+      <c r="J57" s="388"/>
+      <c r="K57" s="389">
         <f>K53+K55</f>
         <v>72263.830000000133</v>
       </c>
-      <c r="L57" s="386"/>
+      <c r="L57" s="389"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="145"/>
@@ -13832,18 +13832,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13853,6 +13841,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15265,23 +15265,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="348"/>
-      <c r="C1" s="350" t="s">
+      <c r="B1" s="354"/>
+      <c r="C1" s="356" t="s">
         <v>381</v>
       </c>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
-      <c r="H1" s="351"/>
-      <c r="I1" s="351"/>
-      <c r="J1" s="351"/>
-      <c r="K1" s="351"/>
-      <c r="L1" s="351"/>
-      <c r="M1" s="351"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="349"/>
+      <c r="B2" s="355"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -15294,21 +15294,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="352" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="353"/>
+      <c r="B3" s="358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="359"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="354" t="s">
+      <c r="H3" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="354"/>
+      <c r="I3" s="360"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="389" t="s">
+      <c r="R3" s="390" t="s">
         <v>2</v>
       </c>
     </row>
@@ -15323,14 +15323,14 @@
       <c r="D4" s="290">
         <v>45109</v>
       </c>
-      <c r="E4" s="359" t="s">
+      <c r="E4" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="360"/>
-      <c r="H4" s="361" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="362"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="239"/>
       <c r="K4" s="240"/>
       <c r="L4" s="16"/>
@@ -15340,11 +15340,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="375" t="s">
+      <c r="P4" s="376" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="376"/>
-      <c r="R4" s="390"/>
+      <c r="Q4" s="377"/>
+      <c r="R4" s="391"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -17129,11 +17129,11 @@
       <c r="J45" s="83"/>
       <c r="K45" s="86"/>
       <c r="L45" s="265"/>
-      <c r="M45" s="355">
+      <c r="M45" s="361">
         <f>SUM(M5:M39)</f>
         <v>3725440</v>
       </c>
-      <c r="N45" s="366">
+      <c r="N45" s="346">
         <f>SUM(N5:N39)</f>
         <v>22373</v>
       </c>
@@ -17162,8 +17162,8 @@
       <c r="J46" s="83"/>
       <c r="K46" s="99"/>
       <c r="L46" s="265"/>
-      <c r="M46" s="356"/>
-      <c r="N46" s="367"/>
+      <c r="M46" s="362"/>
+      <c r="N46" s="347"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="223">
         <f t="shared" si="1"/>
@@ -17261,29 +17261,29 @@
       <c r="A51" s="126"/>
       <c r="B51" s="127"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="368" t="s">
+      <c r="H51" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="369"/>
+      <c r="I51" s="349"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="370">
+      <c r="K51" s="350">
         <f>I49+L49</f>
         <v>68872.53</v>
       </c>
-      <c r="L51" s="371"/>
-      <c r="M51" s="372">
+      <c r="L51" s="351"/>
+      <c r="M51" s="352">
         <f>N45+M45</f>
         <v>3747813</v>
       </c>
-      <c r="N51" s="373"/>
+      <c r="N51" s="353"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="365" t="s">
+      <c r="D52" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="365"/>
+      <c r="E52" s="345"/>
       <c r="F52" s="129">
         <f>F49-K51-C49</f>
         <v>1766408.4700000002</v>
@@ -17294,22 +17294,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="336" t="s">
+      <c r="D53" s="363" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="336"/>
+      <c r="E53" s="363"/>
       <c r="F53" s="124">
         <v>-2396693.7400000002</v>
       </c>
-      <c r="I53" s="337" t="s">
+      <c r="I53" s="364" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="338"/>
-      <c r="K53" s="377">
+      <c r="J53" s="365"/>
+      <c r="K53" s="378">
         <f>F55+F56+F57</f>
         <v>-170615.15000000002</v>
       </c>
-      <c r="L53" s="378"/>
+      <c r="L53" s="379"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
@@ -17341,11 +17341,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="140"/>
-      <c r="K55" s="379">
+      <c r="K55" s="380">
         <f>-C4</f>
         <v>-359108.11</v>
       </c>
-      <c r="L55" s="380"/>
+      <c r="L55" s="381"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -17363,22 +17363,22 @@
       <c r="C57" s="143">
         <v>45137</v>
       </c>
-      <c r="D57" s="343" t="s">
+      <c r="D57" s="370" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="344"/>
+      <c r="E57" s="371"/>
       <c r="F57" s="299">
         <v>358228.12</v>
       </c>
-      <c r="I57" s="381" t="s">
+      <c r="I57" s="382" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="382"/>
-      <c r="K57" s="391">
+      <c r="J57" s="383"/>
+      <c r="K57" s="392">
         <f>K53+K55</f>
         <v>-529723.26</v>
       </c>
-      <c r="L57" s="391"/>
+      <c r="L57" s="392"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="145"/>
@@ -17506,6 +17506,18 @@
     <sortCondition ref="J34:J41"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -17515,18 +17527,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18979,7 +18979,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19004,23 +19004,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="348"/>
-      <c r="C1" s="350" t="s">
+      <c r="B1" s="354"/>
+      <c r="C1" s="356" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
-      <c r="H1" s="351"/>
-      <c r="I1" s="351"/>
-      <c r="J1" s="351"/>
-      <c r="K1" s="351"/>
-      <c r="L1" s="351"/>
-      <c r="M1" s="351"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="349"/>
+      <c r="B2" s="355"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -19033,21 +19033,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="352" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="353"/>
+      <c r="B3" s="358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="359"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="354" t="s">
+      <c r="H3" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="354"/>
+      <c r="I3" s="360"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="393" t="s">
         <v>2</v>
       </c>
     </row>
@@ -19062,14 +19062,14 @@
       <c r="D4" s="290">
         <v>45137</v>
       </c>
-      <c r="E4" s="359" t="s">
+      <c r="E4" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="360"/>
-      <c r="H4" s="361" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="362"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="239"/>
       <c r="K4" s="240"/>
       <c r="L4" s="16"/>
@@ -19079,11 +19079,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="375" t="s">
+      <c r="P4" s="376" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="376"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="377"/>
+      <c r="R4" s="394"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -19158,7 +19158,7 @@
       <c r="J6" s="242"/>
       <c r="K6" s="68"/>
       <c r="L6" s="243"/>
-      <c r="M6" s="394">
+      <c r="M6" s="31">
         <f>38500+71603</f>
         <v>110103</v>
       </c>
@@ -19207,7 +19207,7 @@
       <c r="J7" s="242"/>
       <c r="K7" s="99"/>
       <c r="L7" s="243"/>
-      <c r="M7" s="394">
+      <c r="M7" s="336">
         <f>15000+116151</f>
         <v>131151</v>
       </c>
@@ -19252,7 +19252,7 @@
       <c r="J8" s="242"/>
       <c r="K8" s="244"/>
       <c r="L8" s="243"/>
-      <c r="M8" s="394">
+      <c r="M8" s="336">
         <f>22000+94057</f>
         <v>116057</v>
       </c>
@@ -19301,7 +19301,7 @@
       <c r="J9" s="242"/>
       <c r="K9" s="245"/>
       <c r="L9" s="243"/>
-      <c r="M9" s="394">
+      <c r="M9" s="336">
         <f>71000+136908</f>
         <v>207908</v>
       </c>
@@ -19352,7 +19352,7 @@
       <c r="L10" s="247">
         <v>9424</v>
       </c>
-      <c r="M10" s="394">
+      <c r="M10" s="336">
         <f>60000+58048</f>
         <v>118048</v>
       </c>
@@ -19402,7 +19402,7 @@
       <c r="J11" s="242"/>
       <c r="K11" s="245"/>
       <c r="L11" s="243"/>
-      <c r="M11" s="394">
+      <c r="M11" s="336">
         <f>111100+23305</f>
         <v>134405</v>
       </c>
@@ -19447,7 +19447,7 @@
       <c r="J12" s="242"/>
       <c r="K12" s="248"/>
       <c r="L12" s="243"/>
-      <c r="M12" s="394">
+      <c r="M12" s="336">
         <f>58000+139468</f>
         <v>197468</v>
       </c>
@@ -19494,7 +19494,7 @@
       <c r="J13" s="242"/>
       <c r="K13" s="68"/>
       <c r="L13" s="243"/>
-      <c r="M13" s="394">
+      <c r="M13" s="336">
         <f>24800+55718</f>
         <v>80518</v>
       </c>
@@ -19539,7 +19539,7 @@
       <c r="J14" s="242"/>
       <c r="K14" s="244"/>
       <c r="L14" s="243"/>
-      <c r="M14" s="394">
+      <c r="M14" s="336">
         <f>9700+45015</f>
         <v>54715</v>
       </c>
@@ -19584,7 +19584,7 @@
       <c r="J15" s="242"/>
       <c r="K15" s="244"/>
       <c r="L15" s="243"/>
-      <c r="M15" s="394">
+      <c r="M15" s="336">
         <f>45000+84924</f>
         <v>129924</v>
       </c>
@@ -19633,7 +19633,7 @@
       <c r="J16" s="242"/>
       <c r="K16" s="244"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="394">
+      <c r="M16" s="336">
         <f>32300+70085</f>
         <v>102385</v>
       </c>
@@ -19680,7 +19680,7 @@
       <c r="J17" s="242"/>
       <c r="K17" s="42"/>
       <c r="L17" s="247"/>
-      <c r="M17" s="394">
+      <c r="M17" s="336">
         <f>42500+107908</f>
         <v>150408</v>
       </c>
@@ -19727,7 +19727,7 @@
       <c r="J18" s="242"/>
       <c r="K18" s="249"/>
       <c r="L18" s="243"/>
-      <c r="M18" s="394">
+      <c r="M18" s="336">
         <f>108400+16226</f>
         <v>124626</v>
       </c>
@@ -19774,7 +19774,7 @@
       <c r="J19" s="242"/>
       <c r="K19" s="249"/>
       <c r="L19" s="243"/>
-      <c r="M19" s="394">
+      <c r="M19" s="336">
         <f>18000+104651</f>
         <v>122651</v>
       </c>
@@ -19819,7 +19819,7 @@
       <c r="J20" s="242"/>
       <c r="K20" s="250"/>
       <c r="L20" s="251"/>
-      <c r="M20" s="394">
+      <c r="M20" s="336">
         <f>17000+171046</f>
         <v>188046</v>
       </c>
@@ -19864,7 +19864,7 @@
       <c r="J21" s="242"/>
       <c r="K21" s="246"/>
       <c r="L21" s="247"/>
-      <c r="M21" s="394">
+      <c r="M21" s="336">
         <f>8000+38888</f>
         <v>46888</v>
       </c>
@@ -19911,7 +19911,7 @@
       <c r="J22" s="242"/>
       <c r="K22" s="252"/>
       <c r="L22" s="247"/>
-      <c r="M22" s="394">
+      <c r="M22" s="336">
         <f>62500+64350</f>
         <v>126850</v>
       </c>
@@ -19958,7 +19958,7 @@
       <c r="J23" s="242"/>
       <c r="K23" s="285"/>
       <c r="L23" s="253"/>
-      <c r="M23" s="394">
+      <c r="M23" s="336">
         <f>129229</f>
         <v>129229</v>
       </c>
@@ -20009,7 +20009,7 @@
       <c r="L24" s="247">
         <v>8307</v>
       </c>
-      <c r="M24" s="394">
+      <c r="M24" s="336">
         <f>71000+54808</f>
         <v>125808</v>
       </c>
@@ -20058,7 +20058,7 @@
       <c r="J25" s="258"/>
       <c r="K25" s="259"/>
       <c r="L25" s="260"/>
-      <c r="M25" s="394">
+      <c r="M25" s="336">
         <f>110000+23338</f>
         <v>133338</v>
       </c>
@@ -20103,7 +20103,7 @@
       <c r="J26" s="262"/>
       <c r="K26" s="335"/>
       <c r="L26" s="247"/>
-      <c r="M26" s="394">
+      <c r="M26" s="336">
         <f>40000+80664</f>
         <v>120664</v>
       </c>
@@ -20148,7 +20148,7 @@
       <c r="J27" s="261"/>
       <c r="K27" s="259"/>
       <c r="L27" s="260"/>
-      <c r="M27" s="394">
+      <c r="M27" s="336">
         <f>5800+125721</f>
         <v>131521</v>
       </c>
@@ -20193,7 +20193,7 @@
       <c r="J28" s="262"/>
       <c r="K28" s="68"/>
       <c r="L28" s="260"/>
-      <c r="M28" s="394">
+      <c r="M28" s="336">
         <f>3528+34300</f>
         <v>37828</v>
       </c>
@@ -20238,7 +20238,7 @@
       <c r="J29" s="261"/>
       <c r="K29" s="263"/>
       <c r="L29" s="260"/>
-      <c r="M29" s="394">
+      <c r="M29" s="336">
         <f>28000+134556</f>
         <v>162556</v>
       </c>
@@ -20286,7 +20286,7 @@
       <c r="J30" s="83"/>
       <c r="K30" s="264"/>
       <c r="L30" s="265"/>
-      <c r="M30" s="394">
+      <c r="M30" s="336">
         <f>29000+132539</f>
         <v>161539</v>
       </c>
@@ -20339,7 +20339,7 @@
       <c r="L31" s="260">
         <v>6907</v>
       </c>
-      <c r="M31" s="394">
+      <c r="M31" s="336">
         <f>35000+90413</f>
         <v>125413</v>
       </c>
@@ -20384,7 +20384,7 @@
       <c r="J32" s="83"/>
       <c r="K32" s="264"/>
       <c r="L32" s="265"/>
-      <c r="M32" s="394">
+      <c r="M32" s="336">
         <f>61000+42424</f>
         <v>103424</v>
       </c>
@@ -20429,7 +20429,7 @@
       <c r="J33" s="83"/>
       <c r="K33" s="266"/>
       <c r="L33" s="203"/>
-      <c r="M33" s="394">
+      <c r="M33" s="336">
         <f>23000+166753</f>
         <v>189753</v>
       </c>
@@ -20477,7 +20477,7 @@
       <c r="J34" s="83"/>
       <c r="K34" s="315"/>
       <c r="L34" s="268"/>
-      <c r="M34" s="394">
+      <c r="M34" s="336">
         <f>156468</f>
         <v>156468</v>
       </c>
@@ -20524,7 +20524,7 @@
       <c r="J35" s="83"/>
       <c r="K35" s="266"/>
       <c r="L35" s="203"/>
-      <c r="M35" s="394">
+      <c r="M35" s="336">
         <f>10000+33074</f>
         <v>43074</v>
       </c>
@@ -20569,7 +20569,7 @@
       <c r="J36" s="83"/>
       <c r="K36" s="302"/>
       <c r="L36" s="203"/>
-      <c r="M36" s="394">
+      <c r="M36" s="336">
         <f>13500+128408</f>
         <v>141908</v>
       </c>
@@ -20616,7 +20616,7 @@
       <c r="J37" s="83"/>
       <c r="K37" s="269"/>
       <c r="L37" s="203"/>
-      <c r="M37" s="394">
+      <c r="M37" s="336">
         <f>45500+68882</f>
         <v>114382</v>
       </c>
@@ -20669,7 +20669,7 @@
       <c r="L38" s="203">
         <v>6500</v>
       </c>
-      <c r="M38" s="394">
+      <c r="M38" s="336">
         <f>72000+83488+5718</f>
         <v>161206</v>
       </c>
@@ -20714,7 +20714,7 @@
       <c r="J39" s="83"/>
       <c r="K39" s="266"/>
       <c r="L39" s="265"/>
-      <c r="M39" s="394">
+      <c r="M39" s="336">
         <f>64000+42527</f>
         <v>106527</v>
       </c>
@@ -20759,7 +20759,7 @@
       <c r="J40" s="83"/>
       <c r="K40" s="218"/>
       <c r="L40" s="265"/>
-      <c r="M40" s="394">
+      <c r="M40" s="336">
         <f>26000+100000+33000</f>
         <v>159000</v>
       </c>
@@ -20804,7 +20804,7 @@
       <c r="J41" s="83"/>
       <c r="K41" s="288"/>
       <c r="L41" s="265"/>
-      <c r="M41" s="394">
+      <c r="M41" s="336">
         <f>74000+74218</f>
         <v>148218</v>
       </c>
@@ -20837,7 +20837,7 @@
       <c r="J42" s="83"/>
       <c r="K42" s="288"/>
       <c r="L42" s="265"/>
-      <c r="M42" s="394"/>
+      <c r="M42" s="336"/>
       <c r="N42" s="32"/>
       <c r="O42" s="33"/>
       <c r="P42" s="222"/>
@@ -21221,11 +21221,11 @@
       <c r="J56" s="83"/>
       <c r="K56" s="86"/>
       <c r="L56" s="265"/>
-      <c r="M56" s="355">
+      <c r="M56" s="361">
         <f>SUM(M5:M39)</f>
         <v>4389810</v>
       </c>
-      <c r="N56" s="366">
+      <c r="N56" s="346">
         <f>SUM(N5:N39)</f>
         <v>10483</v>
       </c>
@@ -21254,8 +21254,8 @@
       <c r="J57" s="83"/>
       <c r="K57" s="99"/>
       <c r="L57" s="265"/>
-      <c r="M57" s="356"/>
-      <c r="N57" s="367"/>
+      <c r="M57" s="362"/>
+      <c r="N57" s="347"/>
       <c r="P57" s="34"/>
       <c r="Q57" s="223">
         <f t="shared" si="2"/>
@@ -21353,29 +21353,29 @@
       <c r="A62" s="126"/>
       <c r="B62" s="127"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="368" t="s">
+      <c r="H62" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="I62" s="369"/>
+      <c r="I62" s="349"/>
       <c r="J62" s="128"/>
-      <c r="K62" s="370">
+      <c r="K62" s="350">
         <f>I60+L60</f>
         <v>832789.16999999993</v>
       </c>
-      <c r="L62" s="371"/>
-      <c r="M62" s="372">
+      <c r="L62" s="351"/>
+      <c r="M62" s="352">
         <f>N56+M56</f>
         <v>4400293</v>
       </c>
-      <c r="N62" s="373"/>
+      <c r="N62" s="353"/>
       <c r="P62" s="34"/>
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D63" s="365" t="s">
+      <c r="D63" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="365"/>
+      <c r="E63" s="345"/>
       <c r="F63" s="129">
         <f>F60-K62-C60</f>
         <v>1545078.3600000003</v>
@@ -21386,22 +21386,22 @@
       <c r="Q63" s="9"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D64" s="336" t="s">
+      <c r="D64" s="363" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="336"/>
+      <c r="E64" s="363"/>
       <c r="F64" s="124">
         <v>0</v>
       </c>
-      <c r="I64" s="337" t="s">
+      <c r="I64" s="364" t="s">
         <v>16</v>
       </c>
-      <c r="J64" s="338"/>
-      <c r="K64" s="377">
+      <c r="J64" s="365"/>
+      <c r="K64" s="378">
         <f>F66+F67+F68</f>
         <v>2177033.4400000004</v>
       </c>
-      <c r="L64" s="378"/>
+      <c r="L64" s="379"/>
       <c r="P64" s="34"/>
       <c r="Q64" s="9"/>
     </row>
@@ -21433,11 +21433,11 @@
         <v>18</v>
       </c>
       <c r="J66" s="140"/>
-      <c r="K66" s="379">
+      <c r="K66" s="380">
         <f>-C4</f>
         <v>-358228.12</v>
       </c>
-      <c r="L66" s="380"/>
+      <c r="L66" s="381"/>
       <c r="Q66" s="9"/>
     </row>
     <row r="67" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21455,22 +21455,22 @@
       <c r="C68" s="143">
         <v>45174</v>
       </c>
-      <c r="D68" s="343" t="s">
+      <c r="D68" s="370" t="s">
         <v>21</v>
       </c>
-      <c r="E68" s="344"/>
+      <c r="E68" s="371"/>
       <c r="F68" s="299">
         <v>553123.07999999996</v>
       </c>
-      <c r="I68" s="381" t="s">
+      <c r="I68" s="382" t="s">
         <v>170</v>
       </c>
-      <c r="J68" s="382"/>
-      <c r="K68" s="391">
+      <c r="J68" s="383"/>
+      <c r="K68" s="392">
         <f>K64+K66</f>
         <v>1818805.3200000003</v>
       </c>
-      <c r="L68" s="391"/>
+      <c r="L68" s="392"/>
     </row>
     <row r="69" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="145"/>
@@ -21595,18 +21595,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M56:M57"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -21616,6 +21604,18 @@
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="M62:N62"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24350,23 +24350,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="348"/>
-      <c r="C1" s="350" t="s">
+      <c r="B1" s="354"/>
+      <c r="C1" s="356" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
-      <c r="H1" s="351"/>
-      <c r="I1" s="351"/>
-      <c r="J1" s="351"/>
-      <c r="K1" s="351"/>
-      <c r="L1" s="351"/>
-      <c r="M1" s="351"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="349"/>
+      <c r="B2" s="355"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -24376,21 +24376,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="352" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="353"/>
+      <c r="B3" s="358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="359"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="354" t="s">
+      <c r="H3" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="354"/>
+      <c r="I3" s="360"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="357" t="s">
+      <c r="R3" s="337" t="s">
         <v>2</v>
       </c>
     </row>
@@ -24405,14 +24405,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="359" t="s">
+      <c r="E4" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="360"/>
-      <c r="H4" s="361" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="362"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -24422,11 +24422,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="375" t="s">
+      <c r="P4" s="376" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="376"/>
-      <c r="R4" s="374"/>
+      <c r="Q4" s="377"/>
+      <c r="R4" s="375"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -26186,11 +26186,11 @@
       <c r="J45" s="71"/>
       <c r="K45" s="94"/>
       <c r="L45" s="73"/>
-      <c r="M45" s="355">
+      <c r="M45" s="361">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="366">
+      <c r="N45" s="346">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -26219,8 +26219,8 @@
       <c r="J46" s="71"/>
       <c r="K46" s="99"/>
       <c r="L46" s="73"/>
-      <c r="M46" s="356"/>
-      <c r="N46" s="367"/>
+      <c r="M46" s="362"/>
+      <c r="N46" s="347"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -26312,29 +26312,29 @@
       <c r="A51" s="126"/>
       <c r="B51" s="127"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="368" t="s">
+      <c r="H51" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="369"/>
+      <c r="I51" s="349"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="370">
+      <c r="K51" s="350">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="371"/>
-      <c r="M51" s="372">
+      <c r="L51" s="351"/>
+      <c r="M51" s="352">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="373"/>
+      <c r="N51" s="353"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="365" t="s">
+      <c r="D52" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="365"/>
+      <c r="E52" s="345"/>
       <c r="F52" s="129">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -26345,22 +26345,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="336" t="s">
+      <c r="D53" s="363" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="336"/>
+      <c r="E53" s="363"/>
       <c r="F53" s="124">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="337" t="s">
+      <c r="I53" s="364" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="338"/>
-      <c r="K53" s="339">
+      <c r="J53" s="365"/>
+      <c r="K53" s="366">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="340"/>
+      <c r="L53" s="367"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
@@ -26391,11 +26391,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="140"/>
-      <c r="K55" s="341">
+      <c r="K55" s="368">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="342"/>
+      <c r="L55" s="369"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="141" t="s">
@@ -26412,22 +26412,22 @@
       <c r="C57" s="143">
         <v>44985</v>
       </c>
-      <c r="D57" s="343" t="s">
+      <c r="D57" s="370" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="344"/>
+      <c r="E57" s="371"/>
       <c r="F57" s="144">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="345" t="s">
+      <c r="I57" s="372" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="346"/>
-      <c r="K57" s="347">
+      <c r="J57" s="373"/>
+      <c r="K57" s="374">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="347"/>
+      <c r="L57" s="374"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="145"/>
@@ -26552,6 +26552,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -26561,18 +26573,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28031,23 +28031,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="348"/>
-      <c r="C1" s="350" t="s">
+      <c r="B1" s="354"/>
+      <c r="C1" s="356" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
-      <c r="H1" s="351"/>
-      <c r="I1" s="351"/>
-      <c r="J1" s="351"/>
-      <c r="K1" s="351"/>
-      <c r="L1" s="351"/>
-      <c r="M1" s="351"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="349"/>
+      <c r="B2" s="355"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -28057,21 +28057,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="352" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="353"/>
+      <c r="B3" s="358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="359"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="354" t="s">
+      <c r="H3" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="354"/>
+      <c r="I3" s="360"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="357" t="s">
+      <c r="R3" s="337" t="s">
         <v>2</v>
       </c>
     </row>
@@ -28086,14 +28086,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="359" t="s">
+      <c r="E4" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="360"/>
-      <c r="H4" s="361" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="362"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="239"/>
       <c r="K4" s="240"/>
       <c r="L4" s="16"/>
@@ -28103,11 +28103,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="375" t="s">
+      <c r="P4" s="376" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="376"/>
-      <c r="R4" s="374"/>
+      <c r="Q4" s="377"/>
+      <c r="R4" s="375"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -29859,11 +29859,11 @@
       <c r="J45" s="83"/>
       <c r="K45" s="218"/>
       <c r="L45" s="265"/>
-      <c r="M45" s="355">
+      <c r="M45" s="361">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="366">
+      <c r="N45" s="346">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -29892,8 +29892,8 @@
       <c r="J46" s="83"/>
       <c r="K46" s="99"/>
       <c r="L46" s="265"/>
-      <c r="M46" s="356"/>
-      <c r="N46" s="367"/>
+      <c r="M46" s="362"/>
+      <c r="N46" s="347"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -29985,29 +29985,29 @@
       <c r="A51" s="126"/>
       <c r="B51" s="127"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="368" t="s">
+      <c r="H51" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="369"/>
+      <c r="I51" s="349"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="370">
+      <c r="K51" s="350">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="371"/>
-      <c r="M51" s="372">
+      <c r="L51" s="351"/>
+      <c r="M51" s="352">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="373"/>
+      <c r="N51" s="353"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="365" t="s">
+      <c r="D52" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="365"/>
+      <c r="E52" s="345"/>
       <c r="F52" s="129">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -30018,22 +30018,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="336" t="s">
+      <c r="D53" s="363" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="336"/>
+      <c r="E53" s="363"/>
       <c r="F53" s="124">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="337" t="s">
+      <c r="I53" s="364" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="338"/>
-      <c r="K53" s="377">
+      <c r="J53" s="365"/>
+      <c r="K53" s="378">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
       </c>
-      <c r="L53" s="378"/>
+      <c r="L53" s="379"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
@@ -30064,11 +30064,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="140"/>
-      <c r="K55" s="379">
+      <c r="K55" s="380">
         <f>-C4</f>
         <v>-230554.55</v>
       </c>
-      <c r="L55" s="380"/>
+      <c r="L55" s="381"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="141" t="s">
@@ -30085,22 +30085,22 @@
       <c r="C57" s="143">
         <v>45015</v>
       </c>
-      <c r="D57" s="343" t="s">
+      <c r="D57" s="370" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="344"/>
+      <c r="E57" s="371"/>
       <c r="F57" s="144">
         <v>341192.34</v>
       </c>
-      <c r="I57" s="381" t="s">
+      <c r="I57" s="382" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="382"/>
-      <c r="K57" s="383">
+      <c r="J57" s="383"/>
+      <c r="K57" s="384">
         <f>K53+K55</f>
         <v>-262575.91999999993</v>
       </c>
-      <c r="L57" s="383"/>
+      <c r="L57" s="384"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="145"/>
@@ -30225,18 +30225,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30246,6 +30234,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -31647,23 +31647,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="348"/>
-      <c r="C1" s="350" t="s">
+      <c r="B1" s="354"/>
+      <c r="C1" s="356" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
-      <c r="H1" s="351"/>
-      <c r="I1" s="351"/>
-      <c r="J1" s="351"/>
-      <c r="K1" s="351"/>
-      <c r="L1" s="351"/>
-      <c r="M1" s="351"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="349"/>
+      <c r="B2" s="355"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -31676,21 +31676,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="352" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="353"/>
+      <c r="B3" s="358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="359"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="354" t="s">
+      <c r="H3" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="354"/>
+      <c r="I3" s="360"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="387" t="s">
+      <c r="R3" s="385" t="s">
         <v>2</v>
       </c>
     </row>
@@ -31705,14 +31705,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="359" t="s">
+      <c r="E4" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="360"/>
-      <c r="H4" s="361" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="362"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="239"/>
       <c r="K4" s="240"/>
       <c r="L4" s="16"/>
@@ -31722,11 +31722,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="375" t="s">
+      <c r="P4" s="376" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="376"/>
-      <c r="R4" s="388"/>
+      <c r="Q4" s="377"/>
+      <c r="R4" s="386"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -33572,11 +33572,11 @@
       <c r="L45" s="295">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="355">
+      <c r="M45" s="361">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="366">
+      <c r="N45" s="346">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -33611,8 +33611,8 @@
       <c r="L46" s="265">
         <v>34015</v>
       </c>
-      <c r="M46" s="356"/>
-      <c r="N46" s="367"/>
+      <c r="M46" s="362"/>
+      <c r="N46" s="347"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -33704,29 +33704,29 @@
       <c r="A51" s="126"/>
       <c r="B51" s="127"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="368" t="s">
+      <c r="H51" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="369"/>
+      <c r="I51" s="349"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="370">
+      <c r="K51" s="350">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="371"/>
-      <c r="M51" s="372">
+      <c r="L51" s="351"/>
+      <c r="M51" s="352">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="373"/>
+      <c r="N51" s="353"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="365" t="s">
+      <c r="D52" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="365"/>
+      <c r="E52" s="345"/>
       <c r="F52" s="129">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -33737,22 +33737,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="336" t="s">
+      <c r="D53" s="363" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="336"/>
+      <c r="E53" s="363"/>
       <c r="F53" s="124">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="337" t="s">
+      <c r="I53" s="364" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="338"/>
-      <c r="K53" s="377">
+      <c r="J53" s="365"/>
+      <c r="K53" s="378">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
       </c>
-      <c r="L53" s="378"/>
+      <c r="L53" s="379"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
@@ -33783,11 +33783,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="140"/>
-      <c r="K55" s="379">
+      <c r="K55" s="380">
         <f>-C4</f>
         <v>-341192.34</v>
       </c>
-      <c r="L55" s="380"/>
+      <c r="L55" s="381"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="141" t="s">
@@ -33804,22 +33804,22 @@
       <c r="C57" s="143">
         <v>45050</v>
       </c>
-      <c r="D57" s="343" t="s">
+      <c r="D57" s="370" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="344"/>
+      <c r="E57" s="371"/>
       <c r="F57" s="144">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="384" t="s">
+      <c r="I57" s="387" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="385"/>
-      <c r="K57" s="386">
+      <c r="J57" s="388"/>
+      <c r="K57" s="389">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="386"/>
+      <c r="L57" s="389"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="145"/>
@@ -33944,6 +33944,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -33953,18 +33965,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35356,23 +35356,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="348"/>
-      <c r="C1" s="350" t="s">
+      <c r="B1" s="354"/>
+      <c r="C1" s="356" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
-      <c r="H1" s="351"/>
-      <c r="I1" s="351"/>
-      <c r="J1" s="351"/>
-      <c r="K1" s="351"/>
-      <c r="L1" s="351"/>
-      <c r="M1" s="351"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="349"/>
+      <c r="B2" s="355"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -35385,21 +35385,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="352" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="353"/>
+      <c r="B3" s="358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="359"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="354" t="s">
+      <c r="H3" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="354"/>
+      <c r="I3" s="360"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="389" t="s">
+      <c r="R3" s="390" t="s">
         <v>2</v>
       </c>
     </row>
@@ -35414,14 +35414,14 @@
       <c r="D4" s="290">
         <v>45050</v>
       </c>
-      <c r="E4" s="359" t="s">
+      <c r="E4" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="360"/>
-      <c r="H4" s="361" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="362"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="239"/>
       <c r="K4" s="240"/>
       <c r="L4" s="16"/>
@@ -35431,11 +35431,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="375" t="s">
+      <c r="P4" s="376" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="376"/>
-      <c r="R4" s="390"/>
+      <c r="Q4" s="377"/>
+      <c r="R4" s="391"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -37267,11 +37267,11 @@
       <c r="J45" s="83"/>
       <c r="K45" s="86"/>
       <c r="L45" s="265"/>
-      <c r="M45" s="355">
+      <c r="M45" s="361">
         <f>SUM(M5:M39)</f>
         <v>3007589</v>
       </c>
-      <c r="N45" s="366">
+      <c r="N45" s="346">
         <f>SUM(N5:N39)</f>
         <v>29752</v>
       </c>
@@ -37300,8 +37300,8 @@
       <c r="J46" s="83"/>
       <c r="K46" s="99"/>
       <c r="L46" s="265"/>
-      <c r="M46" s="356"/>
-      <c r="N46" s="367"/>
+      <c r="M46" s="362"/>
+      <c r="N46" s="347"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -37393,29 +37393,29 @@
       <c r="A51" s="126"/>
       <c r="B51" s="127"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="368" t="s">
+      <c r="H51" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="369"/>
+      <c r="I51" s="349"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="370">
+      <c r="K51" s="350">
         <f>I49+L49</f>
         <v>84500.43</v>
       </c>
-      <c r="L51" s="371"/>
-      <c r="M51" s="372">
+      <c r="L51" s="351"/>
+      <c r="M51" s="352">
         <f>N45+M45</f>
         <v>3037341</v>
       </c>
-      <c r="N51" s="373"/>
+      <c r="N51" s="353"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="365" t="s">
+      <c r="D52" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="365"/>
+      <c r="E52" s="345"/>
       <c r="F52" s="129">
         <f>F49-K51-C49</f>
         <v>2988109.57</v>
@@ -37426,22 +37426,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="336" t="s">
+      <c r="D53" s="363" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="336"/>
+      <c r="E53" s="363"/>
       <c r="F53" s="124">
         <v>-2955802.29</v>
       </c>
-      <c r="I53" s="337" t="s">
+      <c r="I53" s="364" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="338"/>
-      <c r="K53" s="377">
+      <c r="J53" s="365"/>
+      <c r="K53" s="378">
         <f>F55+F56+F57</f>
         <v>419364.9699999998</v>
       </c>
-      <c r="L53" s="378"/>
+      <c r="L53" s="379"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
@@ -37472,11 +37472,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="140"/>
-      <c r="K55" s="379">
+      <c r="K55" s="380">
         <f>-C4</f>
         <v>-394548.7</v>
       </c>
-      <c r="L55" s="380"/>
+      <c r="L55" s="381"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="141" t="s">
@@ -37493,22 +37493,22 @@
       <c r="C57" s="143">
         <v>45081</v>
       </c>
-      <c r="D57" s="343" t="s">
+      <c r="D57" s="370" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="344"/>
+      <c r="E57" s="371"/>
       <c r="F57" s="299">
         <v>345633.69</v>
       </c>
-      <c r="I57" s="384" t="s">
+      <c r="I57" s="387" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="385"/>
-      <c r="K57" s="386">
+      <c r="J57" s="388"/>
+      <c r="K57" s="389">
         <f>K53+K55</f>
         <v>24816.269999999786</v>
       </c>
-      <c r="L57" s="386"/>
+      <c r="L57" s="389"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="145"/>
@@ -37633,18 +37633,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -37654,6 +37642,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  HERRADURA  Agosto     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  HERRADURA  Agosto     2023.xlsx
@@ -4081,6 +4081,69 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4132,69 +4195,6 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4225,12 +4225,6 @@
     <xf numFmtId="166" fontId="3" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4239,6 +4233,12 @@
     </xf>
     <xf numFmtId="166" fontId="16" fillId="9" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -7987,23 +7987,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="354"/>
-      <c r="C1" s="356" t="s">
+      <c r="B1" s="349"/>
+      <c r="C1" s="351" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="357"/>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="355"/>
+      <c r="B2" s="350"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -8013,21 +8013,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="358" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="359"/>
+      <c r="B3" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="354"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="360" t="s">
+      <c r="H3" s="355" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="360"/>
+      <c r="I3" s="355"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="337" t="s">
+      <c r="R3" s="358" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8042,14 +8042,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="360" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="361"/>
+      <c r="H4" s="362" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="363"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -8059,11 +8059,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="343" t="s">
+      <c r="P4" s="364" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="344"/>
-      <c r="R4" s="338"/>
+      <c r="Q4" s="365"/>
+      <c r="R4" s="359"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9823,11 +9823,11 @@
       <c r="L49" s="73">
         <v>549</v>
       </c>
-      <c r="M49" s="361">
+      <c r="M49" s="356">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="346">
+      <c r="N49" s="367">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -9861,8 +9861,8 @@
       <c r="L50" s="73">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="362"/>
-      <c r="N50" s="347"/>
+      <c r="M50" s="357"/>
+      <c r="N50" s="368"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -9954,29 +9954,29 @@
       <c r="A55" s="126"/>
       <c r="B55" s="127"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="348" t="s">
+      <c r="H55" s="369" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="349"/>
+      <c r="I55" s="370"/>
       <c r="J55" s="128"/>
-      <c r="K55" s="350">
+      <c r="K55" s="371">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="351"/>
-      <c r="M55" s="352">
+      <c r="L55" s="372"/>
+      <c r="M55" s="373">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="353"/>
+      <c r="N55" s="374"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="345" t="s">
+      <c r="D56" s="366" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="345"/>
+      <c r="E56" s="366"/>
       <c r="F56" s="129">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -9987,22 +9987,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="363" t="s">
+      <c r="D57" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="363"/>
+      <c r="E57" s="337"/>
       <c r="F57" s="124">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="364" t="s">
+      <c r="I57" s="338" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="365"/>
-      <c r="K57" s="366">
+      <c r="J57" s="339"/>
+      <c r="K57" s="340">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="367"/>
+      <c r="L57" s="341"/>
       <c r="P57" s="34"/>
       <c r="Q57" s="9"/>
     </row>
@@ -10033,11 +10033,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="140"/>
-      <c r="K59" s="368">
+      <c r="K59" s="342">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="369"/>
+      <c r="L59" s="343"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="141" t="s">
@@ -10054,22 +10054,22 @@
       <c r="C61" s="143">
         <v>44955</v>
       </c>
-      <c r="D61" s="370" t="s">
+      <c r="D61" s="344" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="371"/>
+      <c r="E61" s="345"/>
       <c r="F61" s="144">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="372" t="s">
+      <c r="I61" s="346" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="373"/>
-      <c r="K61" s="374">
+      <c r="J61" s="347"/>
+      <c r="K61" s="348">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="374"/>
+      <c r="L61" s="348"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="145"/>
@@ -10194,18 +10194,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10215,6 +10203,18 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11644,23 +11644,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="354"/>
-      <c r="C1" s="356" t="s">
+      <c r="B1" s="349"/>
+      <c r="C1" s="351" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="357"/>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="355"/>
+      <c r="B2" s="350"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -11673,17 +11673,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="358" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="359"/>
+      <c r="B3" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="354"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="360" t="s">
+      <c r="H3" s="355" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="360"/>
+      <c r="I3" s="355"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
@@ -11702,14 +11702,14 @@
       <c r="D4" s="290">
         <v>45081</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="360" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="361"/>
+      <c r="H4" s="362" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="363"/>
       <c r="J4" s="239"/>
       <c r="K4" s="240"/>
       <c r="L4" s="16"/>
@@ -13466,11 +13466,11 @@
       <c r="J45" s="83"/>
       <c r="K45" s="86"/>
       <c r="L45" s="265"/>
-      <c r="M45" s="361">
+      <c r="M45" s="356">
         <f>SUM(M5:M39)</f>
         <v>3170751</v>
       </c>
-      <c r="N45" s="346">
+      <c r="N45" s="367">
         <f>SUM(N5:N39)</f>
         <v>31751.230000000003</v>
       </c>
@@ -13499,8 +13499,8 @@
       <c r="J46" s="83"/>
       <c r="K46" s="99"/>
       <c r="L46" s="265"/>
-      <c r="M46" s="362"/>
-      <c r="N46" s="347"/>
+      <c r="M46" s="357"/>
+      <c r="N46" s="368"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -13592,29 +13592,29 @@
       <c r="A51" s="126"/>
       <c r="B51" s="127"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="348" t="s">
+      <c r="H51" s="369" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="349"/>
+      <c r="I51" s="370"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="350">
+      <c r="K51" s="371">
         <f>I49+L49</f>
         <v>66093.360000000015</v>
       </c>
-      <c r="L51" s="351"/>
-      <c r="M51" s="352">
+      <c r="L51" s="372"/>
+      <c r="M51" s="373">
         <f>N45+M45</f>
         <v>3202502.23</v>
       </c>
-      <c r="N51" s="353"/>
+      <c r="N51" s="374"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="345" t="s">
+      <c r="D52" s="366" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="345"/>
+      <c r="E52" s="366"/>
       <c r="F52" s="129">
         <f>F49-K51-C49</f>
         <v>3132761.64</v>
@@ -13625,17 +13625,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="363" t="s">
+      <c r="D53" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="363"/>
+      <c r="E53" s="337"/>
       <c r="F53" s="124">
         <v>-3128572.23</v>
       </c>
-      <c r="I53" s="364" t="s">
+      <c r="I53" s="338" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="365"/>
+      <c r="J53" s="339"/>
       <c r="K53" s="378">
         <f>F55+F56+F57</f>
         <v>417897.52000000014</v>
@@ -13692,22 +13692,22 @@
       <c r="C57" s="143">
         <v>45109</v>
       </c>
-      <c r="D57" s="370" t="s">
+      <c r="D57" s="344" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="371"/>
+      <c r="E57" s="345"/>
       <c r="F57" s="299">
         <v>359108.11</v>
       </c>
-      <c r="I57" s="387" t="s">
+      <c r="I57" s="385" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="388"/>
-      <c r="K57" s="389">
+      <c r="J57" s="386"/>
+      <c r="K57" s="387">
         <f>K53+K55</f>
         <v>72263.830000000133</v>
       </c>
-      <c r="L57" s="389"/>
+      <c r="L57" s="387"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="145"/>
@@ -13832,6 +13832,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13841,18 +13853,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15265,23 +15265,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="354"/>
-      <c r="C1" s="356" t="s">
+      <c r="B1" s="349"/>
+      <c r="C1" s="351" t="s">
         <v>381</v>
       </c>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="357"/>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="355"/>
+      <c r="B2" s="350"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -15294,17 +15294,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="358" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="359"/>
+      <c r="B3" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="354"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="360" t="s">
+      <c r="H3" s="355" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="360"/>
+      <c r="I3" s="355"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
@@ -15323,14 +15323,14 @@
       <c r="D4" s="290">
         <v>45109</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="360" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="361"/>
+      <c r="H4" s="362" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="363"/>
       <c r="J4" s="239"/>
       <c r="K4" s="240"/>
       <c r="L4" s="16"/>
@@ -17129,11 +17129,11 @@
       <c r="J45" s="83"/>
       <c r="K45" s="86"/>
       <c r="L45" s="265"/>
-      <c r="M45" s="361">
+      <c r="M45" s="356">
         <f>SUM(M5:M39)</f>
         <v>3725440</v>
       </c>
-      <c r="N45" s="346">
+      <c r="N45" s="367">
         <f>SUM(N5:N39)</f>
         <v>22373</v>
       </c>
@@ -17162,8 +17162,8 @@
       <c r="J46" s="83"/>
       <c r="K46" s="99"/>
       <c r="L46" s="265"/>
-      <c r="M46" s="362"/>
-      <c r="N46" s="347"/>
+      <c r="M46" s="357"/>
+      <c r="N46" s="368"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="223">
         <f t="shared" si="1"/>
@@ -17261,29 +17261,29 @@
       <c r="A51" s="126"/>
       <c r="B51" s="127"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="348" t="s">
+      <c r="H51" s="369" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="349"/>
+      <c r="I51" s="370"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="350">
+      <c r="K51" s="371">
         <f>I49+L49</f>
         <v>68872.53</v>
       </c>
-      <c r="L51" s="351"/>
-      <c r="M51" s="352">
+      <c r="L51" s="372"/>
+      <c r="M51" s="373">
         <f>N45+M45</f>
         <v>3747813</v>
       </c>
-      <c r="N51" s="353"/>
+      <c r="N51" s="374"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="345" t="s">
+      <c r="D52" s="366" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="345"/>
+      <c r="E52" s="366"/>
       <c r="F52" s="129">
         <f>F49-K51-C49</f>
         <v>1766408.4700000002</v>
@@ -17294,17 +17294,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="363" t="s">
+      <c r="D53" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="363"/>
+      <c r="E53" s="337"/>
       <c r="F53" s="124">
         <v>-2396693.7400000002</v>
       </c>
-      <c r="I53" s="364" t="s">
+      <c r="I53" s="338" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="365"/>
+      <c r="J53" s="339"/>
       <c r="K53" s="378">
         <f>F55+F56+F57</f>
         <v>-170615.15000000002</v>
@@ -17363,10 +17363,10 @@
       <c r="C57" s="143">
         <v>45137</v>
       </c>
-      <c r="D57" s="370" t="s">
+      <c r="D57" s="344" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="371"/>
+      <c r="E57" s="345"/>
       <c r="F57" s="299">
         <v>358228.12</v>
       </c>
@@ -17506,18 +17506,6 @@
     <sortCondition ref="J34:J41"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -17527,6 +17515,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18979,7 +18979,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19004,23 +19004,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="354"/>
-      <c r="C1" s="356" t="s">
+      <c r="B1" s="349"/>
+      <c r="C1" s="351" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="357"/>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="355"/>
+      <c r="B2" s="350"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -19033,17 +19033,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="358" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="359"/>
+      <c r="B3" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="354"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="360" t="s">
+      <c r="H3" s="355" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="360"/>
+      <c r="I3" s="355"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
@@ -19062,14 +19062,14 @@
       <c r="D4" s="290">
         <v>45137</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="360" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="361"/>
+      <c r="H4" s="362" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="363"/>
       <c r="J4" s="239"/>
       <c r="K4" s="240"/>
       <c r="L4" s="16"/>
@@ -19207,7 +19207,7 @@
       <c r="J7" s="242"/>
       <c r="K7" s="99"/>
       <c r="L7" s="243"/>
-      <c r="M7" s="336">
+      <c r="M7" s="31">
         <f>15000+116151</f>
         <v>131151</v>
       </c>
@@ -19252,7 +19252,7 @@
       <c r="J8" s="242"/>
       <c r="K8" s="244"/>
       <c r="L8" s="243"/>
-      <c r="M8" s="336">
+      <c r="M8" s="31">
         <f>22000+94057</f>
         <v>116057</v>
       </c>
@@ -19301,7 +19301,7 @@
       <c r="J9" s="242"/>
       <c r="K9" s="245"/>
       <c r="L9" s="243"/>
-      <c r="M9" s="336">
+      <c r="M9" s="31">
         <f>71000+136908</f>
         <v>207908</v>
       </c>
@@ -19352,7 +19352,7 @@
       <c r="L10" s="247">
         <v>9424</v>
       </c>
-      <c r="M10" s="336">
+      <c r="M10" s="31">
         <f>60000+58048</f>
         <v>118048</v>
       </c>
@@ -19402,7 +19402,7 @@
       <c r="J11" s="242"/>
       <c r="K11" s="245"/>
       <c r="L11" s="243"/>
-      <c r="M11" s="336">
+      <c r="M11" s="31">
         <f>111100+23305</f>
         <v>134405</v>
       </c>
@@ -19447,7 +19447,7 @@
       <c r="J12" s="242"/>
       <c r="K12" s="248"/>
       <c r="L12" s="243"/>
-      <c r="M12" s="336">
+      <c r="M12" s="31">
         <f>58000+139468</f>
         <v>197468</v>
       </c>
@@ -19494,7 +19494,7 @@
       <c r="J13" s="242"/>
       <c r="K13" s="68"/>
       <c r="L13" s="243"/>
-      <c r="M13" s="336">
+      <c r="M13" s="31">
         <f>24800+55718</f>
         <v>80518</v>
       </c>
@@ -19539,7 +19539,7 @@
       <c r="J14" s="242"/>
       <c r="K14" s="244"/>
       <c r="L14" s="243"/>
-      <c r="M14" s="336">
+      <c r="M14" s="31">
         <f>9700+45015</f>
         <v>54715</v>
       </c>
@@ -19584,7 +19584,7 @@
       <c r="J15" s="242"/>
       <c r="K15" s="244"/>
       <c r="L15" s="243"/>
-      <c r="M15" s="336">
+      <c r="M15" s="31">
         <f>45000+84924</f>
         <v>129924</v>
       </c>
@@ -19633,7 +19633,7 @@
       <c r="J16" s="242"/>
       <c r="K16" s="244"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="336">
+      <c r="M16" s="31">
         <f>32300+70085</f>
         <v>102385</v>
       </c>
@@ -19680,7 +19680,7 @@
       <c r="J17" s="242"/>
       <c r="K17" s="42"/>
       <c r="L17" s="247"/>
-      <c r="M17" s="336">
+      <c r="M17" s="31">
         <f>42500+107908</f>
         <v>150408</v>
       </c>
@@ -19727,7 +19727,7 @@
       <c r="J18" s="242"/>
       <c r="K18" s="249"/>
       <c r="L18" s="243"/>
-      <c r="M18" s="336">
+      <c r="M18" s="31">
         <f>108400+16226</f>
         <v>124626</v>
       </c>
@@ -19774,7 +19774,7 @@
       <c r="J19" s="242"/>
       <c r="K19" s="249"/>
       <c r="L19" s="243"/>
-      <c r="M19" s="336">
+      <c r="M19" s="31">
         <f>18000+104651</f>
         <v>122651</v>
       </c>
@@ -19819,7 +19819,7 @@
       <c r="J20" s="242"/>
       <c r="K20" s="250"/>
       <c r="L20" s="251"/>
-      <c r="M20" s="336">
+      <c r="M20" s="31">
         <f>17000+171046</f>
         <v>188046</v>
       </c>
@@ -19864,7 +19864,7 @@
       <c r="J21" s="242"/>
       <c r="K21" s="246"/>
       <c r="L21" s="247"/>
-      <c r="M21" s="336">
+      <c r="M21" s="31">
         <f>8000+38888</f>
         <v>46888</v>
       </c>
@@ -19911,7 +19911,7 @@
       <c r="J22" s="242"/>
       <c r="K22" s="252"/>
       <c r="L22" s="247"/>
-      <c r="M22" s="336">
+      <c r="M22" s="31">
         <f>62500+64350</f>
         <v>126850</v>
       </c>
@@ -19958,7 +19958,7 @@
       <c r="J23" s="242"/>
       <c r="K23" s="285"/>
       <c r="L23" s="253"/>
-      <c r="M23" s="336">
+      <c r="M23" s="31">
         <f>129229</f>
         <v>129229</v>
       </c>
@@ -20009,7 +20009,7 @@
       <c r="L24" s="247">
         <v>8307</v>
       </c>
-      <c r="M24" s="336">
+      <c r="M24" s="31">
         <f>71000+54808</f>
         <v>125808</v>
       </c>
@@ -20058,7 +20058,7 @@
       <c r="J25" s="258"/>
       <c r="K25" s="259"/>
       <c r="L25" s="260"/>
-      <c r="M25" s="336">
+      <c r="M25" s="31">
         <f>110000+23338</f>
         <v>133338</v>
       </c>
@@ -21221,11 +21221,11 @@
       <c r="J56" s="83"/>
       <c r="K56" s="86"/>
       <c r="L56" s="265"/>
-      <c r="M56" s="361">
+      <c r="M56" s="356">
         <f>SUM(M5:M39)</f>
         <v>4389810</v>
       </c>
-      <c r="N56" s="346">
+      <c r="N56" s="367">
         <f>SUM(N5:N39)</f>
         <v>10483</v>
       </c>
@@ -21254,8 +21254,8 @@
       <c r="J57" s="83"/>
       <c r="K57" s="99"/>
       <c r="L57" s="265"/>
-      <c r="M57" s="362"/>
-      <c r="N57" s="347"/>
+      <c r="M57" s="357"/>
+      <c r="N57" s="368"/>
       <c r="P57" s="34"/>
       <c r="Q57" s="223">
         <f t="shared" si="2"/>
@@ -21353,29 +21353,29 @@
       <c r="A62" s="126"/>
       <c r="B62" s="127"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="348" t="s">
+      <c r="H62" s="369" t="s">
         <v>13</v>
       </c>
-      <c r="I62" s="349"/>
+      <c r="I62" s="370"/>
       <c r="J62" s="128"/>
-      <c r="K62" s="350">
+      <c r="K62" s="371">
         <f>I60+L60</f>
         <v>832789.16999999993</v>
       </c>
-      <c r="L62" s="351"/>
-      <c r="M62" s="352">
+      <c r="L62" s="372"/>
+      <c r="M62" s="373">
         <f>N56+M56</f>
         <v>4400293</v>
       </c>
-      <c r="N62" s="353"/>
+      <c r="N62" s="374"/>
       <c r="P62" s="34"/>
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D63" s="345" t="s">
+      <c r="D63" s="366" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="345"/>
+      <c r="E63" s="366"/>
       <c r="F63" s="129">
         <f>F60-K62-C60</f>
         <v>1545078.3600000003</v>
@@ -21386,17 +21386,17 @@
       <c r="Q63" s="9"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D64" s="363" t="s">
+      <c r="D64" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="363"/>
+      <c r="E64" s="337"/>
       <c r="F64" s="124">
         <v>0</v>
       </c>
-      <c r="I64" s="364" t="s">
+      <c r="I64" s="338" t="s">
         <v>16</v>
       </c>
-      <c r="J64" s="365"/>
+      <c r="J64" s="339"/>
       <c r="K64" s="378">
         <f>F66+F67+F68</f>
         <v>2177033.4400000004</v>
@@ -21455,10 +21455,10 @@
       <c r="C68" s="143">
         <v>45174</v>
       </c>
-      <c r="D68" s="370" t="s">
+      <c r="D68" s="344" t="s">
         <v>21</v>
       </c>
-      <c r="E68" s="371"/>
+      <c r="E68" s="345"/>
       <c r="F68" s="299">
         <v>553123.07999999996</v>
       </c>
@@ -21595,6 +21595,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M56:M57"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -21604,18 +21616,6 @@
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="M62:N62"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24350,23 +24350,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="354"/>
-      <c r="C1" s="356" t="s">
+      <c r="B1" s="349"/>
+      <c r="C1" s="351" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="357"/>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="355"/>
+      <c r="B2" s="350"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -24376,21 +24376,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="358" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="359"/>
+      <c r="B3" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="354"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="360" t="s">
+      <c r="H3" s="355" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="360"/>
+      <c r="I3" s="355"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="337" t="s">
+      <c r="R3" s="358" t="s">
         <v>2</v>
       </c>
     </row>
@@ -24405,14 +24405,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="360" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="361"/>
+      <c r="H4" s="362" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="363"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -26186,11 +26186,11 @@
       <c r="J45" s="71"/>
       <c r="K45" s="94"/>
       <c r="L45" s="73"/>
-      <c r="M45" s="361">
+      <c r="M45" s="356">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="346">
+      <c r="N45" s="367">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -26219,8 +26219,8 @@
       <c r="J46" s="71"/>
       <c r="K46" s="99"/>
       <c r="L46" s="73"/>
-      <c r="M46" s="362"/>
-      <c r="N46" s="347"/>
+      <c r="M46" s="357"/>
+      <c r="N46" s="368"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -26312,29 +26312,29 @@
       <c r="A51" s="126"/>
       <c r="B51" s="127"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="348" t="s">
+      <c r="H51" s="369" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="349"/>
+      <c r="I51" s="370"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="350">
+      <c r="K51" s="371">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="351"/>
-      <c r="M51" s="352">
+      <c r="L51" s="372"/>
+      <c r="M51" s="373">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="353"/>
+      <c r="N51" s="374"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="345" t="s">
+      <c r="D52" s="366" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="345"/>
+      <c r="E52" s="366"/>
       <c r="F52" s="129">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -26345,22 +26345,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="363" t="s">
+      <c r="D53" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="363"/>
+      <c r="E53" s="337"/>
       <c r="F53" s="124">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="364" t="s">
+      <c r="I53" s="338" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="365"/>
-      <c r="K53" s="366">
+      <c r="J53" s="339"/>
+      <c r="K53" s="340">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="367"/>
+      <c r="L53" s="341"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
@@ -26391,11 +26391,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="140"/>
-      <c r="K55" s="368">
+      <c r="K55" s="342">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="369"/>
+      <c r="L55" s="343"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="141" t="s">
@@ -26412,22 +26412,22 @@
       <c r="C57" s="143">
         <v>44985</v>
       </c>
-      <c r="D57" s="370" t="s">
+      <c r="D57" s="344" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="371"/>
+      <c r="E57" s="345"/>
       <c r="F57" s="144">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="372" t="s">
+      <c r="I57" s="346" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="373"/>
-      <c r="K57" s="374">
+      <c r="J57" s="347"/>
+      <c r="K57" s="348">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="374"/>
+      <c r="L57" s="348"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="145"/>
@@ -26552,18 +26552,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -26573,6 +26561,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28031,23 +28031,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="354"/>
-      <c r="C1" s="356" t="s">
+      <c r="B1" s="349"/>
+      <c r="C1" s="351" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="357"/>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="355"/>
+      <c r="B2" s="350"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -28057,21 +28057,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="358" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="359"/>
+      <c r="B3" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="354"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="360" t="s">
+      <c r="H3" s="355" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="360"/>
+      <c r="I3" s="355"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="337" t="s">
+      <c r="R3" s="358" t="s">
         <v>2</v>
       </c>
     </row>
@@ -28086,14 +28086,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="360" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="361"/>
+      <c r="H4" s="362" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="363"/>
       <c r="J4" s="239"/>
       <c r="K4" s="240"/>
       <c r="L4" s="16"/>
@@ -29859,11 +29859,11 @@
       <c r="J45" s="83"/>
       <c r="K45" s="218"/>
       <c r="L45" s="265"/>
-      <c r="M45" s="361">
+      <c r="M45" s="356">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="346">
+      <c r="N45" s="367">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -29892,8 +29892,8 @@
       <c r="J46" s="83"/>
       <c r="K46" s="99"/>
       <c r="L46" s="265"/>
-      <c r="M46" s="362"/>
-      <c r="N46" s="347"/>
+      <c r="M46" s="357"/>
+      <c r="N46" s="368"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -29985,29 +29985,29 @@
       <c r="A51" s="126"/>
       <c r="B51" s="127"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="348" t="s">
+      <c r="H51" s="369" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="349"/>
+      <c r="I51" s="370"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="350">
+      <c r="K51" s="371">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="351"/>
-      <c r="M51" s="352">
+      <c r="L51" s="372"/>
+      <c r="M51" s="373">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="353"/>
+      <c r="N51" s="374"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="345" t="s">
+      <c r="D52" s="366" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="345"/>
+      <c r="E52" s="366"/>
       <c r="F52" s="129">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -30018,17 +30018,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="363" t="s">
+      <c r="D53" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="363"/>
+      <c r="E53" s="337"/>
       <c r="F53" s="124">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="364" t="s">
+      <c r="I53" s="338" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="365"/>
+      <c r="J53" s="339"/>
       <c r="K53" s="378">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
@@ -30085,10 +30085,10 @@
       <c r="C57" s="143">
         <v>45015</v>
       </c>
-      <c r="D57" s="370" t="s">
+      <c r="D57" s="344" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="371"/>
+      <c r="E57" s="345"/>
       <c r="F57" s="144">
         <v>341192.34</v>
       </c>
@@ -30225,6 +30225,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30234,18 +30246,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -31647,23 +31647,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="354"/>
-      <c r="C1" s="356" t="s">
+      <c r="B1" s="349"/>
+      <c r="C1" s="351" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="357"/>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="355"/>
+      <c r="B2" s="350"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -31676,21 +31676,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="358" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="359"/>
+      <c r="B3" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="354"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="360" t="s">
+      <c r="H3" s="355" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="360"/>
+      <c r="I3" s="355"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="385" t="s">
+      <c r="R3" s="388" t="s">
         <v>2</v>
       </c>
     </row>
@@ -31705,14 +31705,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="360" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="361"/>
+      <c r="H4" s="362" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="363"/>
       <c r="J4" s="239"/>
       <c r="K4" s="240"/>
       <c r="L4" s="16"/>
@@ -31726,7 +31726,7 @@
         <v>8</v>
       </c>
       <c r="Q4" s="377"/>
-      <c r="R4" s="386"/>
+      <c r="R4" s="389"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -33572,11 +33572,11 @@
       <c r="L45" s="295">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="361">
+      <c r="M45" s="356">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="346">
+      <c r="N45" s="367">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -33611,8 +33611,8 @@
       <c r="L46" s="265">
         <v>34015</v>
       </c>
-      <c r="M46" s="362"/>
-      <c r="N46" s="347"/>
+      <c r="M46" s="357"/>
+      <c r="N46" s="368"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -33704,29 +33704,29 @@
       <c r="A51" s="126"/>
       <c r="B51" s="127"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="348" t="s">
+      <c r="H51" s="369" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="349"/>
+      <c r="I51" s="370"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="350">
+      <c r="K51" s="371">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="351"/>
-      <c r="M51" s="352">
+      <c r="L51" s="372"/>
+      <c r="M51" s="373">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="353"/>
+      <c r="N51" s="374"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="345" t="s">
+      <c r="D52" s="366" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="345"/>
+      <c r="E52" s="366"/>
       <c r="F52" s="129">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -33737,17 +33737,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="363" t="s">
+      <c r="D53" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="363"/>
+      <c r="E53" s="337"/>
       <c r="F53" s="124">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="364" t="s">
+      <c r="I53" s="338" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="365"/>
+      <c r="J53" s="339"/>
       <c r="K53" s="378">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
@@ -33804,22 +33804,22 @@
       <c r="C57" s="143">
         <v>45050</v>
       </c>
-      <c r="D57" s="370" t="s">
+      <c r="D57" s="344" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="371"/>
+      <c r="E57" s="345"/>
       <c r="F57" s="144">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="387" t="s">
+      <c r="I57" s="385" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="388"/>
-      <c r="K57" s="389">
+      <c r="J57" s="386"/>
+      <c r="K57" s="387">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="389"/>
+      <c r="L57" s="387"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="145"/>
@@ -33944,18 +33944,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -33965,6 +33953,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35356,23 +35356,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="354"/>
-      <c r="C1" s="356" t="s">
+      <c r="B1" s="349"/>
+      <c r="C1" s="351" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="357"/>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="355"/>
+      <c r="B2" s="350"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -35385,17 +35385,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="358" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="359"/>
+      <c r="B3" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="354"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="360" t="s">
+      <c r="H3" s="355" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="360"/>
+      <c r="I3" s="355"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
@@ -35414,14 +35414,14 @@
       <c r="D4" s="290">
         <v>45050</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="360" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="361"/>
+      <c r="H4" s="362" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="363"/>
       <c r="J4" s="239"/>
       <c r="K4" s="240"/>
       <c r="L4" s="16"/>
@@ -37267,11 +37267,11 @@
       <c r="J45" s="83"/>
       <c r="K45" s="86"/>
       <c r="L45" s="265"/>
-      <c r="M45" s="361">
+      <c r="M45" s="356">
         <f>SUM(M5:M39)</f>
         <v>3007589</v>
       </c>
-      <c r="N45" s="346">
+      <c r="N45" s="367">
         <f>SUM(N5:N39)</f>
         <v>29752</v>
       </c>
@@ -37300,8 +37300,8 @@
       <c r="J46" s="83"/>
       <c r="K46" s="99"/>
       <c r="L46" s="265"/>
-      <c r="M46" s="362"/>
-      <c r="N46" s="347"/>
+      <c r="M46" s="357"/>
+      <c r="N46" s="368"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -37393,29 +37393,29 @@
       <c r="A51" s="126"/>
       <c r="B51" s="127"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="348" t="s">
+      <c r="H51" s="369" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="349"/>
+      <c r="I51" s="370"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="350">
+      <c r="K51" s="371">
         <f>I49+L49</f>
         <v>84500.43</v>
       </c>
-      <c r="L51" s="351"/>
-      <c r="M51" s="352">
+      <c r="L51" s="372"/>
+      <c r="M51" s="373">
         <f>N45+M45</f>
         <v>3037341</v>
       </c>
-      <c r="N51" s="353"/>
+      <c r="N51" s="374"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="345" t="s">
+      <c r="D52" s="366" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="345"/>
+      <c r="E52" s="366"/>
       <c r="F52" s="129">
         <f>F49-K51-C49</f>
         <v>2988109.57</v>
@@ -37426,17 +37426,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="363" t="s">
+      <c r="D53" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="363"/>
+      <c r="E53" s="337"/>
       <c r="F53" s="124">
         <v>-2955802.29</v>
       </c>
-      <c r="I53" s="364" t="s">
+      <c r="I53" s="338" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="365"/>
+      <c r="J53" s="339"/>
       <c r="K53" s="378">
         <f>F55+F56+F57</f>
         <v>419364.9699999998</v>
@@ -37493,22 +37493,22 @@
       <c r="C57" s="143">
         <v>45081</v>
       </c>
-      <c r="D57" s="370" t="s">
+      <c r="D57" s="344" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="371"/>
+      <c r="E57" s="345"/>
       <c r="F57" s="299">
         <v>345633.69</v>
       </c>
-      <c r="I57" s="387" t="s">
+      <c r="I57" s="385" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="388"/>
-      <c r="K57" s="389">
+      <c r="J57" s="386"/>
+      <c r="K57" s="387">
         <f>K53+K55</f>
         <v>24816.269999999786</v>
       </c>
-      <c r="L57" s="389"/>
+      <c r="L57" s="387"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="145"/>
@@ -37633,6 +37633,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -37642,18 +37654,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  HERRADURA  Agosto     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  HERRADURA  Agosto     2023.xlsx
@@ -32,7 +32,7 @@
     <sheet name="Hoja1" sheetId="20" r:id="rId18"/>
     <sheet name="PAGOS SEPTIEMBRE    " sheetId="21" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3433,7 +3433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="395">
+  <cellXfs count="394">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4080,70 +4080,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4195,6 +4131,69 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4225,6 +4224,12 @@
     <xf numFmtId="166" fontId="3" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4233,12 +4238,6 @@
     </xf>
     <xf numFmtId="166" fontId="16" fillId="9" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -7987,23 +7986,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="349"/>
-      <c r="C1" s="351" t="s">
+      <c r="B1" s="353"/>
+      <c r="C1" s="355" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="352"/>
-      <c r="I1" s="352"/>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="356"/>
+      <c r="H1" s="356"/>
+      <c r="I1" s="356"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="350"/>
+      <c r="B2" s="354"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -8013,21 +8012,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="354"/>
+      <c r="B3" s="357" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="358"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="355" t="s">
+      <c r="H3" s="359" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="355"/>
+      <c r="I3" s="359"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="358" t="s">
+      <c r="R3" s="336" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8042,14 +8041,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="360" t="s">
+      <c r="E4" s="338" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="361"/>
-      <c r="H4" s="362" t="s">
+      <c r="F4" s="339"/>
+      <c r="H4" s="340" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="363"/>
+      <c r="I4" s="341"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -8059,11 +8058,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="364" t="s">
+      <c r="P4" s="342" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="365"/>
-      <c r="R4" s="359"/>
+      <c r="Q4" s="343"/>
+      <c r="R4" s="337"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9823,11 +9822,11 @@
       <c r="L49" s="73">
         <v>549</v>
       </c>
-      <c r="M49" s="356">
+      <c r="M49" s="360">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="367">
+      <c r="N49" s="345">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -9861,8 +9860,8 @@
       <c r="L50" s="73">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="357"/>
-      <c r="N50" s="368"/>
+      <c r="M50" s="361"/>
+      <c r="N50" s="346"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -9954,29 +9953,29 @@
       <c r="A55" s="126"/>
       <c r="B55" s="127"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="369" t="s">
+      <c r="H55" s="347" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="370"/>
+      <c r="I55" s="348"/>
       <c r="J55" s="128"/>
-      <c r="K55" s="371">
+      <c r="K55" s="349">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="372"/>
-      <c r="M55" s="373">
+      <c r="L55" s="350"/>
+      <c r="M55" s="351">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="374"/>
+      <c r="N55" s="352"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="366" t="s">
+      <c r="D56" s="344" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="366"/>
+      <c r="E56" s="344"/>
       <c r="F56" s="129">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -9987,22 +9986,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="337" t="s">
+      <c r="D57" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="337"/>
+      <c r="E57" s="362"/>
       <c r="F57" s="124">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="338" t="s">
+      <c r="I57" s="363" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="339"/>
-      <c r="K57" s="340">
+      <c r="J57" s="364"/>
+      <c r="K57" s="365">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="341"/>
+      <c r="L57" s="366"/>
       <c r="P57" s="34"/>
       <c r="Q57" s="9"/>
     </row>
@@ -10033,11 +10032,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="140"/>
-      <c r="K59" s="342">
+      <c r="K59" s="367">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="343"/>
+      <c r="L59" s="368"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="141" t="s">
@@ -10054,22 +10053,22 @@
       <c r="C61" s="143">
         <v>44955</v>
       </c>
-      <c r="D61" s="344" t="s">
+      <c r="D61" s="369" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="345"/>
+      <c r="E61" s="370"/>
       <c r="F61" s="144">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="346" t="s">
+      <c r="I61" s="371" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="347"/>
-      <c r="K61" s="348">
+      <c r="J61" s="372"/>
+      <c r="K61" s="373">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="348"/>
+      <c r="L61" s="373"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="145"/>
@@ -10194,6 +10193,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10203,18 +10214,6 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11644,23 +11643,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="349"/>
-      <c r="C1" s="351" t="s">
+      <c r="B1" s="353"/>
+      <c r="C1" s="355" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="352"/>
-      <c r="I1" s="352"/>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="356"/>
+      <c r="H1" s="356"/>
+      <c r="I1" s="356"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="350"/>
+      <c r="B2" s="354"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -11673,21 +11672,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="354"/>
+      <c r="B3" s="357" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="358"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="355" t="s">
+      <c r="H3" s="359" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="355"/>
+      <c r="I3" s="359"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="390" t="s">
+      <c r="R3" s="389" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11702,14 +11701,14 @@
       <c r="D4" s="290">
         <v>45081</v>
       </c>
-      <c r="E4" s="360" t="s">
+      <c r="E4" s="338" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="361"/>
-      <c r="H4" s="362" t="s">
+      <c r="F4" s="339"/>
+      <c r="H4" s="340" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="363"/>
+      <c r="I4" s="341"/>
       <c r="J4" s="239"/>
       <c r="K4" s="240"/>
       <c r="L4" s="16"/>
@@ -11719,11 +11718,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="376" t="s">
+      <c r="P4" s="375" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="377"/>
-      <c r="R4" s="391"/>
+      <c r="Q4" s="376"/>
+      <c r="R4" s="390"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -13466,11 +13465,11 @@
       <c r="J45" s="83"/>
       <c r="K45" s="86"/>
       <c r="L45" s="265"/>
-      <c r="M45" s="356">
+      <c r="M45" s="360">
         <f>SUM(M5:M39)</f>
         <v>3170751</v>
       </c>
-      <c r="N45" s="367">
+      <c r="N45" s="345">
         <f>SUM(N5:N39)</f>
         <v>31751.230000000003</v>
       </c>
@@ -13499,8 +13498,8 @@
       <c r="J46" s="83"/>
       <c r="K46" s="99"/>
       <c r="L46" s="265"/>
-      <c r="M46" s="357"/>
-      <c r="N46" s="368"/>
+      <c r="M46" s="361"/>
+      <c r="N46" s="346"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -13592,29 +13591,29 @@
       <c r="A51" s="126"/>
       <c r="B51" s="127"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="369" t="s">
+      <c r="H51" s="347" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="370"/>
+      <c r="I51" s="348"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="371">
+      <c r="K51" s="349">
         <f>I49+L49</f>
         <v>66093.360000000015</v>
       </c>
-      <c r="L51" s="372"/>
-      <c r="M51" s="373">
+      <c r="L51" s="350"/>
+      <c r="M51" s="351">
         <f>N45+M45</f>
         <v>3202502.23</v>
       </c>
-      <c r="N51" s="374"/>
+      <c r="N51" s="352"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="366" t="s">
+      <c r="D52" s="344" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="366"/>
+      <c r="E52" s="344"/>
       <c r="F52" s="129">
         <f>F49-K51-C49</f>
         <v>3132761.64</v>
@@ -13625,22 +13624,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="337" t="s">
+      <c r="D53" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="337"/>
+      <c r="E53" s="362"/>
       <c r="F53" s="124">
         <v>-3128572.23</v>
       </c>
-      <c r="I53" s="338" t="s">
+      <c r="I53" s="363" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="339"/>
-      <c r="K53" s="378">
+      <c r="J53" s="364"/>
+      <c r="K53" s="377">
         <f>F55+F56+F57</f>
         <v>417897.52000000014</v>
       </c>
-      <c r="L53" s="379"/>
+      <c r="L53" s="378"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
@@ -13671,11 +13670,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="140"/>
-      <c r="K55" s="380">
+      <c r="K55" s="379">
         <f>-C4</f>
         <v>-345633.69</v>
       </c>
-      <c r="L55" s="381"/>
+      <c r="L55" s="380"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="141" t="s">
@@ -13692,22 +13691,22 @@
       <c r="C57" s="143">
         <v>45109</v>
       </c>
-      <c r="D57" s="344" t="s">
+      <c r="D57" s="369" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="345"/>
+      <c r="E57" s="370"/>
       <c r="F57" s="299">
         <v>359108.11</v>
       </c>
-      <c r="I57" s="385" t="s">
+      <c r="I57" s="386" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="386"/>
-      <c r="K57" s="387">
+      <c r="J57" s="387"/>
+      <c r="K57" s="388">
         <f>K53+K55</f>
         <v>72263.830000000133</v>
       </c>
-      <c r="L57" s="387"/>
+      <c r="L57" s="388"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="145"/>
@@ -13832,18 +13831,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13853,6 +13840,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15265,23 +15264,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="349"/>
-      <c r="C1" s="351" t="s">
+      <c r="B1" s="353"/>
+      <c r="C1" s="355" t="s">
         <v>381</v>
       </c>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="352"/>
-      <c r="I1" s="352"/>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="356"/>
+      <c r="H1" s="356"/>
+      <c r="I1" s="356"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="350"/>
+      <c r="B2" s="354"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -15294,21 +15293,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="354"/>
+      <c r="B3" s="357" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="358"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="355" t="s">
+      <c r="H3" s="359" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="355"/>
+      <c r="I3" s="359"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="390" t="s">
+      <c r="R3" s="389" t="s">
         <v>2</v>
       </c>
     </row>
@@ -15323,14 +15322,14 @@
       <c r="D4" s="290">
         <v>45109</v>
       </c>
-      <c r="E4" s="360" t="s">
+      <c r="E4" s="338" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="361"/>
-      <c r="H4" s="362" t="s">
+      <c r="F4" s="339"/>
+      <c r="H4" s="340" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="363"/>
+      <c r="I4" s="341"/>
       <c r="J4" s="239"/>
       <c r="K4" s="240"/>
       <c r="L4" s="16"/>
@@ -15340,11 +15339,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="376" t="s">
+      <c r="P4" s="375" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="377"/>
-      <c r="R4" s="391"/>
+      <c r="Q4" s="376"/>
+      <c r="R4" s="390"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -17129,11 +17128,11 @@
       <c r="J45" s="83"/>
       <c r="K45" s="86"/>
       <c r="L45" s="265"/>
-      <c r="M45" s="356">
+      <c r="M45" s="360">
         <f>SUM(M5:M39)</f>
         <v>3725440</v>
       </c>
-      <c r="N45" s="367">
+      <c r="N45" s="345">
         <f>SUM(N5:N39)</f>
         <v>22373</v>
       </c>
@@ -17162,8 +17161,8 @@
       <c r="J46" s="83"/>
       <c r="K46" s="99"/>
       <c r="L46" s="265"/>
-      <c r="M46" s="357"/>
-      <c r="N46" s="368"/>
+      <c r="M46" s="361"/>
+      <c r="N46" s="346"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="223">
         <f t="shared" si="1"/>
@@ -17261,29 +17260,29 @@
       <c r="A51" s="126"/>
       <c r="B51" s="127"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="369" t="s">
+      <c r="H51" s="347" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="370"/>
+      <c r="I51" s="348"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="371">
+      <c r="K51" s="349">
         <f>I49+L49</f>
         <v>68872.53</v>
       </c>
-      <c r="L51" s="372"/>
-      <c r="M51" s="373">
+      <c r="L51" s="350"/>
+      <c r="M51" s="351">
         <f>N45+M45</f>
         <v>3747813</v>
       </c>
-      <c r="N51" s="374"/>
+      <c r="N51" s="352"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="366" t="s">
+      <c r="D52" s="344" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="366"/>
+      <c r="E52" s="344"/>
       <c r="F52" s="129">
         <f>F49-K51-C49</f>
         <v>1766408.4700000002</v>
@@ -17294,22 +17293,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="337" t="s">
+      <c r="D53" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="337"/>
+      <c r="E53" s="362"/>
       <c r="F53" s="124">
         <v>-2396693.7400000002</v>
       </c>
-      <c r="I53" s="338" t="s">
+      <c r="I53" s="363" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="339"/>
-      <c r="K53" s="378">
+      <c r="J53" s="364"/>
+      <c r="K53" s="377">
         <f>F55+F56+F57</f>
         <v>-170615.15000000002</v>
       </c>
-      <c r="L53" s="379"/>
+      <c r="L53" s="378"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
@@ -17341,11 +17340,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="140"/>
-      <c r="K55" s="380">
+      <c r="K55" s="379">
         <f>-C4</f>
         <v>-359108.11</v>
       </c>
-      <c r="L55" s="381"/>
+      <c r="L55" s="380"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -17363,22 +17362,22 @@
       <c r="C57" s="143">
         <v>45137</v>
       </c>
-      <c r="D57" s="344" t="s">
+      <c r="D57" s="369" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="345"/>
+      <c r="E57" s="370"/>
       <c r="F57" s="299">
         <v>358228.12</v>
       </c>
-      <c r="I57" s="382" t="s">
+      <c r="I57" s="381" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="383"/>
-      <c r="K57" s="392">
+      <c r="J57" s="382"/>
+      <c r="K57" s="391">
         <f>K53+K55</f>
         <v>-529723.26</v>
       </c>
-      <c r="L57" s="392"/>
+      <c r="L57" s="391"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="145"/>
@@ -17506,6 +17505,18 @@
     <sortCondition ref="J34:J41"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -17515,18 +17526,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18976,10 +18975,10 @@
   <dimension ref="A1:U90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="K46" sqref="K45:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19004,23 +19003,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="349"/>
-      <c r="C1" s="351" t="s">
+      <c r="B1" s="353"/>
+      <c r="C1" s="355" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="352"/>
-      <c r="I1" s="352"/>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="356"/>
+      <c r="H1" s="356"/>
+      <c r="I1" s="356"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="350"/>
+      <c r="B2" s="354"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -19033,21 +19032,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="354"/>
+      <c r="B3" s="357" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="358"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="355" t="s">
+      <c r="H3" s="359" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="355"/>
+      <c r="I3" s="359"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="393" t="s">
+      <c r="R3" s="392" t="s">
         <v>2</v>
       </c>
     </row>
@@ -19062,14 +19061,14 @@
       <c r="D4" s="290">
         <v>45137</v>
       </c>
-      <c r="E4" s="360" t="s">
+      <c r="E4" s="338" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="361"/>
-      <c r="H4" s="362" t="s">
+      <c r="F4" s="339"/>
+      <c r="H4" s="340" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="363"/>
+      <c r="I4" s="341"/>
       <c r="J4" s="239"/>
       <c r="K4" s="240"/>
       <c r="L4" s="16"/>
@@ -19079,11 +19078,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="376" t="s">
+      <c r="P4" s="375" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="377"/>
-      <c r="R4" s="394"/>
+      <c r="Q4" s="376"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -20103,7 +20102,7 @@
       <c r="J26" s="262"/>
       <c r="K26" s="335"/>
       <c r="L26" s="247"/>
-      <c r="M26" s="336">
+      <c r="M26" s="31">
         <f>40000+80664</f>
         <v>120664</v>
       </c>
@@ -20148,7 +20147,7 @@
       <c r="J27" s="261"/>
       <c r="K27" s="259"/>
       <c r="L27" s="260"/>
-      <c r="M27" s="336">
+      <c r="M27" s="31">
         <f>5800+125721</f>
         <v>131521</v>
       </c>
@@ -20193,7 +20192,7 @@
       <c r="J28" s="262"/>
       <c r="K28" s="68"/>
       <c r="L28" s="260"/>
-      <c r="M28" s="336">
+      <c r="M28" s="31">
         <f>3528+34300</f>
         <v>37828</v>
       </c>
@@ -20238,7 +20237,7 @@
       <c r="J29" s="261"/>
       <c r="K29" s="263"/>
       <c r="L29" s="260"/>
-      <c r="M29" s="336">
+      <c r="M29" s="31">
         <f>28000+134556</f>
         <v>162556</v>
       </c>
@@ -20286,7 +20285,7 @@
       <c r="J30" s="83"/>
       <c r="K30" s="264"/>
       <c r="L30" s="265"/>
-      <c r="M30" s="336">
+      <c r="M30" s="31">
         <f>29000+132539</f>
         <v>161539</v>
       </c>
@@ -20339,7 +20338,7 @@
       <c r="L31" s="260">
         <v>6907</v>
       </c>
-      <c r="M31" s="336">
+      <c r="M31" s="31">
         <f>35000+90413</f>
         <v>125413</v>
       </c>
@@ -20384,7 +20383,7 @@
       <c r="J32" s="83"/>
       <c r="K32" s="264"/>
       <c r="L32" s="265"/>
-      <c r="M32" s="336">
+      <c r="M32" s="31">
         <f>61000+42424</f>
         <v>103424</v>
       </c>
@@ -20429,7 +20428,7 @@
       <c r="J33" s="83"/>
       <c r="K33" s="266"/>
       <c r="L33" s="203"/>
-      <c r="M33" s="336">
+      <c r="M33" s="31">
         <f>23000+166753</f>
         <v>189753</v>
       </c>
@@ -20477,7 +20476,7 @@
       <c r="J34" s="83"/>
       <c r="K34" s="315"/>
       <c r="L34" s="268"/>
-      <c r="M34" s="336">
+      <c r="M34" s="31">
         <f>156468</f>
         <v>156468</v>
       </c>
@@ -20524,7 +20523,7 @@
       <c r="J35" s="83"/>
       <c r="K35" s="266"/>
       <c r="L35" s="203"/>
-      <c r="M35" s="336">
+      <c r="M35" s="31">
         <f>10000+33074</f>
         <v>43074</v>
       </c>
@@ -20569,7 +20568,7 @@
       <c r="J36" s="83"/>
       <c r="K36" s="302"/>
       <c r="L36" s="203"/>
-      <c r="M36" s="336">
+      <c r="M36" s="31">
         <f>13500+128408</f>
         <v>141908</v>
       </c>
@@ -20616,7 +20615,7 @@
       <c r="J37" s="83"/>
       <c r="K37" s="269"/>
       <c r="L37" s="203"/>
-      <c r="M37" s="336">
+      <c r="M37" s="31">
         <f>45500+68882</f>
         <v>114382</v>
       </c>
@@ -20669,8 +20668,8 @@
       <c r="L38" s="203">
         <v>6500</v>
       </c>
-      <c r="M38" s="336">
-        <f>72000+83488+5718</f>
+      <c r="M38" s="31">
+        <f>72000+89206</f>
         <v>161206</v>
       </c>
       <c r="N38" s="32">
@@ -20714,7 +20713,7 @@
       <c r="J39" s="83"/>
       <c r="K39" s="266"/>
       <c r="L39" s="265"/>
-      <c r="M39" s="336">
+      <c r="M39" s="31">
         <f>64000+42527</f>
         <v>106527</v>
       </c>
@@ -20759,7 +20758,7 @@
       <c r="J40" s="83"/>
       <c r="K40" s="218"/>
       <c r="L40" s="265"/>
-      <c r="M40" s="336">
+      <c r="M40" s="31">
         <f>26000+100000+33000</f>
         <v>159000</v>
       </c>
@@ -20804,7 +20803,7 @@
       <c r="J41" s="83"/>
       <c r="K41" s="288"/>
       <c r="L41" s="265"/>
-      <c r="M41" s="336">
+      <c r="M41" s="31">
         <f>74000+74218</f>
         <v>148218</v>
       </c>
@@ -20837,7 +20836,7 @@
       <c r="J42" s="83"/>
       <c r="K42" s="288"/>
       <c r="L42" s="265"/>
-      <c r="M42" s="336"/>
+      <c r="M42" s="31"/>
       <c r="N42" s="32"/>
       <c r="O42" s="33"/>
       <c r="P42" s="222"/>
@@ -21221,11 +21220,11 @@
       <c r="J56" s="83"/>
       <c r="K56" s="86"/>
       <c r="L56" s="265"/>
-      <c r="M56" s="356">
+      <c r="M56" s="360">
         <f>SUM(M5:M39)</f>
         <v>4389810</v>
       </c>
-      <c r="N56" s="367">
+      <c r="N56" s="345">
         <f>SUM(N5:N39)</f>
         <v>10483</v>
       </c>
@@ -21254,8 +21253,8 @@
       <c r="J57" s="83"/>
       <c r="K57" s="99"/>
       <c r="L57" s="265"/>
-      <c r="M57" s="357"/>
-      <c r="N57" s="368"/>
+      <c r="M57" s="361"/>
+      <c r="N57" s="346"/>
       <c r="P57" s="34"/>
       <c r="Q57" s="223">
         <f t="shared" si="2"/>
@@ -21353,29 +21352,29 @@
       <c r="A62" s="126"/>
       <c r="B62" s="127"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="369" t="s">
+      <c r="H62" s="347" t="s">
         <v>13</v>
       </c>
-      <c r="I62" s="370"/>
+      <c r="I62" s="348"/>
       <c r="J62" s="128"/>
-      <c r="K62" s="371">
+      <c r="K62" s="349">
         <f>I60+L60</f>
         <v>832789.16999999993</v>
       </c>
-      <c r="L62" s="372"/>
-      <c r="M62" s="373">
+      <c r="L62" s="350"/>
+      <c r="M62" s="351">
         <f>N56+M56</f>
         <v>4400293</v>
       </c>
-      <c r="N62" s="374"/>
+      <c r="N62" s="352"/>
       <c r="P62" s="34"/>
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D63" s="366" t="s">
+      <c r="D63" s="344" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="366"/>
+      <c r="E63" s="344"/>
       <c r="F63" s="129">
         <f>F60-K62-C60</f>
         <v>1545078.3600000003</v>
@@ -21386,22 +21385,22 @@
       <c r="Q63" s="9"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D64" s="337" t="s">
+      <c r="D64" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="337"/>
+      <c r="E64" s="362"/>
       <c r="F64" s="124">
         <v>0</v>
       </c>
-      <c r="I64" s="338" t="s">
+      <c r="I64" s="363" t="s">
         <v>16</v>
       </c>
-      <c r="J64" s="339"/>
-      <c r="K64" s="378">
+      <c r="J64" s="364"/>
+      <c r="K64" s="377">
         <f>F66+F67+F68</f>
         <v>2177033.4400000004</v>
       </c>
-      <c r="L64" s="379"/>
+      <c r="L64" s="378"/>
       <c r="P64" s="34"/>
       <c r="Q64" s="9"/>
     </row>
@@ -21433,11 +21432,11 @@
         <v>18</v>
       </c>
       <c r="J66" s="140"/>
-      <c r="K66" s="380">
+      <c r="K66" s="379">
         <f>-C4</f>
         <v>-358228.12</v>
       </c>
-      <c r="L66" s="381"/>
+      <c r="L66" s="380"/>
       <c r="Q66" s="9"/>
     </row>
     <row r="67" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21455,22 +21454,22 @@
       <c r="C68" s="143">
         <v>45174</v>
       </c>
-      <c r="D68" s="344" t="s">
+      <c r="D68" s="369" t="s">
         <v>21</v>
       </c>
-      <c r="E68" s="345"/>
+      <c r="E68" s="370"/>
       <c r="F68" s="299">
         <v>553123.07999999996</v>
       </c>
-      <c r="I68" s="382" t="s">
+      <c r="I68" s="381" t="s">
         <v>170</v>
       </c>
-      <c r="J68" s="383"/>
-      <c r="K68" s="392">
+      <c r="J68" s="382"/>
+      <c r="K68" s="391">
         <f>K64+K66</f>
         <v>1818805.3200000003</v>
       </c>
-      <c r="L68" s="392"/>
+      <c r="L68" s="391"/>
     </row>
     <row r="69" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="145"/>
@@ -21595,18 +21594,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M56:M57"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -21616,6 +21603,18 @@
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="M62:N62"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24350,23 +24349,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="349"/>
-      <c r="C1" s="351" t="s">
+      <c r="B1" s="353"/>
+      <c r="C1" s="355" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="352"/>
-      <c r="I1" s="352"/>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="356"/>
+      <c r="H1" s="356"/>
+      <c r="I1" s="356"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="350"/>
+      <c r="B2" s="354"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -24376,21 +24375,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="354"/>
+      <c r="B3" s="357" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="358"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="355" t="s">
+      <c r="H3" s="359" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="355"/>
+      <c r="I3" s="359"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="358" t="s">
+      <c r="R3" s="336" t="s">
         <v>2</v>
       </c>
     </row>
@@ -24405,14 +24404,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="360" t="s">
+      <c r="E4" s="338" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="361"/>
-      <c r="H4" s="362" t="s">
+      <c r="F4" s="339"/>
+      <c r="H4" s="340" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="363"/>
+      <c r="I4" s="341"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -24422,11 +24421,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="376" t="s">
+      <c r="P4" s="375" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="377"/>
-      <c r="R4" s="375"/>
+      <c r="Q4" s="376"/>
+      <c r="R4" s="374"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -26186,11 +26185,11 @@
       <c r="J45" s="71"/>
       <c r="K45" s="94"/>
       <c r="L45" s="73"/>
-      <c r="M45" s="356">
+      <c r="M45" s="360">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="367">
+      <c r="N45" s="345">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -26219,8 +26218,8 @@
       <c r="J46" s="71"/>
       <c r="K46" s="99"/>
       <c r="L46" s="73"/>
-      <c r="M46" s="357"/>
-      <c r="N46" s="368"/>
+      <c r="M46" s="361"/>
+      <c r="N46" s="346"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -26312,29 +26311,29 @@
       <c r="A51" s="126"/>
       <c r="B51" s="127"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="369" t="s">
+      <c r="H51" s="347" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="370"/>
+      <c r="I51" s="348"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="371">
+      <c r="K51" s="349">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="372"/>
-      <c r="M51" s="373">
+      <c r="L51" s="350"/>
+      <c r="M51" s="351">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="374"/>
+      <c r="N51" s="352"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="366" t="s">
+      <c r="D52" s="344" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="366"/>
+      <c r="E52" s="344"/>
       <c r="F52" s="129">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -26345,22 +26344,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="337" t="s">
+      <c r="D53" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="337"/>
+      <c r="E53" s="362"/>
       <c r="F53" s="124">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="338" t="s">
+      <c r="I53" s="363" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="339"/>
-      <c r="K53" s="340">
+      <c r="J53" s="364"/>
+      <c r="K53" s="365">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="341"/>
+      <c r="L53" s="366"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
@@ -26391,11 +26390,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="140"/>
-      <c r="K55" s="342">
+      <c r="K55" s="367">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="343"/>
+      <c r="L55" s="368"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="141" t="s">
@@ -26412,22 +26411,22 @@
       <c r="C57" s="143">
         <v>44985</v>
       </c>
-      <c r="D57" s="344" t="s">
+      <c r="D57" s="369" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="345"/>
+      <c r="E57" s="370"/>
       <c r="F57" s="144">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="346" t="s">
+      <c r="I57" s="371" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="347"/>
-      <c r="K57" s="348">
+      <c r="J57" s="372"/>
+      <c r="K57" s="373">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="348"/>
+      <c r="L57" s="373"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="145"/>
@@ -26552,6 +26551,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -26561,18 +26572,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28031,23 +28030,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="349"/>
-      <c r="C1" s="351" t="s">
+      <c r="B1" s="353"/>
+      <c r="C1" s="355" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="352"/>
-      <c r="I1" s="352"/>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="356"/>
+      <c r="H1" s="356"/>
+      <c r="I1" s="356"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="350"/>
+      <c r="B2" s="354"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -28057,21 +28056,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="354"/>
+      <c r="B3" s="357" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="358"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="355" t="s">
+      <c r="H3" s="359" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="355"/>
+      <c r="I3" s="359"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="358" t="s">
+      <c r="R3" s="336" t="s">
         <v>2</v>
       </c>
     </row>
@@ -28086,14 +28085,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="360" t="s">
+      <c r="E4" s="338" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="361"/>
-      <c r="H4" s="362" t="s">
+      <c r="F4" s="339"/>
+      <c r="H4" s="340" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="363"/>
+      <c r="I4" s="341"/>
       <c r="J4" s="239"/>
       <c r="K4" s="240"/>
       <c r="L4" s="16"/>
@@ -28103,11 +28102,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="376" t="s">
+      <c r="P4" s="375" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="377"/>
-      <c r="R4" s="375"/>
+      <c r="Q4" s="376"/>
+      <c r="R4" s="374"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -29859,11 +29858,11 @@
       <c r="J45" s="83"/>
       <c r="K45" s="218"/>
       <c r="L45" s="265"/>
-      <c r="M45" s="356">
+      <c r="M45" s="360">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="367">
+      <c r="N45" s="345">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -29892,8 +29891,8 @@
       <c r="J46" s="83"/>
       <c r="K46" s="99"/>
       <c r="L46" s="265"/>
-      <c r="M46" s="357"/>
-      <c r="N46" s="368"/>
+      <c r="M46" s="361"/>
+      <c r="N46" s="346"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -29985,29 +29984,29 @@
       <c r="A51" s="126"/>
       <c r="B51" s="127"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="369" t="s">
+      <c r="H51" s="347" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="370"/>
+      <c r="I51" s="348"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="371">
+      <c r="K51" s="349">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="372"/>
-      <c r="M51" s="373">
+      <c r="L51" s="350"/>
+      <c r="M51" s="351">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="374"/>
+      <c r="N51" s="352"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="366" t="s">
+      <c r="D52" s="344" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="366"/>
+      <c r="E52" s="344"/>
       <c r="F52" s="129">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -30018,22 +30017,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="337" t="s">
+      <c r="D53" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="337"/>
+      <c r="E53" s="362"/>
       <c r="F53" s="124">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="338" t="s">
+      <c r="I53" s="363" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="339"/>
-      <c r="K53" s="378">
+      <c r="J53" s="364"/>
+      <c r="K53" s="377">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
       </c>
-      <c r="L53" s="379"/>
+      <c r="L53" s="378"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
@@ -30064,11 +30063,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="140"/>
-      <c r="K55" s="380">
+      <c r="K55" s="379">
         <f>-C4</f>
         <v>-230554.55</v>
       </c>
-      <c r="L55" s="381"/>
+      <c r="L55" s="380"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="141" t="s">
@@ -30085,22 +30084,22 @@
       <c r="C57" s="143">
         <v>45015</v>
       </c>
-      <c r="D57" s="344" t="s">
+      <c r="D57" s="369" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="345"/>
+      <c r="E57" s="370"/>
       <c r="F57" s="144">
         <v>341192.34</v>
       </c>
-      <c r="I57" s="382" t="s">
+      <c r="I57" s="381" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="383"/>
-      <c r="K57" s="384">
+      <c r="J57" s="382"/>
+      <c r="K57" s="383">
         <f>K53+K55</f>
         <v>-262575.91999999993</v>
       </c>
-      <c r="L57" s="384"/>
+      <c r="L57" s="383"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="145"/>
@@ -30225,18 +30224,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30246,6 +30233,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -31647,23 +31646,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="349"/>
-      <c r="C1" s="351" t="s">
+      <c r="B1" s="353"/>
+      <c r="C1" s="355" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="352"/>
-      <c r="I1" s="352"/>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="356"/>
+      <c r="H1" s="356"/>
+      <c r="I1" s="356"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="350"/>
+      <c r="B2" s="354"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -31676,21 +31675,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="354"/>
+      <c r="B3" s="357" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="358"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="355" t="s">
+      <c r="H3" s="359" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="355"/>
+      <c r="I3" s="359"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="388" t="s">
+      <c r="R3" s="384" t="s">
         <v>2</v>
       </c>
     </row>
@@ -31705,14 +31704,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="360" t="s">
+      <c r="E4" s="338" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="361"/>
-      <c r="H4" s="362" t="s">
+      <c r="F4" s="339"/>
+      <c r="H4" s="340" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="363"/>
+      <c r="I4" s="341"/>
       <c r="J4" s="239"/>
       <c r="K4" s="240"/>
       <c r="L4" s="16"/>
@@ -31722,11 +31721,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="376" t="s">
+      <c r="P4" s="375" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="377"/>
-      <c r="R4" s="389"/>
+      <c r="Q4" s="376"/>
+      <c r="R4" s="385"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -33572,11 +33571,11 @@
       <c r="L45" s="295">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="356">
+      <c r="M45" s="360">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="367">
+      <c r="N45" s="345">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -33611,8 +33610,8 @@
       <c r="L46" s="265">
         <v>34015</v>
       </c>
-      <c r="M46" s="357"/>
-      <c r="N46" s="368"/>
+      <c r="M46" s="361"/>
+      <c r="N46" s="346"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -33704,29 +33703,29 @@
       <c r="A51" s="126"/>
       <c r="B51" s="127"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="369" t="s">
+      <c r="H51" s="347" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="370"/>
+      <c r="I51" s="348"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="371">
+      <c r="K51" s="349">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="372"/>
-      <c r="M51" s="373">
+      <c r="L51" s="350"/>
+      <c r="M51" s="351">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="374"/>
+      <c r="N51" s="352"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="366" t="s">
+      <c r="D52" s="344" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="366"/>
+      <c r="E52" s="344"/>
       <c r="F52" s="129">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -33737,22 +33736,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="337" t="s">
+      <c r="D53" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="337"/>
+      <c r="E53" s="362"/>
       <c r="F53" s="124">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="338" t="s">
+      <c r="I53" s="363" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="339"/>
-      <c r="K53" s="378">
+      <c r="J53" s="364"/>
+      <c r="K53" s="377">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
       </c>
-      <c r="L53" s="379"/>
+      <c r="L53" s="378"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
@@ -33783,11 +33782,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="140"/>
-      <c r="K55" s="380">
+      <c r="K55" s="379">
         <f>-C4</f>
         <v>-341192.34</v>
       </c>
-      <c r="L55" s="381"/>
+      <c r="L55" s="380"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="141" t="s">
@@ -33804,22 +33803,22 @@
       <c r="C57" s="143">
         <v>45050</v>
       </c>
-      <c r="D57" s="344" t="s">
+      <c r="D57" s="369" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="345"/>
+      <c r="E57" s="370"/>
       <c r="F57" s="144">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="385" t="s">
+      <c r="I57" s="386" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="386"/>
-      <c r="K57" s="387">
+      <c r="J57" s="387"/>
+      <c r="K57" s="388">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="387"/>
+      <c r="L57" s="388"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="145"/>
@@ -33944,6 +33943,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -33953,18 +33964,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35356,23 +35355,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="349"/>
-      <c r="C1" s="351" t="s">
+      <c r="B1" s="353"/>
+      <c r="C1" s="355" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="352"/>
-      <c r="I1" s="352"/>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="356"/>
+      <c r="H1" s="356"/>
+      <c r="I1" s="356"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="350"/>
+      <c r="B2" s="354"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -35385,21 +35384,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="354"/>
+      <c r="B3" s="357" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="358"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="355" t="s">
+      <c r="H3" s="359" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="355"/>
+      <c r="I3" s="359"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="390" t="s">
+      <c r="R3" s="389" t="s">
         <v>2</v>
       </c>
     </row>
@@ -35414,14 +35413,14 @@
       <c r="D4" s="290">
         <v>45050</v>
       </c>
-      <c r="E4" s="360" t="s">
+      <c r="E4" s="338" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="361"/>
-      <c r="H4" s="362" t="s">
+      <c r="F4" s="339"/>
+      <c r="H4" s="340" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="363"/>
+      <c r="I4" s="341"/>
       <c r="J4" s="239"/>
       <c r="K4" s="240"/>
       <c r="L4" s="16"/>
@@ -35431,11 +35430,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="376" t="s">
+      <c r="P4" s="375" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="377"/>
-      <c r="R4" s="391"/>
+      <c r="Q4" s="376"/>
+      <c r="R4" s="390"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -37267,11 +37266,11 @@
       <c r="J45" s="83"/>
       <c r="K45" s="86"/>
       <c r="L45" s="265"/>
-      <c r="M45" s="356">
+      <c r="M45" s="360">
         <f>SUM(M5:M39)</f>
         <v>3007589</v>
       </c>
-      <c r="N45" s="367">
+      <c r="N45" s="345">
         <f>SUM(N5:N39)</f>
         <v>29752</v>
       </c>
@@ -37300,8 +37299,8 @@
       <c r="J46" s="83"/>
       <c r="K46" s="99"/>
       <c r="L46" s="265"/>
-      <c r="M46" s="357"/>
-      <c r="N46" s="368"/>
+      <c r="M46" s="361"/>
+      <c r="N46" s="346"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -37393,29 +37392,29 @@
       <c r="A51" s="126"/>
       <c r="B51" s="127"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="369" t="s">
+      <c r="H51" s="347" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="370"/>
+      <c r="I51" s="348"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="371">
+      <c r="K51" s="349">
         <f>I49+L49</f>
         <v>84500.43</v>
       </c>
-      <c r="L51" s="372"/>
-      <c r="M51" s="373">
+      <c r="L51" s="350"/>
+      <c r="M51" s="351">
         <f>N45+M45</f>
         <v>3037341</v>
       </c>
-      <c r="N51" s="374"/>
+      <c r="N51" s="352"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="366" t="s">
+      <c r="D52" s="344" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="366"/>
+      <c r="E52" s="344"/>
       <c r="F52" s="129">
         <f>F49-K51-C49</f>
         <v>2988109.57</v>
@@ -37426,22 +37425,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="337" t="s">
+      <c r="D53" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="337"/>
+      <c r="E53" s="362"/>
       <c r="F53" s="124">
         <v>-2955802.29</v>
       </c>
-      <c r="I53" s="338" t="s">
+      <c r="I53" s="363" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="339"/>
-      <c r="K53" s="378">
+      <c r="J53" s="364"/>
+      <c r="K53" s="377">
         <f>F55+F56+F57</f>
         <v>419364.9699999998</v>
       </c>
-      <c r="L53" s="379"/>
+      <c r="L53" s="378"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
@@ -37472,11 +37471,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="140"/>
-      <c r="K55" s="380">
+      <c r="K55" s="379">
         <f>-C4</f>
         <v>-394548.7</v>
       </c>
-      <c r="L55" s="381"/>
+      <c r="L55" s="380"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="141" t="s">
@@ -37493,22 +37492,22 @@
       <c r="C57" s="143">
         <v>45081</v>
       </c>
-      <c r="D57" s="344" t="s">
+      <c r="D57" s="369" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="345"/>
+      <c r="E57" s="370"/>
       <c r="F57" s="299">
         <v>345633.69</v>
       </c>
-      <c r="I57" s="385" t="s">
+      <c r="I57" s="386" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="386"/>
-      <c r="K57" s="387">
+      <c r="J57" s="387"/>
+      <c r="K57" s="388">
         <f>K53+K55</f>
         <v>24816.269999999786</v>
       </c>
-      <c r="L57" s="387"/>
+      <c r="L57" s="388"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="145"/>
@@ -37633,18 +37632,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -37654,6 +37641,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
